--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA50FB8-DB60-AE48-8C2B-C006F75148CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70FA36-7606-6A4A-A75A-94F36AD21DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A39224-C7A3-DC45-833D-204FCB526563}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F2">
         <v>762</v>
@@ -2923,7 +2923,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F3">
         <v>772</v>
@@ -2953,7 +2953,7 @@
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4">
         <v>839</v>
@@ -2983,7 +2983,7 @@
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5">
         <v>791</v>
@@ -3013,7 +3013,7 @@
         <v>1000</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F6">
         <v>789</v>
@@ -3043,7 +3043,7 @@
         <v>1000</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7">
         <v>776</v>
@@ -3073,7 +3073,7 @@
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8">
         <v>837</v>
@@ -3103,7 +3103,7 @@
         <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F9">
         <v>798</v>
@@ -3133,7 +3133,7 @@
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F10">
         <v>836</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F11">
         <v>737</v>
@@ -3193,7 +3193,7 @@
         <v>1000</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F12">
         <v>836</v>
@@ -3223,7 +3223,7 @@
         <v>1000</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>757</v>
@@ -3253,7 +3253,7 @@
         <v>1000</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>821</v>
@@ -3283,7 +3283,7 @@
         <v>1000</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F15">
         <v>749</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F16">
         <v>833</v>
@@ -3343,7 +3343,7 @@
         <v>1000</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17">
         <v>793</v>
@@ -3373,7 +3373,7 @@
         <v>1000</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F18">
         <v>812</v>
@@ -3472,6 +3472,9 @@
         <f t="shared" si="0"/>
         <v>717</v>
       </c>
+      <c r="H21">
+        <v>20210609</v>
+      </c>
       <c r="I21" t="s">
         <v>231</v>
       </c>
@@ -3499,6 +3502,9 @@
         <f t="shared" si="0"/>
         <v>784</v>
       </c>
+      <c r="H22">
+        <v>20210609</v>
+      </c>
       <c r="I22" t="s">
         <v>231</v>
       </c>
@@ -3526,6 +3532,9 @@
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
+      <c r="H23">
+        <v>20210609</v>
+      </c>
       <c r="I23" t="s">
         <v>231</v>
       </c>
@@ -3546,9 +3555,15 @@
       <c r="E24">
         <v>106</v>
       </c>
+      <c r="F24">
+        <v>869</v>
+      </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>-106</v>
+        <v>763</v>
+      </c>
+      <c r="H24">
+        <v>20210609</v>
       </c>
       <c r="I24" t="s">
         <v>231</v>
@@ -3577,6 +3592,9 @@
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
+      <c r="H25">
+        <v>20210609</v>
+      </c>
       <c r="I25" t="s">
         <v>231</v>
       </c>
@@ -3604,6 +3622,9 @@
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
+      <c r="H26">
+        <v>20210609</v>
+      </c>
       <c r="I26" t="s">
         <v>231</v>
       </c>
@@ -3631,6 +3652,9 @@
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
+      <c r="H27">
+        <v>20210609</v>
+      </c>
       <c r="I27" t="s">
         <v>231</v>
       </c>
@@ -3658,6 +3682,9 @@
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
+      <c r="H28">
+        <v>20210609</v>
+      </c>
       <c r="I28" t="s">
         <v>231</v>
       </c>
@@ -3685,6 +3712,9 @@
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
+      <c r="H29">
+        <v>20210609</v>
+      </c>
       <c r="I29" t="s">
         <v>231</v>
       </c>
@@ -3712,6 +3742,9 @@
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
+      <c r="H30">
+        <v>20210609</v>
+      </c>
       <c r="I30" t="s">
         <v>231</v>
       </c>
@@ -3739,6 +3772,9 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
+      <c r="H31">
+        <v>20210609</v>
+      </c>
       <c r="I31" t="s">
         <v>231</v>
       </c>
@@ -3766,6 +3802,9 @@
         <f t="shared" si="0"/>
         <v>785</v>
       </c>
+      <c r="H32">
+        <v>20210609</v>
+      </c>
       <c r="I32" t="s">
         <v>231</v>
       </c>
@@ -3793,6 +3832,9 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
+      <c r="H33">
+        <v>20210609</v>
+      </c>
       <c r="I33" t="s">
         <v>231</v>
       </c>
@@ -3820,6 +3862,9 @@
         <f t="shared" si="0"/>
         <v>804</v>
       </c>
+      <c r="H34">
+        <v>20210609</v>
+      </c>
       <c r="I34" t="s">
         <v>231</v>
       </c>
@@ -3847,6 +3892,9 @@
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
+      <c r="H35">
+        <v>20210609</v>
+      </c>
       <c r="I35" t="s">
         <v>231</v>
       </c>
@@ -3874,6 +3922,9 @@
         <f t="shared" si="0"/>
         <v>815</v>
       </c>
+      <c r="H36">
+        <v>20210609</v>
+      </c>
       <c r="I36" t="s">
         <v>231</v>
       </c>
@@ -3900,6 +3951,9 @@
       <c r="G37">
         <f t="shared" si="0"/>
         <v>728</v>
+      </c>
+      <c r="H37">
+        <v>20210609</v>
       </c>
       <c r="I37" t="s">
         <v>231</v>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70FA36-7606-6A4A-A75A-94F36AD21DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548E42B-746D-2E46-A8DD-916D8EDA1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3972,9 +3972,12 @@
       <c r="D38">
         <v>1000</v>
       </c>
+      <c r="E38">
+        <v>88</v>
+      </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="I38" t="s">
         <v>231</v>
@@ -3993,9 +3996,12 @@
       <c r="D39">
         <v>1000</v>
       </c>
+      <c r="E39">
+        <v>89</v>
+      </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I39" t="s">
         <v>231</v>
@@ -4014,9 +4020,12 @@
       <c r="D40">
         <v>1000</v>
       </c>
+      <c r="E40">
+        <v>88</v>
+      </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="I40" t="s">
         <v>231</v>
@@ -4035,9 +4044,12 @@
       <c r="D41">
         <v>1000</v>
       </c>
+      <c r="E41">
+        <v>89</v>
+      </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I41" t="s">
         <v>231</v>
@@ -4056,9 +4068,12 @@
       <c r="D42">
         <v>1000</v>
       </c>
+      <c r="E42">
+        <v>104</v>
+      </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="I42" t="s">
         <v>231</v>
@@ -4077,9 +4092,12 @@
       <c r="D43">
         <v>1000</v>
       </c>
+      <c r="E43">
+        <v>89</v>
+      </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I43" t="s">
         <v>231</v>
@@ -4098,9 +4116,12 @@
       <c r="D44">
         <v>1000</v>
       </c>
+      <c r="E44">
+        <v>90</v>
+      </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="I44" t="s">
         <v>231</v>
@@ -4119,9 +4140,12 @@
       <c r="D45">
         <v>1000</v>
       </c>
+      <c r="E45">
+        <v>90</v>
+      </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="I45" t="s">
         <v>231</v>
@@ -4140,9 +4164,12 @@
       <c r="D46">
         <v>1000</v>
       </c>
+      <c r="E46">
+        <v>90</v>
+      </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="I46" t="s">
         <v>231</v>
@@ -4161,9 +4188,12 @@
       <c r="D47">
         <v>1000</v>
       </c>
+      <c r="E47">
+        <v>88</v>
+      </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="I47" t="s">
         <v>231</v>
@@ -4182,9 +4212,12 @@
       <c r="D48">
         <v>1000</v>
       </c>
+      <c r="E48">
+        <v>101</v>
+      </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="I48" t="s">
         <v>231</v>
@@ -4203,9 +4236,12 @@
       <c r="D49">
         <v>1000</v>
       </c>
+      <c r="E49">
+        <v>90</v>
+      </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="I49" t="s">
         <v>231</v>
@@ -4224,9 +4260,12 @@
       <c r="D50">
         <v>1000</v>
       </c>
+      <c r="E50">
+        <v>89</v>
+      </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I50" t="s">
         <v>231</v>
@@ -4245,9 +4284,12 @@
       <c r="D51">
         <v>1000</v>
       </c>
+      <c r="E51">
+        <v>89</v>
+      </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I51" t="s">
         <v>231</v>
@@ -4266,9 +4308,12 @@
       <c r="D52">
         <v>1000</v>
       </c>
+      <c r="E52">
+        <v>89</v>
+      </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I52" t="s">
         <v>231</v>
@@ -4287,9 +4332,12 @@
       <c r="D53">
         <v>1000</v>
       </c>
+      <c r="E53">
+        <v>88</v>
+      </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="I53" t="s">
         <v>231</v>
@@ -4308,9 +4356,12 @@
       <c r="D54">
         <v>1000</v>
       </c>
+      <c r="E54">
+        <v>88</v>
+      </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="I54" t="s">
         <v>231</v>
@@ -4329,9 +4380,12 @@
       <c r="D55">
         <v>1000</v>
       </c>
+      <c r="E55">
+        <v>89</v>
+      </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="I55" t="s">
         <v>231</v>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548E42B-746D-2E46-A8DD-916D8EDA1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F066D-2027-8F49-9D1D-44432DB3C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3975,9 +3975,15 @@
       <c r="E38">
         <v>88</v>
       </c>
+      <c r="F38">
+        <v>772</v>
+      </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>684</v>
+      </c>
+      <c r="H38">
+        <v>20210611</v>
       </c>
       <c r="I38" t="s">
         <v>231</v>
@@ -3999,9 +4005,15 @@
       <c r="E39">
         <v>89</v>
       </c>
+      <c r="F39">
+        <v>814</v>
+      </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>725</v>
+      </c>
+      <c r="H39">
+        <v>20210611</v>
       </c>
       <c r="I39" t="s">
         <v>231</v>
@@ -4023,9 +4035,15 @@
       <c r="E40">
         <v>88</v>
       </c>
+      <c r="F40">
+        <v>905</v>
+      </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>817</v>
+      </c>
+      <c r="H40">
+        <v>20210611</v>
       </c>
       <c r="I40" t="s">
         <v>231</v>
@@ -4047,9 +4065,15 @@
       <c r="E41">
         <v>89</v>
       </c>
+      <c r="F41">
+        <v>843</v>
+      </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>754</v>
+      </c>
+      <c r="H41">
+        <v>20210611</v>
       </c>
       <c r="I41" t="s">
         <v>231</v>
@@ -4071,9 +4095,15 @@
       <c r="E42">
         <v>104</v>
       </c>
+      <c r="F42">
+        <v>827</v>
+      </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>-104</v>
+        <v>723</v>
+      </c>
+      <c r="H42">
+        <v>20210611</v>
       </c>
       <c r="I42" t="s">
         <v>231</v>
@@ -4095,9 +4125,15 @@
       <c r="E43">
         <v>89</v>
       </c>
+      <c r="F43">
+        <v>810</v>
+      </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>721</v>
+      </c>
+      <c r="H43">
+        <v>20210611</v>
       </c>
       <c r="I43" t="s">
         <v>231</v>
@@ -4119,9 +4155,15 @@
       <c r="E44">
         <v>90</v>
       </c>
+      <c r="F44">
+        <v>847</v>
+      </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>757</v>
+      </c>
+      <c r="H44">
+        <v>20210611</v>
       </c>
       <c r="I44" t="s">
         <v>231</v>
@@ -4143,9 +4185,15 @@
       <c r="E45">
         <v>90</v>
       </c>
+      <c r="F45">
+        <v>790</v>
+      </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>700</v>
+      </c>
+      <c r="H45">
+        <v>20210611</v>
       </c>
       <c r="I45" t="s">
         <v>231</v>
@@ -4167,9 +4215,15 @@
       <c r="E46">
         <v>90</v>
       </c>
+      <c r="F46">
+        <v>857</v>
+      </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>767</v>
+      </c>
+      <c r="H46">
+        <v>20210611</v>
       </c>
       <c r="I46" t="s">
         <v>231</v>
@@ -4191,9 +4245,15 @@
       <c r="E47">
         <v>88</v>
       </c>
+      <c r="F47">
+        <v>833</v>
+      </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>745</v>
+      </c>
+      <c r="H47">
+        <v>20210611</v>
       </c>
       <c r="I47" t="s">
         <v>231</v>
@@ -4215,9 +4275,15 @@
       <c r="E48">
         <v>101</v>
       </c>
+      <c r="F48">
+        <v>825</v>
+      </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>-101</v>
+        <v>724</v>
+      </c>
+      <c r="H48">
+        <v>20210611</v>
       </c>
       <c r="I48" t="s">
         <v>231</v>
@@ -4239,9 +4305,15 @@
       <c r="E49">
         <v>90</v>
       </c>
+      <c r="F49">
+        <v>869</v>
+      </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>779</v>
+      </c>
+      <c r="H49">
+        <v>20210611</v>
       </c>
       <c r="I49" t="s">
         <v>231</v>
@@ -4263,9 +4335,15 @@
       <c r="E50">
         <v>89</v>
       </c>
+      <c r="F50">
+        <v>868</v>
+      </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>779</v>
+      </c>
+      <c r="H50">
+        <v>20210611</v>
       </c>
       <c r="I50" t="s">
         <v>231</v>
@@ -4287,9 +4365,15 @@
       <c r="E51">
         <v>89</v>
       </c>
+      <c r="F51">
+        <v>845</v>
+      </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>756</v>
+      </c>
+      <c r="H51">
+        <v>20210611</v>
       </c>
       <c r="I51" t="s">
         <v>231</v>
@@ -4311,9 +4395,15 @@
       <c r="E52">
         <v>89</v>
       </c>
+      <c r="F52">
+        <v>855</v>
+      </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>766</v>
+      </c>
+      <c r="H52">
+        <v>20210611</v>
       </c>
       <c r="I52" t="s">
         <v>231</v>
@@ -4335,9 +4425,15 @@
       <c r="E53">
         <v>88</v>
       </c>
+      <c r="F53">
+        <v>854</v>
+      </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>766</v>
+      </c>
+      <c r="H53">
+        <v>20210611</v>
       </c>
       <c r="I53" t="s">
         <v>231</v>
@@ -4359,9 +4455,15 @@
       <c r="E54">
         <v>88</v>
       </c>
+      <c r="F54">
+        <v>870</v>
+      </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>782</v>
+      </c>
+      <c r="H54">
+        <v>20210611</v>
       </c>
       <c r="I54" t="s">
         <v>231</v>
@@ -4383,9 +4485,15 @@
       <c r="E55">
         <v>89</v>
       </c>
+      <c r="F55">
+        <v>861</v>
+      </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>772</v>
+      </c>
+      <c r="H55">
+        <v>20210611</v>
       </c>
       <c r="I55" t="s">
         <v>231</v>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F066D-2027-8F49-9D1D-44432DB3C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8DE1D-3FFB-3445-B102-7884D9F99874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
     <sheet name="Rainfall 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -70,8 +71,26 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={944BE181-8429-0C41-98F4-DAD1FFAEEFEF}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{944BE181-8429-0C41-98F4-DAD1FFAEEFEF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Please make unique name, not start with number, add project name</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="340">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -767,13 +786,337 @@
   </si>
   <si>
     <t>Freezer_F_Shelf_5</t>
+  </si>
+  <si>
+    <t>SSCAMR00163</t>
+  </si>
+  <si>
+    <t>SSCAMR00164</t>
+  </si>
+  <si>
+    <t>SSCAMR00165</t>
+  </si>
+  <si>
+    <t>SSCAMR00166</t>
+  </si>
+  <si>
+    <t>SSCAMR00167</t>
+  </si>
+  <si>
+    <t>SSCAMR00168</t>
+  </si>
+  <si>
+    <t>SSCAMR00169</t>
+  </si>
+  <si>
+    <t>SSCAMR00170</t>
+  </si>
+  <si>
+    <t>SSCAMR00171</t>
+  </si>
+  <si>
+    <t>SSCAMR00172</t>
+  </si>
+  <si>
+    <t>SSCAMR00173</t>
+  </si>
+  <si>
+    <t>SSCAMR00174</t>
+  </si>
+  <si>
+    <t>SSCAMR00175</t>
+  </si>
+  <si>
+    <t>SSCAMR00176</t>
+  </si>
+  <si>
+    <t>SSCAMR00177</t>
+  </si>
+  <si>
+    <t>SSCAMR00178</t>
+  </si>
+  <si>
+    <t>SSCAMR00179</t>
+  </si>
+  <si>
+    <t>SSCAMR00180</t>
+  </si>
+  <si>
+    <t>SSCAMR00181</t>
+  </si>
+  <si>
+    <t>SSCAMR00182</t>
+  </si>
+  <si>
+    <t>SSCAMR00183</t>
+  </si>
+  <si>
+    <t>SSCAMR00184</t>
+  </si>
+  <si>
+    <t>SSCAMR00185</t>
+  </si>
+  <si>
+    <t>SSCAMR00186</t>
+  </si>
+  <si>
+    <t>SSCAMR00187</t>
+  </si>
+  <si>
+    <t>SSCAMR00188</t>
+  </si>
+  <si>
+    <t>SSCAMR00189</t>
+  </si>
+  <si>
+    <t>SSCAMR00190</t>
+  </si>
+  <si>
+    <t>SSCAMR00191</t>
+  </si>
+  <si>
+    <t>SSCAMR00192</t>
+  </si>
+  <si>
+    <t>SSCAMR00193</t>
+  </si>
+  <si>
+    <t>SSCAMR00194</t>
+  </si>
+  <si>
+    <t>SSCAMR00195</t>
+  </si>
+  <si>
+    <t>SSCAMR00196</t>
+  </si>
+  <si>
+    <t>SSCAMR00197</t>
+  </si>
+  <si>
+    <t>SSCAMR00198</t>
+  </si>
+  <si>
+    <t>SSCAMR00199</t>
+  </si>
+  <si>
+    <t>SSCAMR00200</t>
+  </si>
+  <si>
+    <t>SSCAMR00201</t>
+  </si>
+  <si>
+    <t>SSCAMR00202</t>
+  </si>
+  <si>
+    <t>SSCAMR00203</t>
+  </si>
+  <si>
+    <t>SSCAMR00204</t>
+  </si>
+  <si>
+    <t>SSCAMR00205</t>
+  </si>
+  <si>
+    <t>SSCAMR00206</t>
+  </si>
+  <si>
+    <t>SSCAMR00207</t>
+  </si>
+  <si>
+    <t>SSCAMR00208</t>
+  </si>
+  <si>
+    <t>SSCAMR00209</t>
+  </si>
+  <si>
+    <t>SSCAMR00210</t>
+  </si>
+  <si>
+    <t>SSCAMR00211</t>
+  </si>
+  <si>
+    <t>SSCAMR00212</t>
+  </si>
+  <si>
+    <t>SSCAMR00213</t>
+  </si>
+  <si>
+    <t>SSCAMR00214</t>
+  </si>
+  <si>
+    <t>SSCAMR00215</t>
+  </si>
+  <si>
+    <t>SSCAMR00216</t>
+  </si>
+  <si>
+    <t>C01R3</t>
+  </si>
+  <si>
+    <t>C02R3</t>
+  </si>
+  <si>
+    <t>C03R3</t>
+  </si>
+  <si>
+    <t>C04R3</t>
+  </si>
+  <si>
+    <t>C05R3</t>
+  </si>
+  <si>
+    <t>C06R3</t>
+  </si>
+  <si>
+    <t>C07R3</t>
+  </si>
+  <si>
+    <t>C08R3</t>
+  </si>
+  <si>
+    <t>C09R3</t>
+  </si>
+  <si>
+    <t>C10R3</t>
+  </si>
+  <si>
+    <t>C11R3</t>
+  </si>
+  <si>
+    <t>C12R3</t>
+  </si>
+  <si>
+    <t>C13R3</t>
+  </si>
+  <si>
+    <t>C14R3</t>
+  </si>
+  <si>
+    <t>C15R3</t>
+  </si>
+  <si>
+    <t>C16R3</t>
+  </si>
+  <si>
+    <t>C17R3</t>
+  </si>
+  <si>
+    <t>C18R3</t>
+  </si>
+  <si>
+    <t>C19R3</t>
+  </si>
+  <si>
+    <t>C20R3</t>
+  </si>
+  <si>
+    <t>C21R3</t>
+  </si>
+  <si>
+    <t>C22R3</t>
+  </si>
+  <si>
+    <t>C23R3</t>
+  </si>
+  <si>
+    <t>C24R3</t>
+  </si>
+  <si>
+    <t>C25R3</t>
+  </si>
+  <si>
+    <t>C26R3</t>
+  </si>
+  <si>
+    <t>C27R3</t>
+  </si>
+  <si>
+    <t>C28R3</t>
+  </si>
+  <si>
+    <t>C29R3</t>
+  </si>
+  <si>
+    <t>C30R3</t>
+  </si>
+  <si>
+    <t>C31R3</t>
+  </si>
+  <si>
+    <t>C32R3</t>
+  </si>
+  <si>
+    <t>C33R3</t>
+  </si>
+  <si>
+    <t>C34R3</t>
+  </si>
+  <si>
+    <t>C35R3</t>
+  </si>
+  <si>
+    <t>C36R3</t>
+  </si>
+  <si>
+    <t>C37R3</t>
+  </si>
+  <si>
+    <t>C38R3</t>
+  </si>
+  <si>
+    <t>C39R3</t>
+  </si>
+  <si>
+    <t>C40R3</t>
+  </si>
+  <si>
+    <t>C41R3</t>
+  </si>
+  <si>
+    <t>C42R3</t>
+  </si>
+  <si>
+    <t>C43R3</t>
+  </si>
+  <si>
+    <t>C44R3</t>
+  </si>
+  <si>
+    <t>C45R3</t>
+  </si>
+  <si>
+    <t>C46R3</t>
+  </si>
+  <si>
+    <t>C47R3</t>
+  </si>
+  <si>
+    <t>C48R3</t>
+  </si>
+  <si>
+    <t>C49R3</t>
+  </si>
+  <si>
+    <t>C50R3</t>
+  </si>
+  <si>
+    <t>C51R3</t>
+  </si>
+  <si>
+    <t>C52R3</t>
+  </si>
+  <si>
+    <t>C53R3</t>
+  </si>
+  <si>
+    <t>C54R3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,6 +1136,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -836,13 +1185,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,6 +1527,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2019-08-30T18:32:40.31" personId="{8719274A-2B76-AD41-A8F1-7203866E8D23}" id="{944BE181-8429-0C41-98F4-DAD1FFAEEFEF}">
+    <text>Please make unique name, not start with number, add project name</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A39224-C7A3-DC45-833D-204FCB526563}">
   <dimension ref="A1:M55"/>
@@ -2817,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4504,4 +4862,887 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7CF24D-EF41-5241-906E-DAD6D3AC4CE4}">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8DE1D-3FFB-3445-B102-7884D9F99874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF1AE8-91C4-414B-99E1-060D37EDDC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
     <sheet name="Rainfall 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Rainfall 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1116,7 +1116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1136,12 +1136,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4869,7 +4863,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4937,11 +4931,24 @@
       <c r="B2" t="s">
         <v>286</v>
       </c>
+      <c r="C2">
+        <v>20210614</v>
+      </c>
       <c r="D2" s="4">
         <v>1000</v>
       </c>
       <c r="E2">
         <v>88</v>
+      </c>
+      <c r="F2">
+        <v>906</v>
+      </c>
+      <c r="G2">
+        <f>F2-E2</f>
+        <v>818</v>
+      </c>
+      <c r="H2">
+        <v>20210614</v>
       </c>
       <c r="I2" t="s">
         <v>231</v>
@@ -4954,11 +4961,24 @@
       <c r="B3" t="s">
         <v>287</v>
       </c>
+      <c r="C3">
+        <v>20210614</v>
+      </c>
       <c r="D3" s="4">
         <v>1000</v>
       </c>
       <c r="E3">
         <v>90</v>
+      </c>
+      <c r="F3">
+        <v>782</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="0">F3-E3</f>
+        <v>692</v>
+      </c>
+      <c r="H3">
+        <v>20210614</v>
       </c>
       <c r="I3" t="s">
         <v>231</v>
@@ -4971,11 +4991,24 @@
       <c r="B4" t="s">
         <v>288</v>
       </c>
+      <c r="C4">
+        <v>20210614</v>
+      </c>
       <c r="D4" s="4">
         <v>1000</v>
       </c>
       <c r="E4">
         <v>89</v>
+      </c>
+      <c r="F4">
+        <v>810</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+      <c r="H4">
+        <v>20210614</v>
       </c>
       <c r="I4" t="s">
         <v>231</v>
@@ -4988,11 +5021,24 @@
       <c r="B5" t="s">
         <v>289</v>
       </c>
+      <c r="C5">
+        <v>20210614</v>
+      </c>
       <c r="D5" s="4">
         <v>1000</v>
       </c>
       <c r="E5">
         <v>89</v>
+      </c>
+      <c r="F5">
+        <v>880</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>791</v>
+      </c>
+      <c r="H5">
+        <v>20210614</v>
       </c>
       <c r="I5" t="s">
         <v>231</v>
@@ -5005,11 +5051,24 @@
       <c r="B6" t="s">
         <v>290</v>
       </c>
+      <c r="C6">
+        <v>20210614</v>
+      </c>
       <c r="D6" s="4">
         <v>1000</v>
       </c>
       <c r="E6">
         <v>89</v>
+      </c>
+      <c r="F6">
+        <v>794</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="H6">
+        <v>20210614</v>
       </c>
       <c r="I6" t="s">
         <v>231</v>
@@ -5022,11 +5081,24 @@
       <c r="B7" t="s">
         <v>291</v>
       </c>
+      <c r="C7">
+        <v>20210614</v>
+      </c>
       <c r="D7" s="4">
         <v>1000</v>
       </c>
       <c r="E7">
         <v>105</v>
+      </c>
+      <c r="F7">
+        <v>833</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>728</v>
+      </c>
+      <c r="H7">
+        <v>20210614</v>
       </c>
       <c r="I7" t="s">
         <v>231</v>
@@ -5039,11 +5111,24 @@
       <c r="B8" t="s">
         <v>292</v>
       </c>
+      <c r="C8">
+        <v>20210614</v>
+      </c>
       <c r="D8" s="4">
         <v>1000</v>
       </c>
       <c r="E8">
         <v>90</v>
+      </c>
+      <c r="F8">
+        <v>882</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
+      <c r="H8">
+        <v>20210614</v>
       </c>
       <c r="I8" t="s">
         <v>231</v>
@@ -5056,11 +5141,24 @@
       <c r="B9" t="s">
         <v>293</v>
       </c>
+      <c r="C9">
+        <v>20210614</v>
+      </c>
       <c r="D9" s="4">
         <v>1000</v>
       </c>
       <c r="E9">
         <v>89</v>
+      </c>
+      <c r="F9">
+        <v>788</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+      <c r="H9">
+        <v>20210614</v>
       </c>
       <c r="I9" t="s">
         <v>231</v>
@@ -5073,11 +5171,24 @@
       <c r="B10" t="s">
         <v>294</v>
       </c>
+      <c r="C10">
+        <v>20210614</v>
+      </c>
       <c r="D10" s="4">
         <v>1000</v>
       </c>
       <c r="E10">
         <v>88</v>
+      </c>
+      <c r="F10">
+        <v>829</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+      <c r="H10">
+        <v>20210614</v>
       </c>
       <c r="I10" t="s">
         <v>231</v>
@@ -5090,11 +5201,24 @@
       <c r="B11" t="s">
         <v>295</v>
       </c>
+      <c r="C11">
+        <v>20210614</v>
+      </c>
       <c r="D11" s="4">
         <v>1000</v>
       </c>
       <c r="E11">
         <v>88</v>
+      </c>
+      <c r="F11">
+        <v>850</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>762</v>
+      </c>
+      <c r="H11">
+        <v>20210614</v>
       </c>
       <c r="I11" t="s">
         <v>231</v>
@@ -5107,11 +5231,24 @@
       <c r="B12" t="s">
         <v>296</v>
       </c>
+      <c r="C12">
+        <v>20210614</v>
+      </c>
       <c r="D12" s="4">
         <v>1000</v>
       </c>
       <c r="E12">
         <v>87</v>
+      </c>
+      <c r="F12">
+        <v>915</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="H12">
+        <v>20210614</v>
       </c>
       <c r="I12" t="s">
         <v>231</v>
@@ -5124,11 +5261,24 @@
       <c r="B13" t="s">
         <v>297</v>
       </c>
+      <c r="C13">
+        <v>20210614</v>
+      </c>
       <c r="D13" s="4">
         <v>1000</v>
       </c>
       <c r="E13">
         <v>87</v>
+      </c>
+      <c r="F13">
+        <v>854</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>767</v>
+      </c>
+      <c r="H13">
+        <v>20210614</v>
       </c>
       <c r="I13" t="s">
         <v>231</v>
@@ -5141,11 +5291,24 @@
       <c r="B14" t="s">
         <v>298</v>
       </c>
+      <c r="C14">
+        <v>20210614</v>
+      </c>
       <c r="D14" s="4">
         <v>1000</v>
       </c>
       <c r="E14">
         <v>88</v>
+      </c>
+      <c r="F14">
+        <v>840</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="H14">
+        <v>20210614</v>
       </c>
       <c r="I14" t="s">
         <v>231</v>
@@ -5158,11 +5321,24 @@
       <c r="B15" t="s">
         <v>299</v>
       </c>
+      <c r="C15">
+        <v>20210614</v>
+      </c>
       <c r="D15" s="4">
         <v>1000</v>
       </c>
       <c r="E15">
         <v>88</v>
+      </c>
+      <c r="F15">
+        <v>852</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+      <c r="H15">
+        <v>20210614</v>
       </c>
       <c r="I15" t="s">
         <v>231</v>
@@ -5175,11 +5351,24 @@
       <c r="B16" t="s">
         <v>300</v>
       </c>
+      <c r="C16">
+        <v>20210614</v>
+      </c>
       <c r="D16" s="4">
         <v>1000</v>
       </c>
       <c r="E16">
         <v>89</v>
+      </c>
+      <c r="F16">
+        <v>887</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>798</v>
+      </c>
+      <c r="H16">
+        <v>20210614</v>
       </c>
       <c r="I16" t="s">
         <v>231</v>
@@ -5192,11 +5381,24 @@
       <c r="B17" t="s">
         <v>301</v>
       </c>
+      <c r="C17">
+        <v>20210614</v>
+      </c>
       <c r="D17" s="4">
         <v>1000</v>
       </c>
       <c r="E17">
         <v>88</v>
+      </c>
+      <c r="F17">
+        <v>884</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>796</v>
+      </c>
+      <c r="H17">
+        <v>20210614</v>
       </c>
       <c r="I17" t="s">
         <v>231</v>
@@ -5209,11 +5411,24 @@
       <c r="B18" t="s">
         <v>302</v>
       </c>
+      <c r="C18">
+        <v>20210614</v>
+      </c>
       <c r="D18" s="4">
         <v>1000</v>
       </c>
       <c r="E18">
         <v>88</v>
+      </c>
+      <c r="F18">
+        <v>895</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+      <c r="H18">
+        <v>20210614</v>
       </c>
       <c r="I18" t="s">
         <v>231</v>
@@ -5226,11 +5441,24 @@
       <c r="B19" t="s">
         <v>303</v>
       </c>
+      <c r="C19">
+        <v>20210614</v>
+      </c>
       <c r="D19" s="4">
         <v>1000</v>
       </c>
       <c r="E19">
         <v>87</v>
+      </c>
+      <c r="F19">
+        <v>771</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>684</v>
+      </c>
+      <c r="H19">
+        <v>20210614</v>
       </c>
       <c r="I19" t="s">
         <v>231</v>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF1AE8-91C4-414B-99E1-060D37EDDC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA42C5C-38F8-F041-9549-A84392F6EAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -4863,7 +4863,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5471,8 +5471,14 @@
       <c r="B20" t="s">
         <v>304</v>
       </c>
+      <c r="C20">
+        <v>20210616</v>
+      </c>
       <c r="D20" s="4">
         <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>89</v>
       </c>
       <c r="I20" t="s">
         <v>231</v>
@@ -5485,8 +5491,14 @@
       <c r="B21" t="s">
         <v>305</v>
       </c>
+      <c r="C21">
+        <v>20210616</v>
+      </c>
       <c r="D21" s="4">
         <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>89</v>
       </c>
       <c r="I21" t="s">
         <v>231</v>
@@ -5499,8 +5511,14 @@
       <c r="B22" t="s">
         <v>306</v>
       </c>
+      <c r="C22">
+        <v>20210616</v>
+      </c>
       <c r="D22" s="4">
         <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>88</v>
       </c>
       <c r="I22" t="s">
         <v>231</v>
@@ -5513,8 +5531,14 @@
       <c r="B23" t="s">
         <v>307</v>
       </c>
+      <c r="C23">
+        <v>20210616</v>
+      </c>
       <c r="D23" s="4">
         <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>89</v>
       </c>
       <c r="I23" t="s">
         <v>231</v>
@@ -5527,8 +5551,14 @@
       <c r="B24" t="s">
         <v>308</v>
       </c>
+      <c r="C24">
+        <v>20210616</v>
+      </c>
       <c r="D24" s="4">
         <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>89</v>
       </c>
       <c r="I24" t="s">
         <v>231</v>
@@ -5541,8 +5571,14 @@
       <c r="B25" t="s">
         <v>309</v>
       </c>
+      <c r="C25">
+        <v>20210616</v>
+      </c>
       <c r="D25" s="4">
         <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>88</v>
       </c>
       <c r="I25" t="s">
         <v>231</v>
@@ -5555,8 +5591,14 @@
       <c r="B26" t="s">
         <v>310</v>
       </c>
+      <c r="C26">
+        <v>20210616</v>
+      </c>
       <c r="D26" s="4">
         <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>104</v>
       </c>
       <c r="I26" t="s">
         <v>231</v>
@@ -5569,8 +5611,14 @@
       <c r="B27" t="s">
         <v>311</v>
       </c>
+      <c r="C27">
+        <v>20210616</v>
+      </c>
       <c r="D27" s="4">
         <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>88</v>
       </c>
       <c r="I27" t="s">
         <v>231</v>
@@ -5583,8 +5631,14 @@
       <c r="B28" t="s">
         <v>312</v>
       </c>
+      <c r="C28">
+        <v>20210616</v>
+      </c>
       <c r="D28" s="4">
         <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>89</v>
       </c>
       <c r="I28" t="s">
         <v>231</v>
@@ -5597,8 +5651,14 @@
       <c r="B29" t="s">
         <v>313</v>
       </c>
+      <c r="C29">
+        <v>20210616</v>
+      </c>
       <c r="D29" s="4">
         <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>87</v>
       </c>
       <c r="I29" t="s">
         <v>231</v>
@@ -5611,8 +5671,14 @@
       <c r="B30" t="s">
         <v>314</v>
       </c>
+      <c r="C30">
+        <v>20210616</v>
+      </c>
       <c r="D30" s="4">
         <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>101</v>
       </c>
       <c r="I30" t="s">
         <v>231</v>
@@ -5625,8 +5691,14 @@
       <c r="B31" t="s">
         <v>315</v>
       </c>
+      <c r="C31">
+        <v>20210616</v>
+      </c>
       <c r="D31" s="4">
         <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>90</v>
       </c>
       <c r="I31" t="s">
         <v>231</v>
@@ -5639,8 +5711,14 @@
       <c r="B32" t="s">
         <v>316</v>
       </c>
+      <c r="C32">
+        <v>20210616</v>
+      </c>
       <c r="D32" s="4">
         <v>1000</v>
+      </c>
+      <c r="E32">
+        <v>89</v>
       </c>
       <c r="I32" t="s">
         <v>231</v>
@@ -5653,8 +5731,14 @@
       <c r="B33" t="s">
         <v>317</v>
       </c>
+      <c r="C33">
+        <v>20210616</v>
+      </c>
       <c r="D33" s="4">
         <v>1000</v>
+      </c>
+      <c r="E33">
+        <v>88</v>
       </c>
       <c r="I33" t="s">
         <v>231</v>
@@ -5667,8 +5751,14 @@
       <c r="B34" t="s">
         <v>318</v>
       </c>
+      <c r="C34">
+        <v>20210616</v>
+      </c>
       <c r="D34" s="4">
         <v>1000</v>
+      </c>
+      <c r="E34">
+        <v>89</v>
       </c>
       <c r="I34" t="s">
         <v>231</v>
@@ -5681,8 +5771,14 @@
       <c r="B35" t="s">
         <v>319</v>
       </c>
+      <c r="C35">
+        <v>20210616</v>
+      </c>
       <c r="D35" s="4">
         <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>88</v>
       </c>
       <c r="I35" t="s">
         <v>231</v>
@@ -5695,8 +5791,14 @@
       <c r="B36" t="s">
         <v>320</v>
       </c>
+      <c r="C36">
+        <v>20210616</v>
+      </c>
       <c r="D36" s="4">
         <v>1000</v>
+      </c>
+      <c r="E36">
+        <v>89</v>
       </c>
       <c r="I36" t="s">
         <v>231</v>
@@ -5709,8 +5811,14 @@
       <c r="B37" t="s">
         <v>321</v>
       </c>
+      <c r="C37">
+        <v>20210616</v>
+      </c>
       <c r="D37" s="4">
         <v>1000</v>
+      </c>
+      <c r="E37">
+        <v>89</v>
       </c>
       <c r="I37" t="s">
         <v>231</v>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA42C5C-38F8-F041-9549-A84392F6EAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D79D99B-0666-0A48-B701-64151092A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="395">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1110,6 +1110,171 @@
   </si>
   <si>
     <t>C54R3</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C54</t>
   </si>
 </sst>
 </file>
@@ -1531,28 +1696,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A39224-C7A3-DC45-833D-204FCB526563}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,1606 +1725,1772 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>173</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2">
         <v>20210531</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1500</v>
       </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
       <c r="F2" t="s">
         <v>227</v>
       </c>
       <c r="G2" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="3">
         <v>20210603</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3">
         <v>20210531</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3000</v>
       </c>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
       <c r="F3" t="s">
         <v>227</v>
       </c>
       <c r="G3" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="3">
         <v>20210603</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4">
         <v>20210531</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1500</v>
       </c>
-      <c r="E4" t="s">
-        <v>227</v>
-      </c>
       <c r="F4" t="s">
         <v>227</v>
       </c>
       <c r="G4" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="3">
         <v>20210603</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>176</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5">
         <v>20210531</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3000</v>
       </c>
-      <c r="E5" t="s">
-        <v>227</v>
-      </c>
       <c r="F5" t="s">
         <v>227</v>
       </c>
       <c r="G5" t="s">
         <v>227</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="3">
         <v>20210604</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>177</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6">
         <v>20210531</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1500</v>
       </c>
-      <c r="E6" t="s">
-        <v>227</v>
-      </c>
       <c r="F6" t="s">
         <v>227</v>
       </c>
       <c r="G6" t="s">
         <v>227</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="3">
         <v>20210603</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>178</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7">
         <v>20210531</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3000</v>
       </c>
-      <c r="E7" t="s">
-        <v>227</v>
-      </c>
       <c r="F7" t="s">
         <v>227</v>
       </c>
       <c r="G7" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="3">
         <v>20210604</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>179</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8">
         <v>20210531</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1500</v>
       </c>
-      <c r="E8" t="s">
-        <v>227</v>
-      </c>
       <c r="F8" t="s">
         <v>227</v>
       </c>
       <c r="G8" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="3">
         <v>20210604</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>180</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9">
         <v>20210531</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3000</v>
       </c>
-      <c r="E9" t="s">
-        <v>227</v>
-      </c>
       <c r="F9" t="s">
         <v>227</v>
       </c>
       <c r="G9" t="s">
         <v>227</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="3">
         <v>20210603</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>181</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10">
         <v>20210531</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1500</v>
       </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
       <c r="F10" t="s">
         <v>227</v>
       </c>
       <c r="G10" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="3">
         <v>20210603</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>182</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11">
         <v>20210531</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3000</v>
       </c>
-      <c r="E11" t="s">
-        <v>227</v>
-      </c>
       <c r="F11" t="s">
         <v>227</v>
       </c>
       <c r="G11" t="s">
         <v>227</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="3">
         <v>20210605</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>183</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12">
         <v>20210531</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1500</v>
       </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
       <c r="F12" t="s">
         <v>227</v>
       </c>
       <c r="G12" t="s">
         <v>227</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="3">
         <v>20210604</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>184</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13">
         <v>20210531</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3000</v>
       </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
       <c r="F13" t="s">
         <v>227</v>
       </c>
       <c r="G13" t="s">
         <v>227</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="3">
         <v>20210604</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>185</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14">
         <v>20210531</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1500</v>
       </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
       <c r="F14" t="s">
         <v>227</v>
       </c>
       <c r="G14" t="s">
         <v>227</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="3">
         <v>20210604</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>186</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15">
         <v>20210531</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3000</v>
       </c>
-      <c r="E15" t="s">
-        <v>227</v>
-      </c>
       <c r="F15" t="s">
         <v>227</v>
       </c>
       <c r="G15" t="s">
         <v>227</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="3">
         <v>20210604</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>187</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16">
         <v>20210531</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1500</v>
       </c>
-      <c r="E16" t="s">
-        <v>227</v>
-      </c>
       <c r="F16" t="s">
         <v>227</v>
       </c>
       <c r="G16" t="s">
         <v>227</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="3">
         <v>20210603</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B17" t="s">
         <v>188</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17">
         <v>20210531</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3000</v>
       </c>
-      <c r="E17" t="s">
-        <v>227</v>
-      </c>
       <c r="F17" t="s">
         <v>227</v>
       </c>
       <c r="G17" t="s">
         <v>227</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="3">
         <v>20210603</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>189</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18">
         <v>20210531</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1500</v>
       </c>
-      <c r="E18" t="s">
-        <v>227</v>
-      </c>
       <c r="F18" t="s">
         <v>227</v>
       </c>
       <c r="G18" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="3">
         <v>20210604</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>190</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19">
         <v>20210531</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3000</v>
       </c>
-      <c r="E19" t="s">
-        <v>227</v>
-      </c>
       <c r="F19" t="s">
         <v>227</v>
       </c>
       <c r="G19" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="3">
         <v>20210604</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B20" t="s">
         <v>191</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20">
         <v>20210602</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1500</v>
       </c>
-      <c r="E20" t="s">
-        <v>227</v>
-      </c>
       <c r="F20" t="s">
         <v>227</v>
       </c>
       <c r="G20" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="3">
         <v>20210605</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B21" t="s">
         <v>192</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21">
         <v>20210602</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3000</v>
       </c>
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
       <c r="F21" t="s">
         <v>227</v>
       </c>
       <c r="G21" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="3">
         <v>20210605</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B22" t="s">
         <v>193</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22">
         <v>20210602</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1500</v>
       </c>
-      <c r="E22" t="s">
-        <v>227</v>
-      </c>
       <c r="F22" t="s">
         <v>227</v>
       </c>
       <c r="G22" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" s="3">
         <v>20210605</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>194</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23">
         <v>20210602</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>3000</v>
       </c>
-      <c r="E23" t="s">
-        <v>227</v>
-      </c>
       <c r="F23" t="s">
         <v>227</v>
       </c>
       <c r="G23" t="s">
         <v>227</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="3">
         <v>20210605</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B24" t="s">
         <v>195</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24">
         <v>20210602</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1500</v>
       </c>
-      <c r="E24" t="s">
-        <v>227</v>
-      </c>
       <c r="F24" t="s">
         <v>227</v>
       </c>
       <c r="G24" t="s">
         <v>227</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="3">
         <v>20210605</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B25" t="s">
         <v>196</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25">
         <v>20210602</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>3000</v>
       </c>
-      <c r="E25" t="s">
-        <v>227</v>
-      </c>
       <c r="F25" t="s">
         <v>227</v>
       </c>
       <c r="G25" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="3">
         <v>20210605</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B26" t="s">
         <v>197</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26">
         <v>20210602</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1500</v>
       </c>
-      <c r="E26" t="s">
-        <v>227</v>
-      </c>
       <c r="F26" t="s">
         <v>227</v>
       </c>
       <c r="G26" t="s">
         <v>227</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="3">
         <v>20210605</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B27" t="s">
         <v>198</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27">
         <v>20210602</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3000</v>
       </c>
-      <c r="E27" t="s">
-        <v>227</v>
-      </c>
       <c r="F27" t="s">
         <v>227</v>
       </c>
       <c r="G27" t="s">
         <v>227</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="3">
         <v>20210605</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B28" t="s">
         <v>199</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28">
         <v>20210602</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1500</v>
       </c>
-      <c r="E28" t="s">
-        <v>227</v>
-      </c>
       <c r="F28" t="s">
         <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>227</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="3">
         <v>20210605</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>200</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29">
         <v>20210602</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3000</v>
       </c>
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
       <c r="F29" t="s">
         <v>227</v>
       </c>
       <c r="G29" t="s">
         <v>227</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="3">
         <v>20210605</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B30" t="s">
         <v>201</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30">
         <v>20210602</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1500</v>
       </c>
-      <c r="E30" t="s">
-        <v>227</v>
-      </c>
       <c r="F30" t="s">
         <v>227</v>
       </c>
       <c r="G30" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="3">
         <v>20210605</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B31" t="s">
         <v>202</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31">
         <v>20210602</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3000</v>
       </c>
-      <c r="E31" t="s">
-        <v>227</v>
-      </c>
       <c r="F31" t="s">
         <v>227</v>
       </c>
       <c r="G31" t="s">
         <v>227</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="3">
         <v>20210605</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32">
         <v>20210602</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1500</v>
       </c>
-      <c r="E32" t="s">
-        <v>227</v>
-      </c>
       <c r="F32" t="s">
         <v>227</v>
       </c>
       <c r="G32" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="3">
         <v>20210605</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>204</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33">
         <v>20210602</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3000</v>
       </c>
-      <c r="E33" t="s">
-        <v>227</v>
-      </c>
       <c r="F33" t="s">
         <v>227</v>
       </c>
       <c r="G33" t="s">
         <v>227</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" s="3">
         <v>20210605</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B34" t="s">
         <v>205</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34">
         <v>20210602</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1500</v>
       </c>
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
       <c r="F34" t="s">
         <v>227</v>
       </c>
       <c r="G34" t="s">
         <v>227</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34" s="3">
         <v>20210605</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>206</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35">
         <v>20210602</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>3000</v>
       </c>
-      <c r="E35" t="s">
-        <v>227</v>
-      </c>
       <c r="F35" t="s">
         <v>227</v>
       </c>
       <c r="G35" t="s">
         <v>227</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I35" s="3">
         <v>20210605</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B36" t="s">
         <v>207</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36">
         <v>20210602</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1500</v>
       </c>
-      <c r="E36" t="s">
-        <v>227</v>
-      </c>
       <c r="F36" t="s">
         <v>227</v>
       </c>
       <c r="G36" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I36" s="3">
         <v>20210605</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>208</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
+      <c r="D37">
         <v>20210602</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>3000</v>
       </c>
-      <c r="E37" t="s">
-        <v>227</v>
-      </c>
       <c r="F37" t="s">
         <v>227</v>
       </c>
       <c r="G37" t="s">
         <v>227</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="3">
         <v>20210605</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B38" t="s">
         <v>209</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38">
         <v>20210604</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1500</v>
       </c>
-      <c r="E38" t="s">
-        <v>227</v>
-      </c>
       <c r="F38" t="s">
         <v>227</v>
       </c>
       <c r="G38" t="s">
         <v>227</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" s="3">
         <v>20210606</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>210</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39">
         <v>20210604</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>3000</v>
       </c>
-      <c r="E39" t="s">
-        <v>227</v>
-      </c>
       <c r="F39" t="s">
         <v>227</v>
       </c>
       <c r="G39" t="s">
         <v>227</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="3">
         <v>20210606</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B40" t="s">
         <v>211</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40">
         <v>20210604</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1500</v>
       </c>
-      <c r="E40" t="s">
-        <v>227</v>
-      </c>
       <c r="F40" t="s">
         <v>227</v>
       </c>
       <c r="G40" t="s">
         <v>227</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="3">
         <v>20210606</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B41" t="s">
         <v>212</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41">
         <v>20210604</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>3000</v>
       </c>
-      <c r="E41" t="s">
-        <v>227</v>
-      </c>
       <c r="F41" t="s">
         <v>227</v>
       </c>
       <c r="G41" t="s">
         <v>227</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="3">
         <v>20210606</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>213</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42">
         <v>20210604</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1500</v>
       </c>
-      <c r="E42" t="s">
-        <v>227</v>
-      </c>
       <c r="F42" t="s">
         <v>227</v>
       </c>
       <c r="G42" t="s">
         <v>227</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="3">
         <v>20210606</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B43" t="s">
         <v>214</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43">
         <v>20210604</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>3000</v>
       </c>
-      <c r="E43" t="s">
-        <v>227</v>
-      </c>
       <c r="F43" t="s">
         <v>227</v>
       </c>
       <c r="G43" t="s">
         <v>227</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="3">
         <v>20210606</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B44" t="s">
         <v>215</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44">
         <v>20210604</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1500</v>
       </c>
-      <c r="E44" t="s">
-        <v>227</v>
-      </c>
       <c r="F44" t="s">
         <v>227</v>
       </c>
       <c r="G44" t="s">
         <v>227</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="3">
         <v>20210606</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45">
         <v>20210604</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>3000</v>
       </c>
-      <c r="E45" t="s">
-        <v>227</v>
-      </c>
       <c r="F45" t="s">
         <v>227</v>
       </c>
       <c r="G45" t="s">
         <v>227</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="3">
         <v>20210606</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>217</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46">
         <v>20210604</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1500</v>
       </c>
-      <c r="E46" t="s">
-        <v>227</v>
-      </c>
       <c r="F46" t="s">
         <v>227</v>
       </c>
       <c r="G46" t="s">
         <v>227</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="3">
         <v>20210606</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>218</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47">
         <v>20210604</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>3000</v>
       </c>
-      <c r="E47" t="s">
-        <v>227</v>
-      </c>
       <c r="F47" t="s">
         <v>227</v>
       </c>
       <c r="G47" t="s">
         <v>227</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="3">
         <v>20210606</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B48" t="s">
         <v>219</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48">
         <v>20210604</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1500</v>
       </c>
-      <c r="E48" t="s">
-        <v>227</v>
-      </c>
       <c r="F48" t="s">
         <v>227</v>
       </c>
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="3">
         <v>20210607</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B49" t="s">
         <v>220</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49">
         <v>20210604</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>3000</v>
       </c>
-      <c r="E49" t="s">
-        <v>227</v>
-      </c>
       <c r="F49" t="s">
         <v>227</v>
       </c>
       <c r="G49" t="s">
         <v>227</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="3">
         <v>20210607</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B50" t="s">
         <v>221</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50">
         <v>20210604</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1500</v>
       </c>
-      <c r="E50" t="s">
-        <v>227</v>
-      </c>
       <c r="F50" t="s">
         <v>227</v>
       </c>
       <c r="G50" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="3">
         <v>20210607</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B51" t="s">
         <v>222</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51">
         <v>20210604</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>3000</v>
       </c>
-      <c r="E51" t="s">
-        <v>227</v>
-      </c>
       <c r="F51" t="s">
         <v>227</v>
       </c>
       <c r="G51" t="s">
         <v>227</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" s="3">
         <v>20210606</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B52" t="s">
         <v>223</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D52">
         <v>20210604</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1500</v>
       </c>
-      <c r="E52" t="s">
-        <v>227</v>
-      </c>
       <c r="F52" t="s">
         <v>227</v>
       </c>
       <c r="G52" t="s">
         <v>227</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" t="s">
+        <v>227</v>
+      </c>
+      <c r="I52" s="3">
         <v>20210607</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B53" t="s">
         <v>224</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53">
         <v>20210604</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>3000</v>
       </c>
-      <c r="E53" t="s">
-        <v>227</v>
-      </c>
       <c r="F53" t="s">
         <v>227</v>
       </c>
       <c r="G53" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" s="3">
         <v>20210607</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B54" t="s">
         <v>225</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54">
         <v>20210604</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1500</v>
       </c>
-      <c r="E54" t="s">
-        <v>227</v>
-      </c>
       <c r="F54" t="s">
         <v>227</v>
       </c>
       <c r="G54" t="s">
         <v>227</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="3">
         <v>20210607</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>226</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55">
         <v>20210604</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>3000</v>
       </c>
-      <c r="E55" t="s">
-        <v>227</v>
-      </c>
       <c r="F55" t="s">
         <v>227</v>
       </c>
       <c r="G55" t="s">
         <v>227</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" t="s">
+        <v>227</v>
+      </c>
+      <c r="I55" s="3">
         <v>20210606</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3167,30 +3498,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3198,1656 +3530,1821 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2">
         <v>20210607</v>
       </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2">
         <v>762</v>
       </c>
-      <c r="G2" t="e">
-        <f>F2-E2</f>
+      <c r="H2" t="e">
+        <f>G2-F2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20210608</v>
       </c>
-      <c r="I2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3">
         <v>20210607</v>
       </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3">
         <v>772</v>
       </c>
-      <c r="G3" t="e">
-        <f t="shared" ref="G3:G55" si="0">F3-E3</f>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H55" si="0">G3-F3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20210608</v>
       </c>
-      <c r="I3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4">
         <v>20210607</v>
       </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4">
         <v>839</v>
       </c>
-      <c r="G4" t="e">
+      <c r="H4" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20210608</v>
       </c>
-      <c r="I4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5">
         <v>20210607</v>
       </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5">
         <v>791</v>
       </c>
-      <c r="G5" t="e">
+      <c r="H5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20210608</v>
       </c>
-      <c r="I5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6">
         <v>20210607</v>
       </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6">
         <v>789</v>
       </c>
-      <c r="G6" t="e">
+      <c r="H6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20210608</v>
       </c>
-      <c r="I6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7">
         <v>20210607</v>
       </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7">
         <v>776</v>
       </c>
-      <c r="G7" t="e">
+      <c r="H7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>20210608</v>
       </c>
-      <c r="I7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8">
         <v>20210607</v>
       </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8">
         <v>837</v>
       </c>
-      <c r="G8" t="e">
+      <c r="H8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20210608</v>
       </c>
-      <c r="I8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9">
         <v>20210607</v>
       </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9">
         <v>798</v>
       </c>
-      <c r="G9" t="e">
+      <c r="H9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>20210608</v>
       </c>
-      <c r="I9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10">
         <v>20210607</v>
       </c>
-      <c r="D10">
-        <v>1000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10">
         <v>836</v>
       </c>
-      <c r="G10" t="e">
+      <c r="H10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20210608</v>
       </c>
-      <c r="I10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11">
         <v>20210607</v>
       </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11">
         <v>737</v>
       </c>
-      <c r="G11" t="e">
+      <c r="H11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>20210608</v>
       </c>
-      <c r="I11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12">
         <v>20210607</v>
       </c>
-      <c r="D12">
-        <v>1000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12">
         <v>836</v>
       </c>
-      <c r="G12" t="e">
+      <c r="H12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>20210608</v>
       </c>
-      <c r="I12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13">
         <v>20210607</v>
       </c>
-      <c r="D13">
-        <v>1000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13">
         <v>757</v>
       </c>
-      <c r="G13" t="e">
+      <c r="H13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20210608</v>
       </c>
-      <c r="I13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14">
         <v>20210607</v>
       </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14">
         <v>821</v>
       </c>
-      <c r="G14" t="e">
+      <c r="H14" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20210608</v>
       </c>
-      <c r="I14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15">
         <v>20210607</v>
       </c>
-      <c r="D15">
-        <v>1000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15">
         <v>749</v>
       </c>
-      <c r="G15" t="e">
+      <c r="H15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>20210608</v>
       </c>
-      <c r="I15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16">
         <v>20210607</v>
       </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16">
         <v>833</v>
       </c>
-      <c r="G16" t="e">
+      <c r="H16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>20210608</v>
       </c>
-      <c r="I16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17">
         <v>20210607</v>
       </c>
-      <c r="D17">
-        <v>1000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17">
         <v>793</v>
       </c>
-      <c r="G17" t="e">
+      <c r="H17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20210608</v>
       </c>
-      <c r="I17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18">
         <v>20210607</v>
       </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18">
         <v>812</v>
       </c>
-      <c r="G18" t="e">
+      <c r="H18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20210608</v>
       </c>
-      <c r="I18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19">
         <v>20210607</v>
       </c>
-      <c r="D19">
-        <v>1000</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" t="s">
         <v>230</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>802</v>
       </c>
-      <c r="G19" t="e">
+      <c r="H19" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>20210608</v>
       </c>
-      <c r="I19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20">
         <v>20210609</v>
       </c>
-      <c r="D20">
-        <v>1000</v>
-      </c>
       <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
         <v>105</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>871</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>20210609</v>
       </c>
-      <c r="I20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21">
         <v>20210609</v>
       </c>
-      <c r="D21">
-        <v>1000</v>
-      </c>
       <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
         <v>107</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>824</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>717</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20210609</v>
       </c>
-      <c r="I21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22">
         <v>20210609</v>
       </c>
-      <c r="D22">
-        <v>1000</v>
-      </c>
       <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
         <v>88</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>872</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>784</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>20210609</v>
       </c>
-      <c r="I22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23">
         <v>20210609</v>
       </c>
-      <c r="D23">
-        <v>1000</v>
-      </c>
       <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
         <v>90</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>858</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>20210609</v>
       </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24">
         <v>20210609</v>
       </c>
-      <c r="D24">
-        <v>1000</v>
-      </c>
       <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
         <v>106</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>869</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>20210609</v>
       </c>
-      <c r="I24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25">
         <v>20210609</v>
       </c>
-      <c r="D25">
-        <v>1000</v>
-      </c>
       <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
         <v>90</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>869</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>20210609</v>
       </c>
-      <c r="I25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26">
         <v>20210609</v>
       </c>
-      <c r="D26">
-        <v>1000</v>
-      </c>
       <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
         <v>89</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>864</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>20210609</v>
       </c>
-      <c r="I26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27">
         <v>20210609</v>
       </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
       <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27">
         <v>90</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>802</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>20210609</v>
       </c>
-      <c r="I27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28">
         <v>20210609</v>
       </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
       <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28">
         <v>90</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>886</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>20210609</v>
       </c>
-      <c r="I28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29">
         <v>20210609</v>
       </c>
-      <c r="D29">
-        <v>1000</v>
-      </c>
       <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
         <v>92</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>860</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>20210609</v>
       </c>
-      <c r="I29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30">
         <v>20210609</v>
       </c>
-      <c r="D30">
-        <v>1000</v>
-      </c>
       <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
         <v>89</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>849</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>20210609</v>
       </c>
-      <c r="I30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31">
         <v>20210609</v>
       </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
       <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
         <v>91</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>841</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>20210609</v>
       </c>
-      <c r="I31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32">
         <v>20210609</v>
       </c>
-      <c r="D32">
-        <v>1000</v>
-      </c>
       <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32">
         <v>90</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>875</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>785</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>20210609</v>
       </c>
-      <c r="I32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33">
         <v>20210609</v>
       </c>
-      <c r="D33">
-        <v>1000</v>
-      </c>
       <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
         <v>89</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>782</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>20210609</v>
       </c>
-      <c r="I33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34">
         <v>20210609</v>
       </c>
-      <c r="D34">
-        <v>1000</v>
-      </c>
       <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
         <v>90</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>894</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>804</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>20210609</v>
       </c>
-      <c r="I34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35">
         <v>20210609</v>
       </c>
-      <c r="D35">
-        <v>1000</v>
-      </c>
       <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
         <v>94</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>851</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>20210609</v>
       </c>
-      <c r="I35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36">
         <v>20210609</v>
       </c>
-      <c r="D36">
-        <v>1000</v>
-      </c>
       <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36">
         <v>90</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>905</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>815</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>20210609</v>
       </c>
-      <c r="I36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
+      <c r="D37">
         <v>20210609</v>
       </c>
-      <c r="D37">
-        <v>1000</v>
-      </c>
       <c r="E37">
+        <v>1000</v>
+      </c>
+      <c r="F37">
         <v>90</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>818</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>20210609</v>
       </c>
-      <c r="I37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38">
         <v>20210611</v>
       </c>
-      <c r="D38">
-        <v>1000</v>
-      </c>
       <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38">
         <v>88</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>772</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>20210611</v>
       </c>
-      <c r="I38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39">
         <v>20210611</v>
       </c>
-      <c r="D39">
-        <v>1000</v>
-      </c>
       <c r="E39">
+        <v>1000</v>
+      </c>
+      <c r="F39">
         <v>89</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>814</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>20210611</v>
       </c>
-      <c r="I39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40">
         <v>20210611</v>
       </c>
-      <c r="D40">
-        <v>1000</v>
-      </c>
       <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
         <v>88</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>905</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>20210611</v>
       </c>
-      <c r="I40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41">
         <v>20210611</v>
       </c>
-      <c r="D41">
-        <v>1000</v>
-      </c>
       <c r="E41">
+        <v>1000</v>
+      </c>
+      <c r="F41">
         <v>89</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>843</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>754</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>20210611</v>
       </c>
-      <c r="I41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42">
         <v>20210611</v>
       </c>
-      <c r="D42">
-        <v>1000</v>
-      </c>
       <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42">
         <v>104</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>827</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>20210611</v>
       </c>
-      <c r="I42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43">
         <v>20210611</v>
       </c>
-      <c r="D43">
-        <v>1000</v>
-      </c>
       <c r="E43">
+        <v>1000</v>
+      </c>
+      <c r="F43">
         <v>89</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>810</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>20210611</v>
       </c>
-      <c r="I43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44">
         <v>20210611</v>
       </c>
-      <c r="D44">
-        <v>1000</v>
-      </c>
       <c r="E44">
+        <v>1000</v>
+      </c>
+      <c r="F44">
         <v>90</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>847</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>20210611</v>
       </c>
-      <c r="I44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45">
         <v>20210611</v>
       </c>
-      <c r="D45">
-        <v>1000</v>
-      </c>
       <c r="E45">
+        <v>1000</v>
+      </c>
+      <c r="F45">
         <v>90</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>790</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>20210611</v>
       </c>
-      <c r="I45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46">
         <v>20210611</v>
       </c>
-      <c r="D46">
-        <v>1000</v>
-      </c>
       <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
         <v>90</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>857</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>20210611</v>
       </c>
-      <c r="I46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47">
         <v>20210611</v>
       </c>
-      <c r="D47">
-        <v>1000</v>
-      </c>
       <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47">
         <v>88</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>833</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="0"/>
         <v>745</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>20210611</v>
       </c>
-      <c r="I47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48">
         <v>20210611</v>
       </c>
-      <c r="D48">
-        <v>1000</v>
-      </c>
       <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48">
         <v>101</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>825</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>20210611</v>
       </c>
-      <c r="I48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49">
         <v>20210611</v>
       </c>
-      <c r="D49">
-        <v>1000</v>
-      </c>
       <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
         <v>90</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>869</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>20210611</v>
       </c>
-      <c r="I49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50">
         <v>20210611</v>
       </c>
-      <c r="D50">
-        <v>1000</v>
-      </c>
       <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
         <v>89</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>868</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>20210611</v>
       </c>
-      <c r="I50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51">
         <v>20210611</v>
       </c>
-      <c r="D51">
-        <v>1000</v>
-      </c>
       <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51">
         <v>89</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>845</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f t="shared" si="0"/>
         <v>756</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>20210611</v>
       </c>
-      <c r="I51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D52">
         <v>20210611</v>
       </c>
-      <c r="D52">
-        <v>1000</v>
-      </c>
       <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
         <v>89</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>855</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>20210611</v>
       </c>
-      <c r="I52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53">
         <v>20210611</v>
       </c>
-      <c r="D53">
-        <v>1000</v>
-      </c>
       <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
         <v>88</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>854</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>20210611</v>
       </c>
-      <c r="I53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54">
         <v>20210611</v>
       </c>
-      <c r="D54">
-        <v>1000</v>
-      </c>
       <c r="E54">
+        <v>1000</v>
+      </c>
+      <c r="F54">
         <v>88</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>870</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>20210611</v>
       </c>
-      <c r="I54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55">
         <v>20210611</v>
       </c>
-      <c r="D55">
-        <v>1000</v>
-      </c>
       <c r="E55">
+        <v>1000</v>
+      </c>
+      <c r="F55">
         <v>89</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>861</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>20210611</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4860,30 +5357,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7CF24D-EF41-5241-906E-DAD6D3AC4CE4}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4891,1188 +5389,1713 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>286</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2">
         <v>20210614</v>
       </c>
-      <c r="D2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F2">
         <v>88</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>906</v>
       </c>
-      <c r="G2">
-        <f>F2-E2</f>
+      <c r="H2">
+        <f>G2-F2</f>
         <v>818</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20210614</v>
       </c>
-      <c r="I2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>287</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3">
         <v>20210614</v>
       </c>
-      <c r="D3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F3">
         <v>90</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>782</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G19" si="0">F3-E3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H55" si="0">G3-F3</f>
         <v>692</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20210614</v>
       </c>
-      <c r="I3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>288</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4">
         <v>20210614</v>
       </c>
-      <c r="D4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>810</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20210614</v>
       </c>
-      <c r="I4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>289</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5">
         <v>20210614</v>
       </c>
-      <c r="D5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F5">
         <v>89</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>880</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>791</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20210614</v>
       </c>
-      <c r="I5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>290</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6">
         <v>20210614</v>
       </c>
-      <c r="D6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F6">
         <v>89</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>794</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20210614</v>
       </c>
-      <c r="I6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>291</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7">
         <v>20210614</v>
       </c>
-      <c r="D7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F7">
         <v>105</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>833</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>20210614</v>
       </c>
-      <c r="I7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>292</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8">
         <v>20210614</v>
       </c>
-      <c r="D8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F8">
         <v>90</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>882</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20210614</v>
       </c>
-      <c r="I8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>293</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9">
         <v>20210614</v>
       </c>
-      <c r="D9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E9">
+      <c r="E9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F9">
         <v>89</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>788</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>699</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>20210614</v>
       </c>
-      <c r="I9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B10" t="s">
         <v>294</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10">
         <v>20210614</v>
       </c>
-      <c r="D10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F10">
         <v>88</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>829</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20210614</v>
       </c>
-      <c r="I10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B11" t="s">
         <v>295</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11">
         <v>20210614</v>
       </c>
-      <c r="D11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E11">
+      <c r="E11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F11">
         <v>88</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>850</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>762</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>20210614</v>
       </c>
-      <c r="I11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B12" t="s">
         <v>296</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12">
         <v>20210614</v>
       </c>
-      <c r="D12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E12">
+      <c r="E12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F12">
         <v>87</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>915</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>20210614</v>
       </c>
-      <c r="I12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>297</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13">
         <v>20210614</v>
       </c>
-      <c r="D13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E13">
+      <c r="E13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F13">
         <v>87</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>854</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20210614</v>
       </c>
-      <c r="I13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14">
         <v>20210614</v>
       </c>
-      <c r="D14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E14">
+      <c r="E14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F14">
         <v>88</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>840</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>752</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20210614</v>
       </c>
-      <c r="I14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>299</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15">
         <v>20210614</v>
       </c>
-      <c r="D15" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E15">
+      <c r="E15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F15">
         <v>88</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>852</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>20210614</v>
       </c>
-      <c r="I15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B16" t="s">
         <v>300</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16">
         <v>20210614</v>
       </c>
-      <c r="D16" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F16">
         <v>89</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>887</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>798</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>20210614</v>
       </c>
-      <c r="I16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B17" t="s">
         <v>301</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17">
         <v>20210614</v>
       </c>
-      <c r="D17" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E17">
+      <c r="E17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F17">
         <v>88</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>884</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20210614</v>
       </c>
-      <c r="I17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B18" t="s">
         <v>302</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18">
         <v>20210614</v>
       </c>
-      <c r="D18" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E18">
+      <c r="E18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F18">
         <v>88</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>895</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>807</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20210614</v>
       </c>
-      <c r="I18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B19" t="s">
         <v>303</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19">
         <v>20210614</v>
       </c>
-      <c r="D19" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E19">
+      <c r="E19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F19">
         <v>87</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>771</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>20210614</v>
       </c>
-      <c r="I19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B20" t="s">
         <v>304</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20">
         <v>20210616</v>
       </c>
-      <c r="D20" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E20">
+      <c r="E20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F20">
         <v>89</v>
       </c>
-      <c r="I20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>863</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>774</v>
+      </c>
+      <c r="I20">
+        <v>20210616</v>
+      </c>
+      <c r="J20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B21" t="s">
         <v>305</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21">
         <v>20210616</v>
       </c>
-      <c r="D21" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E21">
+      <c r="E21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F21">
         <v>89</v>
       </c>
-      <c r="I21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>814</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="I21">
+        <v>20210616</v>
+      </c>
+      <c r="J21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B22" t="s">
         <v>306</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22">
         <v>20210616</v>
       </c>
-      <c r="D22" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E22">
+      <c r="E22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F22">
         <v>88</v>
       </c>
-      <c r="I22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>797</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>709</v>
+      </c>
+      <c r="I22">
+        <v>20210616</v>
+      </c>
+      <c r="J22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B23" t="s">
         <v>307</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23">
         <v>20210616</v>
       </c>
-      <c r="D23" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E23">
+      <c r="E23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F23">
         <v>89</v>
       </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>786</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>697</v>
+      </c>
+      <c r="I23">
+        <v>20210616</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B24" t="s">
         <v>308</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24">
         <v>20210616</v>
       </c>
-      <c r="D24" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E24">
+      <c r="E24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F24">
         <v>89</v>
       </c>
-      <c r="I24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>876</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+      <c r="I24">
+        <v>20210616</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B25" t="s">
         <v>309</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25">
         <v>20210616</v>
       </c>
-      <c r="D25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E25">
+      <c r="E25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F25">
         <v>88</v>
       </c>
-      <c r="I25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>865</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>777</v>
+      </c>
+      <c r="I25">
+        <v>20210616</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B26" t="s">
         <v>310</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26">
         <v>20210616</v>
       </c>
-      <c r="D26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E26">
+      <c r="E26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F26">
         <v>104</v>
       </c>
-      <c r="I26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>848</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>744</v>
+      </c>
+      <c r="I26">
+        <v>20210616</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B27" t="s">
         <v>311</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27">
         <v>20210616</v>
       </c>
-      <c r="D27" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E27">
+      <c r="E27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F27">
         <v>88</v>
       </c>
-      <c r="I27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>765</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="I27">
+        <v>20210616</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B28" t="s">
         <v>312</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28">
         <v>20210616</v>
       </c>
-      <c r="D28" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E28">
+      <c r="E28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F28">
         <v>89</v>
       </c>
-      <c r="I28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>861</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="I28">
+        <v>20210616</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B29" t="s">
         <v>313</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29">
         <v>20210616</v>
       </c>
-      <c r="D29" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E29">
+      <c r="E29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F29">
         <v>87</v>
       </c>
-      <c r="I29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>854</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>767</v>
+      </c>
+      <c r="I29">
+        <v>20210616</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B30" t="s">
         <v>314</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30">
         <v>20210616</v>
       </c>
-      <c r="D30" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E30">
+      <c r="E30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F30">
         <v>101</v>
       </c>
-      <c r="I30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>794</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="I30">
+        <v>20210616</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B31" t="s">
         <v>315</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31">
         <v>20210616</v>
       </c>
-      <c r="D31" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E31">
+      <c r="E31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F31">
         <v>90</v>
       </c>
-      <c r="I31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>805</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="I31">
+        <v>20210616</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B32" t="s">
         <v>316</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32">
         <v>20210616</v>
       </c>
-      <c r="D32" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E32">
+      <c r="E32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F32">
         <v>89</v>
       </c>
-      <c r="I32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>912</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>823</v>
+      </c>
+      <c r="I32">
+        <v>20210616</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B33" t="s">
         <v>317</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33">
         <v>20210616</v>
       </c>
-      <c r="D33" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E33">
+      <c r="E33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F33">
         <v>88</v>
       </c>
-      <c r="I33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>850</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>762</v>
+      </c>
+      <c r="I33">
+        <v>20210616</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>318</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34">
         <v>20210616</v>
       </c>
-      <c r="D34" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E34">
+      <c r="E34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F34">
         <v>89</v>
       </c>
-      <c r="I34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>896</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+      <c r="I34">
+        <v>20210616</v>
+      </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B35" t="s">
         <v>319</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35">
         <v>20210616</v>
       </c>
-      <c r="D35" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E35">
+      <c r="E35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F35">
         <v>88</v>
       </c>
-      <c r="I35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>812</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>724</v>
+      </c>
+      <c r="I35">
+        <v>20210616</v>
+      </c>
+      <c r="J35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B36" t="s">
         <v>320</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36">
         <v>20210616</v>
       </c>
-      <c r="D36" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E36">
+      <c r="E36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F36">
         <v>89</v>
       </c>
-      <c r="I36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>886</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+      <c r="I36">
+        <v>20210616</v>
+      </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>321</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
+      <c r="D37">
         <v>20210616</v>
       </c>
-      <c r="D37" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E37">
+      <c r="E37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F37">
         <v>89</v>
       </c>
-      <c r="I37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>795</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="I37">
+        <v>20210616</v>
+      </c>
+      <c r="J37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>322</v>
       </c>
-      <c r="D38" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38">
+        <v>20210618</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F38">
+        <v>88</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B39" t="s">
         <v>323</v>
       </c>
-      <c r="D39" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39">
+        <v>20210618</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F39">
+        <v>105</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>-105</v>
+      </c>
+      <c r="J39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B40" t="s">
         <v>324</v>
       </c>
-      <c r="D40" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40">
+        <v>20210618</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>88</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B41" t="s">
         <v>325</v>
       </c>
-      <c r="D41" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41">
+        <v>20210618</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F41">
+        <v>88</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B42" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42">
+        <v>20210618</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F42">
+        <v>89</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="J42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B43" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43">
+        <v>20210618</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F43">
+        <v>88</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B44" t="s">
         <v>328</v>
       </c>
-      <c r="D44" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44">
+        <v>20210618</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F44">
+        <v>89</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B45" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45">
+        <v>20210618</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F45">
+        <v>88</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B46" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46">
+        <v>20210618</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>89</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="J46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B47" t="s">
         <v>331</v>
       </c>
-      <c r="D47" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47">
+        <v>20210618</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <v>88</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B48" t="s">
         <v>332</v>
       </c>
-      <c r="D48" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48">
+        <v>20210618</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F48">
+        <v>89</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="J48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B49" t="s">
         <v>333</v>
       </c>
-      <c r="D49" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49">
+        <v>20210618</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>88</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B50" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50">
+        <v>20210618</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>89</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="J50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B51" t="s">
         <v>335</v>
       </c>
-      <c r="D51" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51">
+        <v>20210618</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F51">
+        <v>89</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="J51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B52" t="s">
         <v>336</v>
       </c>
-      <c r="D52" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D52">
+        <v>20210618</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F52">
+        <v>87</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>-87</v>
+      </c>
+      <c r="J52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B53" t="s">
         <v>337</v>
       </c>
-      <c r="D53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53">
+        <v>20210618</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>88</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="J53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B54" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54">
+        <v>20210618</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F54">
+        <v>91</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>-91</v>
+      </c>
+      <c r="J54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B55" t="s">
         <v>339</v>
       </c>
-      <c r="D55" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="C55" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55">
+        <v>20210618</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F55">
+        <v>90</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="J55" t="s">
         <v>231</v>
       </c>
     </row>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D79D99B-0666-0A48-B701-64151092A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65467BA4-8828-A547-9E62-74672911B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="396">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>C54</t>
+  </si>
+  <si>
+    <t>rainfall</t>
   </si>
 </sst>
 </file>
@@ -3498,10 +3501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3510,19 +3513,20 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3536,37 +3540,40 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>229</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -3580,26 +3587,29 @@
         <v>20210607</v>
       </c>
       <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2">
         <v>762</v>
       </c>
-      <c r="H2" t="e">
-        <f>G2-F2</f>
+      <c r="I2" t="e">
+        <f>H2-G2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20210608</v>
       </c>
-      <c r="J2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3613,26 +3623,29 @@
         <v>20210607</v>
       </c>
       <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3">
         <v>772</v>
       </c>
-      <c r="H3" t="e">
-        <f t="shared" ref="H3:H55" si="0">G3-F3</f>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I55" si="0">H3-G3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20210608</v>
       </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -3646,26 +3659,29 @@
         <v>20210607</v>
       </c>
       <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4">
         <v>839</v>
       </c>
-      <c r="H4" t="e">
+      <c r="I4" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>20210608</v>
       </c>
-      <c r="J4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -3679,26 +3695,29 @@
         <v>20210607</v>
       </c>
       <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5">
         <v>791</v>
       </c>
-      <c r="H5" t="e">
+      <c r="I5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20210608</v>
       </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -3712,26 +3731,29 @@
         <v>20210607</v>
       </c>
       <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6">
         <v>789</v>
       </c>
-      <c r="H6" t="e">
+      <c r="I6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20210608</v>
       </c>
-      <c r="J6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -3745,26 +3767,29 @@
         <v>20210607</v>
       </c>
       <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7">
         <v>776</v>
       </c>
-      <c r="H7" t="e">
+      <c r="I7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>20210608</v>
       </c>
-      <c r="J7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,26 +3803,29 @@
         <v>20210607</v>
       </c>
       <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8">
         <v>837</v>
       </c>
-      <c r="H8" t="e">
+      <c r="I8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20210608</v>
       </c>
-      <c r="J8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -3811,26 +3839,29 @@
         <v>20210607</v>
       </c>
       <c r="E9">
-        <v>1000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9">
         <v>798</v>
       </c>
-      <c r="H9" t="e">
+      <c r="I9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20210608</v>
       </c>
-      <c r="J9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -3844,26 +3875,29 @@
         <v>20210607</v>
       </c>
       <c r="E10">
-        <v>1000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10">
         <v>836</v>
       </c>
-      <c r="H10" t="e">
+      <c r="I10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>20210608</v>
       </c>
-      <c r="J10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -3877,26 +3911,29 @@
         <v>20210607</v>
       </c>
       <c r="E11">
-        <v>1000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11">
         <v>737</v>
       </c>
-      <c r="H11" t="e">
+      <c r="I11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>20210608</v>
       </c>
-      <c r="J11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -3910,26 +3947,29 @@
         <v>20210607</v>
       </c>
       <c r="E12">
-        <v>1000</v>
-      </c>
-      <c r="F12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12">
         <v>836</v>
       </c>
-      <c r="H12" t="e">
+      <c r="I12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>20210608</v>
       </c>
-      <c r="J12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -3943,26 +3983,29 @@
         <v>20210607</v>
       </c>
       <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13">
         <v>757</v>
       </c>
-      <c r="H13" t="e">
+      <c r="I13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>20210608</v>
       </c>
-      <c r="J13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -3976,26 +4019,29 @@
         <v>20210607</v>
       </c>
       <c r="E14">
-        <v>1000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14">
         <v>821</v>
       </c>
-      <c r="H14" t="e">
+      <c r="I14" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>20210608</v>
       </c>
-      <c r="J14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -4009,26 +4055,29 @@
         <v>20210607</v>
       </c>
       <c r="E15">
-        <v>1000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15">
         <v>749</v>
       </c>
-      <c r="H15" t="e">
+      <c r="I15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20210608</v>
       </c>
-      <c r="J15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -4042,26 +4091,29 @@
         <v>20210607</v>
       </c>
       <c r="E16">
-        <v>1000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16">
         <v>833</v>
       </c>
-      <c r="H16" t="e">
+      <c r="I16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>20210608</v>
       </c>
-      <c r="J16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -4075,26 +4127,29 @@
         <v>20210607</v>
       </c>
       <c r="E17">
-        <v>1000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17">
         <v>793</v>
       </c>
-      <c r="H17" t="e">
+      <c r="I17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>20210608</v>
       </c>
-      <c r="J17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4108,26 +4163,29 @@
         <v>20210607</v>
       </c>
       <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18">
         <v>812</v>
       </c>
-      <c r="H18" t="e">
+      <c r="I18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>20210608</v>
       </c>
-      <c r="J18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -4141,26 +4199,29 @@
         <v>20210607</v>
       </c>
       <c r="E19">
-        <v>1000</v>
-      </c>
-      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19" t="s">
         <v>230</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>802</v>
       </c>
-      <c r="H19" t="e">
+      <c r="I19" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>20210608</v>
       </c>
-      <c r="J19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -4174,26 +4235,29 @@
         <v>20210609</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
         <v>105</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>871</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20210609</v>
       </c>
-      <c r="J20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -4207,26 +4271,29 @@
         <v>20210609</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
         <v>107</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>824</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>717</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>20210609</v>
       </c>
-      <c r="J21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -4240,26 +4307,29 @@
         <v>20210609</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
         <v>88</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>872</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>784</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20210609</v>
       </c>
-      <c r="J22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -4273,26 +4343,29 @@
         <v>20210609</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
         <v>90</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>858</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>20210609</v>
       </c>
-      <c r="J23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -4306,26 +4379,29 @@
         <v>20210609</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
         <v>106</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>869</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>20210609</v>
       </c>
-      <c r="J24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -4339,26 +4415,29 @@
         <v>20210609</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
         <v>90</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>869</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>20210609</v>
       </c>
-      <c r="J25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -4372,26 +4451,29 @@
         <v>20210609</v>
       </c>
       <c r="E26">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
         <v>89</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>864</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>20210609</v>
       </c>
-      <c r="J26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -4405,26 +4487,29 @@
         <v>20210609</v>
       </c>
       <c r="E27">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
         <v>90</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>802</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>20210609</v>
       </c>
-      <c r="J27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -4438,26 +4523,29 @@
         <v>20210609</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
         <v>90</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>886</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>20210609</v>
       </c>
-      <c r="J28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -4471,26 +4559,29 @@
         <v>20210609</v>
       </c>
       <c r="E29">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
         <v>92</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>860</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>20210609</v>
       </c>
-      <c r="J29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -4504,26 +4595,29 @@
         <v>20210609</v>
       </c>
       <c r="E30">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
         <v>89</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>849</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>20210609</v>
       </c>
-      <c r="J30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -4537,26 +4631,29 @@
         <v>20210609</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
         <v>91</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>841</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>20210609</v>
       </c>
-      <c r="J31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -4570,26 +4667,29 @@
         <v>20210609</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
         <v>90</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>875</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>785</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>20210609</v>
       </c>
-      <c r="J32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -4603,26 +4703,29 @@
         <v>20210609</v>
       </c>
       <c r="E33">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
         <v>89</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>782</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>20210609</v>
       </c>
-      <c r="J33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -4636,26 +4739,29 @@
         <v>20210609</v>
       </c>
       <c r="E34">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
         <v>90</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>894</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>804</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>20210609</v>
       </c>
-      <c r="J34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -4669,26 +4775,29 @@
         <v>20210609</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F35">
+        <v>1000</v>
+      </c>
+      <c r="G35">
         <v>94</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>851</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>20210609</v>
       </c>
-      <c r="J35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -4702,26 +4811,29 @@
         <v>20210609</v>
       </c>
       <c r="E36">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F36">
+        <v>1000</v>
+      </c>
+      <c r="G36">
         <v>90</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>905</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>815</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>20210609</v>
       </c>
-      <c r="J36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -4735,26 +4847,29 @@
         <v>20210609</v>
       </c>
       <c r="E37">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
         <v>90</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>818</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>20210609</v>
       </c>
-      <c r="J37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -4768,26 +4883,29 @@
         <v>20210611</v>
       </c>
       <c r="E38">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
         <v>88</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>772</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>20210611</v>
       </c>
-      <c r="J38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
@@ -4801,26 +4919,29 @@
         <v>20210611</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39">
         <v>89</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>814</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>20210611</v>
       </c>
-      <c r="J39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -4834,26 +4955,29 @@
         <v>20210611</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
         <v>88</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>905</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>20210611</v>
       </c>
-      <c r="J40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -4867,26 +4991,29 @@
         <v>20210611</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
         <v>89</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>843</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="0"/>
         <v>754</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>20210611</v>
       </c>
-      <c r="J41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -4900,26 +5027,29 @@
         <v>20210611</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
         <v>104</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>827</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>20210611</v>
       </c>
-      <c r="J42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -4933,26 +5063,29 @@
         <v>20210611</v>
       </c>
       <c r="E43">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
         <v>89</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>810</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>20210611</v>
       </c>
-      <c r="J43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -4966,26 +5099,29 @@
         <v>20210611</v>
       </c>
       <c r="E44">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44">
         <v>90</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>847</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>20210611</v>
       </c>
-      <c r="J44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -4999,26 +5135,29 @@
         <v>20210611</v>
       </c>
       <c r="E45">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45">
         <v>90</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>790</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>20210611</v>
       </c>
-      <c r="J45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -5032,26 +5171,29 @@
         <v>20210611</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
         <v>90</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>857</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>20210611</v>
       </c>
-      <c r="J46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -5065,26 +5207,29 @@
         <v>20210611</v>
       </c>
       <c r="E47">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F47">
+        <v>1000</v>
+      </c>
+      <c r="G47">
         <v>88</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>833</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="0"/>
         <v>745</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>20210611</v>
       </c>
-      <c r="J47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -5098,26 +5243,29 @@
         <v>20210611</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48">
         <v>101</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>825</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>20210611</v>
       </c>
-      <c r="J48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5131,26 +5279,29 @@
         <v>20210611</v>
       </c>
       <c r="E49">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F49">
+        <v>1000</v>
+      </c>
+      <c r="G49">
         <v>90</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>869</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>20210611</v>
       </c>
-      <c r="J49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -5164,26 +5315,29 @@
         <v>20210611</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F50">
+        <v>1000</v>
+      </c>
+      <c r="G50">
         <v>89</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>868</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>20210611</v>
       </c>
-      <c r="J50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -5197,26 +5351,29 @@
         <v>20210611</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51">
         <v>89</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>845</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="0"/>
         <v>756</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>20210611</v>
       </c>
-      <c r="J51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
@@ -5230,26 +5387,29 @@
         <v>20210611</v>
       </c>
       <c r="E52">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
         <v>89</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>855</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>20210611</v>
       </c>
-      <c r="J52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -5263,26 +5423,29 @@
         <v>20210611</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
         <v>88</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>854</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>20210611</v>
       </c>
-      <c r="J53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -5296,26 +5459,29 @@
         <v>20210611</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
         <v>88</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>870</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>20210611</v>
       </c>
-      <c r="J54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -5329,22 +5495,25 @@
         <v>20210611</v>
       </c>
       <c r="E55">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F55">
+        <v>1000</v>
+      </c>
+      <c r="G55">
         <v>89</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>861</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>20210611</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5357,10 +5526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7CF24D-EF41-5241-906E-DAD6D3AC4CE4}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5369,19 +5538,20 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5395,37 +5565,40 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>229</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>232</v>
       </c>
@@ -5438,27 +5611,30 @@
       <c r="D2">
         <v>20210614</v>
       </c>
-      <c r="E2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2">
         <v>88</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>906</v>
       </c>
-      <c r="H2">
-        <f>G2-F2</f>
+      <c r="I2">
+        <f>H2-G2</f>
         <v>818</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20210614</v>
       </c>
-      <c r="J2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>233</v>
       </c>
@@ -5471,27 +5647,30 @@
       <c r="D3">
         <v>20210614</v>
       </c>
-      <c r="E3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G3">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>782</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H55" si="0">G3-F3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I55" si="0">H3-G3</f>
         <v>692</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20210614</v>
       </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>234</v>
       </c>
@@ -5504,27 +5683,30 @@
       <c r="D4">
         <v>20210614</v>
       </c>
-      <c r="E4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>810</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>20210614</v>
       </c>
-      <c r="J4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -5537,27 +5719,30 @@
       <c r="D5">
         <v>20210614</v>
       </c>
-      <c r="E5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G5">
         <v>89</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>880</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>791</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20210614</v>
       </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>236</v>
       </c>
@@ -5570,27 +5755,30 @@
       <c r="D6">
         <v>20210614</v>
       </c>
-      <c r="E6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G6">
         <v>89</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>794</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20210614</v>
       </c>
-      <c r="J6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
@@ -5603,27 +5791,30 @@
       <c r="D7">
         <v>20210614</v>
       </c>
-      <c r="E7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G7">
         <v>105</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>833</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>20210614</v>
       </c>
-      <c r="J7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>238</v>
       </c>
@@ -5636,27 +5827,30 @@
       <c r="D8">
         <v>20210614</v>
       </c>
-      <c r="E8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G8">
         <v>90</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>882</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20210614</v>
       </c>
-      <c r="J8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>239</v>
       </c>
@@ -5669,27 +5863,30 @@
       <c r="D9">
         <v>20210614</v>
       </c>
-      <c r="E9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G9">
         <v>89</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>788</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>699</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20210614</v>
       </c>
-      <c r="J9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>240</v>
       </c>
@@ -5702,27 +5899,30 @@
       <c r="D10">
         <v>20210614</v>
       </c>
-      <c r="E10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G10">
         <v>88</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>829</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>20210614</v>
       </c>
-      <c r="J10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -5735,27 +5935,30 @@
       <c r="D11">
         <v>20210614</v>
       </c>
-      <c r="E11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G11">
         <v>88</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>850</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>762</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>20210614</v>
       </c>
-      <c r="J11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>242</v>
       </c>
@@ -5768,27 +5971,30 @@
       <c r="D12">
         <v>20210614</v>
       </c>
-      <c r="E12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G12">
         <v>87</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>915</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>20210614</v>
       </c>
-      <c r="J12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -5801,27 +6007,30 @@
       <c r="D13">
         <v>20210614</v>
       </c>
-      <c r="E13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G13">
         <v>87</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>854</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>20210614</v>
       </c>
-      <c r="J13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -5834,27 +6043,30 @@
       <c r="D14">
         <v>20210614</v>
       </c>
-      <c r="E14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G14">
         <v>88</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>840</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>752</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>20210614</v>
       </c>
-      <c r="J14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
@@ -5867,27 +6079,30 @@
       <c r="D15">
         <v>20210614</v>
       </c>
-      <c r="E15" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G15">
         <v>88</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>852</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20210614</v>
       </c>
-      <c r="J15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>246</v>
       </c>
@@ -5900,27 +6115,30 @@
       <c r="D16">
         <v>20210614</v>
       </c>
-      <c r="E16" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G16">
         <v>89</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>887</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>798</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>20210614</v>
       </c>
-      <c r="J16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>247</v>
       </c>
@@ -5933,27 +6151,30 @@
       <c r="D17">
         <v>20210614</v>
       </c>
-      <c r="E17" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G17">
         <v>88</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>884</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>20210614</v>
       </c>
-      <c r="J17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>248</v>
       </c>
@@ -5966,27 +6187,30 @@
       <c r="D18">
         <v>20210614</v>
       </c>
-      <c r="E18" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G18">
         <v>88</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>895</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>807</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>20210614</v>
       </c>
-      <c r="J18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
@@ -5999,27 +6223,30 @@
       <c r="D19">
         <v>20210614</v>
       </c>
-      <c r="E19" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G19">
         <v>87</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>771</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>20210614</v>
       </c>
-      <c r="J19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -6032,27 +6259,30 @@
       <c r="D20">
         <v>20210616</v>
       </c>
-      <c r="E20" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G20">
         <v>89</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>863</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>774</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20210616</v>
       </c>
-      <c r="J20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -6065,27 +6295,30 @@
       <c r="D21">
         <v>20210616</v>
       </c>
-      <c r="E21" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G21">
         <v>89</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>814</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>20210616</v>
       </c>
-      <c r="J21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -6098,27 +6331,30 @@
       <c r="D22">
         <v>20210616</v>
       </c>
-      <c r="E22" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F22">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G22">
         <v>88</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>797</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20210616</v>
       </c>
-      <c r="J22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -6131,27 +6367,30 @@
       <c r="D23">
         <v>20210616</v>
       </c>
-      <c r="E23" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F23">
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G23">
         <v>89</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>786</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>697</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>20210616</v>
       </c>
-      <c r="J23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -6164,27 +6403,30 @@
       <c r="D24">
         <v>20210616</v>
       </c>
-      <c r="E24" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G24">
         <v>89</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>876</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>787</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>20210616</v>
       </c>
-      <c r="J24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -6197,27 +6439,30 @@
       <c r="D25">
         <v>20210616</v>
       </c>
-      <c r="E25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F25">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G25">
         <v>88</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>865</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>777</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>20210616</v>
       </c>
-      <c r="J25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -6230,27 +6475,30 @@
       <c r="D26">
         <v>20210616</v>
       </c>
-      <c r="E26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F26">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G26">
         <v>104</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>848</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>744</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>20210616</v>
       </c>
-      <c r="J26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
@@ -6263,27 +6511,30 @@
       <c r="D27">
         <v>20210616</v>
       </c>
-      <c r="E27" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G27">
         <v>88</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>765</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>20210616</v>
       </c>
-      <c r="J27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
@@ -6296,27 +6547,30 @@
       <c r="D28">
         <v>20210616</v>
       </c>
-      <c r="E28" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F28">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G28">
         <v>89</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>861</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>20210616</v>
       </c>
-      <c r="J28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>259</v>
       </c>
@@ -6329,27 +6583,30 @@
       <c r="D29">
         <v>20210616</v>
       </c>
-      <c r="E29" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F29">
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G29">
         <v>87</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>854</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>20210616</v>
       </c>
-      <c r="J29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>260</v>
       </c>
@@ -6362,27 +6619,30 @@
       <c r="D30">
         <v>20210616</v>
       </c>
-      <c r="E30" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F30">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G30">
         <v>101</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>794</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>20210616</v>
       </c>
-      <c r="J30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>261</v>
       </c>
@@ -6395,27 +6655,30 @@
       <c r="D31">
         <v>20210616</v>
       </c>
-      <c r="E31" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F31">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G31">
         <v>90</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>805</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>20210616</v>
       </c>
-      <c r="J31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>262</v>
       </c>
@@ -6428,27 +6691,30 @@
       <c r="D32">
         <v>20210616</v>
       </c>
-      <c r="E32" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F32">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G32">
         <v>89</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>912</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>823</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>20210616</v>
       </c>
-      <c r="J32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>263</v>
       </c>
@@ -6461,27 +6727,30 @@
       <c r="D33">
         <v>20210616</v>
       </c>
-      <c r="E33" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F33">
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G33">
         <v>88</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>850</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>762</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>20210616</v>
       </c>
-      <c r="J33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>264</v>
       </c>
@@ -6494,27 +6763,30 @@
       <c r="D34">
         <v>20210616</v>
       </c>
-      <c r="E34" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F34">
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G34">
         <v>89</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>896</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>807</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>20210616</v>
       </c>
-      <c r="J34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>265</v>
       </c>
@@ -6527,27 +6799,30 @@
       <c r="D35">
         <v>20210616</v>
       </c>
-      <c r="E35" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F35">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G35">
         <v>88</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>812</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>20210616</v>
       </c>
-      <c r="J35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>266</v>
       </c>
@@ -6560,27 +6835,30 @@
       <c r="D36">
         <v>20210616</v>
       </c>
-      <c r="E36" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G36">
         <v>89</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>886</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>797</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>20210616</v>
       </c>
-      <c r="J36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>267</v>
       </c>
@@ -6593,27 +6871,30 @@
       <c r="D37">
         <v>20210616</v>
       </c>
-      <c r="E37" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F37">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G37">
         <v>89</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>795</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>20210616</v>
       </c>
-      <c r="J37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>268</v>
       </c>
@@ -6626,21 +6907,24 @@
       <c r="D38">
         <v>20210618</v>
       </c>
-      <c r="E38" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F38">
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G38">
         <v>88</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>269</v>
       </c>
@@ -6653,21 +6937,24 @@
       <c r="D39">
         <v>20210618</v>
       </c>
-      <c r="E39" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F39">
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G39">
         <v>105</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="0"/>
         <v>-105</v>
       </c>
-      <c r="J39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>270</v>
       </c>
@@ -6680,21 +6967,24 @@
       <c r="D40">
         <v>20210618</v>
       </c>
-      <c r="E40" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F40">
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G40">
         <v>88</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>271</v>
       </c>
@@ -6707,21 +6997,24 @@
       <c r="D41">
         <v>20210618</v>
       </c>
-      <c r="E41" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F41">
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G41">
         <v>88</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>272</v>
       </c>
@@ -6734,21 +7027,24 @@
       <c r="D42">
         <v>20210618</v>
       </c>
-      <c r="E42" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F42">
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G42">
         <v>89</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="0"/>
         <v>-89</v>
       </c>
-      <c r="J42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>273</v>
       </c>
@@ -6761,21 +7057,24 @@
       <c r="D43">
         <v>20210618</v>
       </c>
-      <c r="E43" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F43">
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G43">
         <v>88</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>274</v>
       </c>
@@ -6788,21 +7087,24 @@
       <c r="D44">
         <v>20210618</v>
       </c>
-      <c r="E44" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F44">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G44">
         <v>89</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="0"/>
         <v>-89</v>
       </c>
-      <c r="J44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>275</v>
       </c>
@@ -6815,21 +7117,24 @@
       <c r="D45">
         <v>20210618</v>
       </c>
-      <c r="E45" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F45">
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G45">
         <v>88</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>276</v>
       </c>
@@ -6842,21 +7147,24 @@
       <c r="D46">
         <v>20210618</v>
       </c>
-      <c r="E46" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F46">
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G46">
         <v>89</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="0"/>
         <v>-89</v>
       </c>
-      <c r="J46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>277</v>
       </c>
@@ -6869,21 +7177,24 @@
       <c r="D47">
         <v>20210618</v>
       </c>
-      <c r="E47" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F47">
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G47">
         <v>88</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>278</v>
       </c>
@@ -6896,21 +7207,24 @@
       <c r="D48">
         <v>20210618</v>
       </c>
-      <c r="E48" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F48">
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G48">
         <v>89</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="0"/>
         <v>-89</v>
       </c>
-      <c r="J48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>279</v>
       </c>
@@ -6923,21 +7237,24 @@
       <c r="D49">
         <v>20210618</v>
       </c>
-      <c r="E49" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F49">
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G49">
         <v>88</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>280</v>
       </c>
@@ -6950,21 +7267,24 @@
       <c r="D50">
         <v>20210618</v>
       </c>
-      <c r="E50" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F50">
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G50">
         <v>89</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="0"/>
         <v>-89</v>
       </c>
-      <c r="J50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>281</v>
       </c>
@@ -6977,21 +7297,24 @@
       <c r="D51">
         <v>20210618</v>
       </c>
-      <c r="E51" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F51">
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G51">
         <v>89</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="0"/>
         <v>-89</v>
       </c>
-      <c r="J51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>282</v>
       </c>
@@ -7004,21 +7327,24 @@
       <c r="D52">
         <v>20210618</v>
       </c>
-      <c r="E52" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G52">
         <v>87</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="0"/>
         <v>-87</v>
       </c>
-      <c r="J52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>283</v>
       </c>
@@ -7031,21 +7357,24 @@
       <c r="D53">
         <v>20210618</v>
       </c>
-      <c r="E53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F53">
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G53">
         <v>88</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="0"/>
         <v>-88</v>
       </c>
-      <c r="J53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>284</v>
       </c>
@@ -7058,21 +7387,24 @@
       <c r="D54">
         <v>20210618</v>
       </c>
-      <c r="E54" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F54">
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G54">
         <v>91</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="0"/>
         <v>-91</v>
       </c>
-      <c r="J54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>285</v>
       </c>
@@ -7085,17 +7417,20 @@
       <c r="D55">
         <v>20210618</v>
       </c>
-      <c r="E55" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F55">
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G55">
         <v>90</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="0"/>
         <v>-90</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>231</v>
       </c>
     </row>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65467BA4-8828-A547-9E62-74672911B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA9B137-6106-724A-B99E-A9F796B98C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
     <sheet name="Rainfall 2" sheetId="2" r:id="rId2"/>
     <sheet name="Rainfall 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rainfall 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="449">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -782,9 +783,6 @@
     <t>extracted_DNA_location</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Freezer_F_Shelf_5</t>
   </si>
   <si>
@@ -950,168 +948,6 @@
     <t>SSCAMR00216</t>
   </si>
   <si>
-    <t>C01R3</t>
-  </si>
-  <si>
-    <t>C02R3</t>
-  </si>
-  <si>
-    <t>C03R3</t>
-  </si>
-  <si>
-    <t>C04R3</t>
-  </si>
-  <si>
-    <t>C05R3</t>
-  </si>
-  <si>
-    <t>C06R3</t>
-  </si>
-  <si>
-    <t>C07R3</t>
-  </si>
-  <si>
-    <t>C08R3</t>
-  </si>
-  <si>
-    <t>C09R3</t>
-  </si>
-  <si>
-    <t>C10R3</t>
-  </si>
-  <si>
-    <t>C11R3</t>
-  </si>
-  <si>
-    <t>C12R3</t>
-  </si>
-  <si>
-    <t>C13R3</t>
-  </si>
-  <si>
-    <t>C14R3</t>
-  </si>
-  <si>
-    <t>C15R3</t>
-  </si>
-  <si>
-    <t>C16R3</t>
-  </si>
-  <si>
-    <t>C17R3</t>
-  </si>
-  <si>
-    <t>C18R3</t>
-  </si>
-  <si>
-    <t>C19R3</t>
-  </si>
-  <si>
-    <t>C20R3</t>
-  </si>
-  <si>
-    <t>C21R3</t>
-  </si>
-  <si>
-    <t>C22R3</t>
-  </si>
-  <si>
-    <t>C23R3</t>
-  </si>
-  <si>
-    <t>C24R3</t>
-  </si>
-  <si>
-    <t>C25R3</t>
-  </si>
-  <si>
-    <t>C26R3</t>
-  </si>
-  <si>
-    <t>C27R3</t>
-  </si>
-  <si>
-    <t>C28R3</t>
-  </si>
-  <si>
-    <t>C29R3</t>
-  </si>
-  <si>
-    <t>C30R3</t>
-  </si>
-  <si>
-    <t>C31R3</t>
-  </si>
-  <si>
-    <t>C32R3</t>
-  </si>
-  <si>
-    <t>C33R3</t>
-  </si>
-  <si>
-    <t>C34R3</t>
-  </si>
-  <si>
-    <t>C35R3</t>
-  </si>
-  <si>
-    <t>C36R3</t>
-  </si>
-  <si>
-    <t>C37R3</t>
-  </si>
-  <si>
-    <t>C38R3</t>
-  </si>
-  <si>
-    <t>C39R3</t>
-  </si>
-  <si>
-    <t>C40R3</t>
-  </si>
-  <si>
-    <t>C41R3</t>
-  </si>
-  <si>
-    <t>C42R3</t>
-  </si>
-  <si>
-    <t>C43R3</t>
-  </si>
-  <si>
-    <t>C44R3</t>
-  </si>
-  <si>
-    <t>C45R3</t>
-  </si>
-  <si>
-    <t>C46R3</t>
-  </si>
-  <si>
-    <t>C47R3</t>
-  </si>
-  <si>
-    <t>C48R3</t>
-  </si>
-  <si>
-    <t>C49R3</t>
-  </si>
-  <si>
-    <t>C50R3</t>
-  </si>
-  <si>
-    <t>C51R3</t>
-  </si>
-  <si>
-    <t>C52R3</t>
-  </si>
-  <si>
-    <t>C53R3</t>
-  </si>
-  <si>
-    <t>C54R3</t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -1278,6 +1114,330 @@
   </si>
   <si>
     <t>rainfall</t>
+  </si>
+  <si>
+    <t>C01R4</t>
+  </si>
+  <si>
+    <t>C02R4</t>
+  </si>
+  <si>
+    <t>C03R4</t>
+  </si>
+  <si>
+    <t>C04R4</t>
+  </si>
+  <si>
+    <t>C05R4</t>
+  </si>
+  <si>
+    <t>C06R4</t>
+  </si>
+  <si>
+    <t>C07R4</t>
+  </si>
+  <si>
+    <t>C08R4</t>
+  </si>
+  <si>
+    <t>C09R4</t>
+  </si>
+  <si>
+    <t>C10R4</t>
+  </si>
+  <si>
+    <t>C11R4</t>
+  </si>
+  <si>
+    <t>C12R4</t>
+  </si>
+  <si>
+    <t>C13R4</t>
+  </si>
+  <si>
+    <t>C14R4</t>
+  </si>
+  <si>
+    <t>C15R4</t>
+  </si>
+  <si>
+    <t>C16R4</t>
+  </si>
+  <si>
+    <t>C17R4</t>
+  </si>
+  <si>
+    <t>C18R4</t>
+  </si>
+  <si>
+    <t>C19R4</t>
+  </si>
+  <si>
+    <t>C20R4</t>
+  </si>
+  <si>
+    <t>C21R4</t>
+  </si>
+  <si>
+    <t>C22R4</t>
+  </si>
+  <si>
+    <t>C23R4</t>
+  </si>
+  <si>
+    <t>C24R4</t>
+  </si>
+  <si>
+    <t>C25R4</t>
+  </si>
+  <si>
+    <t>C26R4</t>
+  </si>
+  <si>
+    <t>C27R4</t>
+  </si>
+  <si>
+    <t>C28R4</t>
+  </si>
+  <si>
+    <t>C29R4</t>
+  </si>
+  <si>
+    <t>C30R4</t>
+  </si>
+  <si>
+    <t>C31R4</t>
+  </si>
+  <si>
+    <t>C32R4</t>
+  </si>
+  <si>
+    <t>C33R4</t>
+  </si>
+  <si>
+    <t>C34R4</t>
+  </si>
+  <si>
+    <t>C35R4</t>
+  </si>
+  <si>
+    <t>C36R4</t>
+  </si>
+  <si>
+    <t>C37R4</t>
+  </si>
+  <si>
+    <t>C38R4</t>
+  </si>
+  <si>
+    <t>C39R4</t>
+  </si>
+  <si>
+    <t>C40R4</t>
+  </si>
+  <si>
+    <t>C41R4</t>
+  </si>
+  <si>
+    <t>C42R4</t>
+  </si>
+  <si>
+    <t>C43R4</t>
+  </si>
+  <si>
+    <t>C44R4</t>
+  </si>
+  <si>
+    <t>C45R4</t>
+  </si>
+  <si>
+    <t>C46R4</t>
+  </si>
+  <si>
+    <t>C47R4</t>
+  </si>
+  <si>
+    <t>C48R4</t>
+  </si>
+  <si>
+    <t>C49R4</t>
+  </si>
+  <si>
+    <t>C50R4</t>
+  </si>
+  <si>
+    <t>C51R4</t>
+  </si>
+  <si>
+    <t>C52R4</t>
+  </si>
+  <si>
+    <t>C53R4</t>
+  </si>
+  <si>
+    <t>C54R4</t>
+  </si>
+  <si>
+    <t>SSCAMR00217</t>
+  </si>
+  <si>
+    <t>SSCAMR00218</t>
+  </si>
+  <si>
+    <t>SSCAMR00219</t>
+  </si>
+  <si>
+    <t>SSCAMR00220</t>
+  </si>
+  <si>
+    <t>SSCAMR00221</t>
+  </si>
+  <si>
+    <t>SSCAMR00222</t>
+  </si>
+  <si>
+    <t>SSCAMR00223</t>
+  </si>
+  <si>
+    <t>SSCAMR00224</t>
+  </si>
+  <si>
+    <t>SSCAMR00225</t>
+  </si>
+  <si>
+    <t>SSCAMR00226</t>
+  </si>
+  <si>
+    <t>SSCAMR00227</t>
+  </si>
+  <si>
+    <t>SSCAMR00228</t>
+  </si>
+  <si>
+    <t>SSCAMR00229</t>
+  </si>
+  <si>
+    <t>SSCAMR00230</t>
+  </si>
+  <si>
+    <t>SSCAMR00231</t>
+  </si>
+  <si>
+    <t>SSCAMR00232</t>
+  </si>
+  <si>
+    <t>SSCAMR00233</t>
+  </si>
+  <si>
+    <t>SSCAMR00234</t>
+  </si>
+  <si>
+    <t>SSCAMR00235</t>
+  </si>
+  <si>
+    <t>SSCAMR00236</t>
+  </si>
+  <si>
+    <t>SSCAMR00237</t>
+  </si>
+  <si>
+    <t>SSCAMR00238</t>
+  </si>
+  <si>
+    <t>SSCAMR00239</t>
+  </si>
+  <si>
+    <t>SSCAMR00240</t>
+  </si>
+  <si>
+    <t>SSCAMR00241</t>
+  </si>
+  <si>
+    <t>SSCAMR00242</t>
+  </si>
+  <si>
+    <t>SSCAMR00243</t>
+  </si>
+  <si>
+    <t>SSCAMR00244</t>
+  </si>
+  <si>
+    <t>SSCAMR00245</t>
+  </si>
+  <si>
+    <t>SSCAMR00246</t>
+  </si>
+  <si>
+    <t>SSCAMR00247</t>
+  </si>
+  <si>
+    <t>SSCAMR00248</t>
+  </si>
+  <si>
+    <t>SSCAMR00249</t>
+  </si>
+  <si>
+    <t>SSCAMR00250</t>
+  </si>
+  <si>
+    <t>SSCAMR00251</t>
+  </si>
+  <si>
+    <t>SSCAMR00252</t>
+  </si>
+  <si>
+    <t>SSCAMR00253</t>
+  </si>
+  <si>
+    <t>SSCAMR00254</t>
+  </si>
+  <si>
+    <t>SSCAMR00255</t>
+  </si>
+  <si>
+    <t>SSCAMR00256</t>
+  </si>
+  <si>
+    <t>SSCAMR00257</t>
+  </si>
+  <si>
+    <t>SSCAMR00258</t>
+  </si>
+  <si>
+    <t>SSCAMR00259</t>
+  </si>
+  <si>
+    <t>SSCAMR00260</t>
+  </si>
+  <si>
+    <t>SSCAMR00261</t>
+  </si>
+  <si>
+    <t>SSCAMR00262</t>
+  </si>
+  <si>
+    <t>SSCAMR00263</t>
+  </si>
+  <si>
+    <t>SSCAMR00264</t>
+  </si>
+  <si>
+    <t>SSCAMR00265</t>
+  </si>
+  <si>
+    <t>SSCAMR00266</t>
+  </si>
+  <si>
+    <t>SSCAMR00267</t>
+  </si>
+  <si>
+    <t>SSCAMR00268</t>
+  </si>
+  <si>
+    <t>SSCAMR00269</t>
+  </si>
+  <si>
+    <t>SSCAMR00270</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,8 +1479,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1343,11 +1509,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1355,6 +1534,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1772,7 +1954,7 @@
         <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="D2">
         <v>20210531</v>
@@ -1793,7 +1975,7 @@
         <v>20210603</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1804,7 +1986,7 @@
         <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="D3">
         <v>20210531</v>
@@ -1825,7 +2007,7 @@
         <v>20210603</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1836,7 +2018,7 @@
         <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="D4">
         <v>20210531</v>
@@ -1857,7 +2039,7 @@
         <v>20210603</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1868,7 +2050,7 @@
         <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="D5">
         <v>20210531</v>
@@ -1889,7 +2071,7 @@
         <v>20210604</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1900,7 +2082,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="D6">
         <v>20210531</v>
@@ -1921,7 +2103,7 @@
         <v>20210603</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1932,7 +2114,7 @@
         <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="D7">
         <v>20210531</v>
@@ -1953,7 +2135,7 @@
         <v>20210604</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1964,7 +2146,7 @@
         <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="D8">
         <v>20210531</v>
@@ -1985,7 +2167,7 @@
         <v>20210604</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1996,7 +2178,7 @@
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="D9">
         <v>20210531</v>
@@ -2017,7 +2199,7 @@
         <v>20210603</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2028,7 +2210,7 @@
         <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="D10">
         <v>20210531</v>
@@ -2049,7 +2231,7 @@
         <v>20210603</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2060,7 +2242,7 @@
         <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="D11">
         <v>20210531</v>
@@ -2081,7 +2263,7 @@
         <v>20210605</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2092,7 +2274,7 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="D12">
         <v>20210531</v>
@@ -2113,7 +2295,7 @@
         <v>20210604</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2124,7 +2306,7 @@
         <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="D13">
         <v>20210531</v>
@@ -2145,7 +2327,7 @@
         <v>20210604</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2156,7 +2338,7 @@
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="D14">
         <v>20210531</v>
@@ -2177,7 +2359,7 @@
         <v>20210604</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2188,7 +2370,7 @@
         <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="D15">
         <v>20210531</v>
@@ -2209,7 +2391,7 @@
         <v>20210604</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2220,7 +2402,7 @@
         <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="D16">
         <v>20210531</v>
@@ -2241,7 +2423,7 @@
         <v>20210603</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2252,7 +2434,7 @@
         <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="D17">
         <v>20210531</v>
@@ -2273,7 +2455,7 @@
         <v>20210603</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2284,7 +2466,7 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="D18">
         <v>20210531</v>
@@ -2305,7 +2487,7 @@
         <v>20210604</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2316,7 +2498,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="D19">
         <v>20210531</v>
@@ -2337,7 +2519,7 @@
         <v>20210604</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2348,7 +2530,7 @@
         <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="D20">
         <v>20210602</v>
@@ -2369,7 +2551,7 @@
         <v>20210605</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2380,7 +2562,7 @@
         <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="D21">
         <v>20210602</v>
@@ -2401,7 +2583,7 @@
         <v>20210605</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2412,7 +2594,7 @@
         <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="D22">
         <v>20210602</v>
@@ -2433,7 +2615,7 @@
         <v>20210605</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2444,7 +2626,7 @@
         <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="D23">
         <v>20210602</v>
@@ -2465,7 +2647,7 @@
         <v>20210605</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2476,7 +2658,7 @@
         <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="D24">
         <v>20210602</v>
@@ -2497,7 +2679,7 @@
         <v>20210605</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2508,7 +2690,7 @@
         <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="D25">
         <v>20210602</v>
@@ -2529,7 +2711,7 @@
         <v>20210605</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2540,7 +2722,7 @@
         <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="D26">
         <v>20210602</v>
@@ -2561,7 +2743,7 @@
         <v>20210605</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2572,7 +2754,7 @@
         <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="D27">
         <v>20210602</v>
@@ -2593,7 +2775,7 @@
         <v>20210605</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2604,7 +2786,7 @@
         <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="D28">
         <v>20210602</v>
@@ -2625,7 +2807,7 @@
         <v>20210605</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2636,7 +2818,7 @@
         <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="D29">
         <v>20210602</v>
@@ -2657,7 +2839,7 @@
         <v>20210605</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2668,7 +2850,7 @@
         <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D30">
         <v>20210602</v>
@@ -2689,7 +2871,7 @@
         <v>20210605</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2700,7 +2882,7 @@
         <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D31">
         <v>20210602</v>
@@ -2721,7 +2903,7 @@
         <v>20210605</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2732,7 +2914,7 @@
         <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="D32">
         <v>20210602</v>
@@ -2753,7 +2935,7 @@
         <v>20210605</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2764,7 +2946,7 @@
         <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="D33">
         <v>20210602</v>
@@ -2785,7 +2967,7 @@
         <v>20210605</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2796,7 +2978,7 @@
         <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="D34">
         <v>20210602</v>
@@ -2817,7 +2999,7 @@
         <v>20210605</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2828,7 +3010,7 @@
         <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="D35">
         <v>20210602</v>
@@ -2849,7 +3031,7 @@
         <v>20210605</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2860,7 +3042,7 @@
         <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="D36">
         <v>20210602</v>
@@ -2881,7 +3063,7 @@
         <v>20210605</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2892,7 +3074,7 @@
         <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="D37">
         <v>20210602</v>
@@ -2913,7 +3095,7 @@
         <v>20210605</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2924,7 +3106,7 @@
         <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="D38">
         <v>20210604</v>
@@ -2945,7 +3127,7 @@
         <v>20210606</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2956,7 +3138,7 @@
         <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="D39">
         <v>20210604</v>
@@ -2977,7 +3159,7 @@
         <v>20210606</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2988,7 +3170,7 @@
         <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="D40">
         <v>20210604</v>
@@ -3009,7 +3191,7 @@
         <v>20210606</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3020,7 +3202,7 @@
         <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="D41">
         <v>20210604</v>
@@ -3041,7 +3223,7 @@
         <v>20210606</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3052,7 +3234,7 @@
         <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="D42">
         <v>20210604</v>
@@ -3073,7 +3255,7 @@
         <v>20210606</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -3084,7 +3266,7 @@
         <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="D43">
         <v>20210604</v>
@@ -3105,7 +3287,7 @@
         <v>20210606</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -3116,7 +3298,7 @@
         <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="D44">
         <v>20210604</v>
@@ -3137,7 +3319,7 @@
         <v>20210606</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -3148,7 +3330,7 @@
         <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="D45">
         <v>20210604</v>
@@ -3169,7 +3351,7 @@
         <v>20210606</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3180,7 +3362,7 @@
         <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D46">
         <v>20210604</v>
@@ -3201,7 +3383,7 @@
         <v>20210606</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3212,7 +3394,7 @@
         <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="D47">
         <v>20210604</v>
@@ -3233,7 +3415,7 @@
         <v>20210606</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3244,7 +3426,7 @@
         <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="D48">
         <v>20210604</v>
@@ -3265,7 +3447,7 @@
         <v>20210607</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3276,7 +3458,7 @@
         <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="D49">
         <v>20210604</v>
@@ -3297,7 +3479,7 @@
         <v>20210607</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3308,7 +3490,7 @@
         <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="D50">
         <v>20210604</v>
@@ -3329,7 +3511,7 @@
         <v>20210607</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3340,7 +3522,7 @@
         <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="D51">
         <v>20210604</v>
@@ -3361,7 +3543,7 @@
         <v>20210606</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3372,7 +3554,7 @@
         <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="D52">
         <v>20210604</v>
@@ -3393,7 +3575,7 @@
         <v>20210607</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3404,7 +3586,7 @@
         <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="D53">
         <v>20210604</v>
@@ -3425,7 +3607,7 @@
         <v>20210607</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3436,7 +3618,7 @@
         <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="D54">
         <v>20210604</v>
@@ -3457,7 +3639,7 @@
         <v>20210607</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3468,7 +3650,7 @@
         <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="D55">
         <v>20210604</v>
@@ -3489,7 +3671,7 @@
         <v>20210606</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3503,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3534,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -3581,7 +3763,7 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="D2">
         <v>20210607</v>
@@ -3606,7 +3788,7 @@
         <v>20210608</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3617,7 +3799,7 @@
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="D3">
         <v>20210607</v>
@@ -3642,7 +3824,7 @@
         <v>20210608</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3653,7 +3835,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="D4">
         <v>20210607</v>
@@ -3678,7 +3860,7 @@
         <v>20210608</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3689,7 +3871,7 @@
         <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="D5">
         <v>20210607</v>
@@ -3714,7 +3896,7 @@
         <v>20210608</v>
       </c>
       <c r="K5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3725,7 +3907,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="D6">
         <v>20210607</v>
@@ -3750,7 +3932,7 @@
         <v>20210608</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3761,7 +3943,7 @@
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="D7">
         <v>20210607</v>
@@ -3786,7 +3968,7 @@
         <v>20210608</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3797,7 +3979,7 @@
         <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="D8">
         <v>20210607</v>
@@ -3822,7 +4004,7 @@
         <v>20210608</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3833,7 +4015,7 @@
         <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="D9">
         <v>20210607</v>
@@ -3858,7 +4040,7 @@
         <v>20210608</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3869,7 +4051,7 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="D10">
         <v>20210607</v>
@@ -3894,7 +4076,7 @@
         <v>20210608</v>
       </c>
       <c r="K10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3905,7 +4087,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="D11">
         <v>20210607</v>
@@ -3930,7 +4112,7 @@
         <v>20210608</v>
       </c>
       <c r="K11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3941,7 +4123,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="D12">
         <v>20210607</v>
@@ -3966,7 +4148,7 @@
         <v>20210608</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3977,7 +4159,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="D13">
         <v>20210607</v>
@@ -4002,7 +4184,7 @@
         <v>20210608</v>
       </c>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4013,7 +4195,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="D14">
         <v>20210607</v>
@@ -4038,7 +4220,7 @@
         <v>20210608</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4049,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="D15">
         <v>20210607</v>
@@ -4074,7 +4256,7 @@
         <v>20210608</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4085,7 +4267,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="D16">
         <v>20210607</v>
@@ -4110,7 +4292,7 @@
         <v>20210608</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4121,7 +4303,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="D17">
         <v>20210607</v>
@@ -4146,7 +4328,7 @@
         <v>20210608</v>
       </c>
       <c r="K17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4157,7 +4339,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="D18">
         <v>20210607</v>
@@ -4182,7 +4364,7 @@
         <v>20210608</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4193,7 +4375,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="D19">
         <v>20210607</v>
@@ -4205,7 +4387,7 @@
         <v>1000</v>
       </c>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H19">
         <v>802</v>
@@ -4218,7 +4400,7 @@
         <v>20210608</v>
       </c>
       <c r="K19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4229,7 +4411,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="D20">
         <v>20210609</v>
@@ -4254,7 +4436,7 @@
         <v>20210609</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4265,7 +4447,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="D21">
         <v>20210609</v>
@@ -4290,7 +4472,7 @@
         <v>20210609</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4301,7 +4483,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="D22">
         <v>20210609</v>
@@ -4326,7 +4508,7 @@
         <v>20210609</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4337,7 +4519,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="D23">
         <v>20210609</v>
@@ -4362,7 +4544,7 @@
         <v>20210609</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4373,7 +4555,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="D24">
         <v>20210609</v>
@@ -4398,7 +4580,7 @@
         <v>20210609</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4409,7 +4591,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="D25">
         <v>20210609</v>
@@ -4434,7 +4616,7 @@
         <v>20210609</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -4445,7 +4627,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="D26">
         <v>20210609</v>
@@ -4470,7 +4652,7 @@
         <v>20210609</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4481,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="D27">
         <v>20210609</v>
@@ -4506,7 +4688,7 @@
         <v>20210609</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4517,7 +4699,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="D28">
         <v>20210609</v>
@@ -4542,7 +4724,7 @@
         <v>20210609</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4553,7 +4735,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="D29">
         <v>20210609</v>
@@ -4578,7 +4760,7 @@
         <v>20210609</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4589,7 +4771,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D30">
         <v>20210609</v>
@@ -4614,7 +4796,7 @@
         <v>20210609</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4625,7 +4807,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D31">
         <v>20210609</v>
@@ -4650,7 +4832,7 @@
         <v>20210609</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4661,7 +4843,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="D32">
         <v>20210609</v>
@@ -4686,7 +4868,7 @@
         <v>20210609</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -4697,7 +4879,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="D33">
         <v>20210609</v>
@@ -4722,7 +4904,7 @@
         <v>20210609</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -4733,7 +4915,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="D34">
         <v>20210609</v>
@@ -4758,7 +4940,7 @@
         <v>20210609</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4769,7 +4951,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="D35">
         <v>20210609</v>
@@ -4794,7 +4976,7 @@
         <v>20210609</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4805,7 +4987,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="D36">
         <v>20210609</v>
@@ -4830,7 +5012,7 @@
         <v>20210609</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4841,7 +5023,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="D37">
         <v>20210609</v>
@@ -4866,7 +5048,7 @@
         <v>20210609</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4877,7 +5059,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="D38">
         <v>20210611</v>
@@ -4902,7 +5084,7 @@
         <v>20210611</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4913,7 +5095,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="D39">
         <v>20210611</v>
@@ -4938,7 +5120,7 @@
         <v>20210611</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4949,7 +5131,7 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="D40">
         <v>20210611</v>
@@ -4974,7 +5156,7 @@
         <v>20210611</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -4985,7 +5167,7 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="D41">
         <v>20210611</v>
@@ -5010,7 +5192,7 @@
         <v>20210611</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -5021,7 +5203,7 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="D42">
         <v>20210611</v>
@@ -5046,7 +5228,7 @@
         <v>20210611</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -5057,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="D43">
         <v>20210611</v>
@@ -5082,7 +5264,7 @@
         <v>20210611</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -5093,7 +5275,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="D44">
         <v>20210611</v>
@@ -5118,7 +5300,7 @@
         <v>20210611</v>
       </c>
       <c r="K44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -5129,7 +5311,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="D45">
         <v>20210611</v>
@@ -5154,7 +5336,7 @@
         <v>20210611</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -5165,7 +5347,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D46">
         <v>20210611</v>
@@ -5190,7 +5372,7 @@
         <v>20210611</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -5201,7 +5383,7 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="D47">
         <v>20210611</v>
@@ -5226,7 +5408,7 @@
         <v>20210611</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -5237,7 +5419,7 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="D48">
         <v>20210611</v>
@@ -5262,7 +5444,7 @@
         <v>20210611</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5273,7 +5455,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="D49">
         <v>20210611</v>
@@ -5298,7 +5480,7 @@
         <v>20210611</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5309,7 +5491,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="D50">
         <v>20210611</v>
@@ -5334,7 +5516,7 @@
         <v>20210611</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -5345,7 +5527,7 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="D51">
         <v>20210611</v>
@@ -5370,7 +5552,7 @@
         <v>20210611</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -5381,7 +5563,7 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="D52">
         <v>20210611</v>
@@ -5406,7 +5588,7 @@
         <v>20210611</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5417,7 +5599,7 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="D53">
         <v>20210611</v>
@@ -5442,7 +5624,7 @@
         <v>20210611</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -5453,7 +5635,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="D54">
         <v>20210611</v>
@@ -5478,7 +5660,7 @@
         <v>20210611</v>
       </c>
       <c r="K54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -5489,7 +5671,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="D55">
         <v>20210611</v>
@@ -5514,7 +5696,7 @@
         <v>20210611</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5528,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7CF24D-EF41-5241-906E-DAD6D3AC4CE4}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5559,13 +5741,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -5600,13 +5782,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
         <v>286</v>
-      </c>
-      <c r="C2" t="s">
-        <v>341</v>
       </c>
       <c r="D2">
         <v>20210614</v>
@@ -5631,18 +5813,18 @@
         <v>20210614</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
         <v>287</v>
-      </c>
-      <c r="C3" t="s">
-        <v>342</v>
       </c>
       <c r="D3">
         <v>20210614</v>
@@ -5667,18 +5849,18 @@
         <v>20210614</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" t="s">
         <v>288</v>
-      </c>
-      <c r="C4" t="s">
-        <v>343</v>
       </c>
       <c r="D4">
         <v>20210614</v>
@@ -5703,18 +5885,18 @@
         <v>20210614</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" t="s">
-        <v>344</v>
       </c>
       <c r="D5">
         <v>20210614</v>
@@ -5739,18 +5921,18 @@
         <v>20210614</v>
       </c>
       <c r="K5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
         <v>290</v>
-      </c>
-      <c r="C6" t="s">
-        <v>345</v>
       </c>
       <c r="D6">
         <v>20210614</v>
@@ -5775,18 +5957,18 @@
         <v>20210614</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" t="s">
         <v>291</v>
-      </c>
-      <c r="C7" t="s">
-        <v>346</v>
       </c>
       <c r="D7">
         <v>20210614</v>
@@ -5811,18 +5993,18 @@
         <v>20210614</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" t="s">
-        <v>347</v>
       </c>
       <c r="D8">
         <v>20210614</v>
@@ -5847,18 +6029,18 @@
         <v>20210614</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
         <v>293</v>
-      </c>
-      <c r="C9" t="s">
-        <v>348</v>
       </c>
       <c r="D9">
         <v>20210614</v>
@@ -5883,18 +6065,18 @@
         <v>20210614</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
         <v>294</v>
-      </c>
-      <c r="C10" t="s">
-        <v>349</v>
       </c>
       <c r="D10">
         <v>20210614</v>
@@ -5919,18 +6101,18 @@
         <v>20210614</v>
       </c>
       <c r="K10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
         <v>295</v>
-      </c>
-      <c r="C11" t="s">
-        <v>350</v>
       </c>
       <c r="D11">
         <v>20210614</v>
@@ -5955,18 +6137,18 @@
         <v>20210614</v>
       </c>
       <c r="K11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
         <v>296</v>
-      </c>
-      <c r="C12" t="s">
-        <v>351</v>
       </c>
       <c r="D12">
         <v>20210614</v>
@@ -5991,18 +6173,18 @@
         <v>20210614</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" t="s">
         <v>297</v>
-      </c>
-      <c r="C13" t="s">
-        <v>352</v>
       </c>
       <c r="D13">
         <v>20210614</v>
@@ -6027,18 +6209,18 @@
         <v>20210614</v>
       </c>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
         <v>298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>353</v>
       </c>
       <c r="D14">
         <v>20210614</v>
@@ -6063,18 +6245,18 @@
         <v>20210614</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" t="s">
         <v>299</v>
-      </c>
-      <c r="C15" t="s">
-        <v>354</v>
       </c>
       <c r="D15">
         <v>20210614</v>
@@ -6099,18 +6281,18 @@
         <v>20210614</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
         <v>300</v>
-      </c>
-      <c r="C16" t="s">
-        <v>355</v>
       </c>
       <c r="D16">
         <v>20210614</v>
@@ -6135,18 +6317,18 @@
         <v>20210614</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" t="s">
         <v>301</v>
-      </c>
-      <c r="C17" t="s">
-        <v>356</v>
       </c>
       <c r="D17">
         <v>20210614</v>
@@ -6171,18 +6353,18 @@
         <v>20210614</v>
       </c>
       <c r="K17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" t="s">
         <v>302</v>
-      </c>
-      <c r="C18" t="s">
-        <v>357</v>
       </c>
       <c r="D18">
         <v>20210614</v>
@@ -6207,18 +6389,18 @@
         <v>20210614</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
         <v>303</v>
-      </c>
-      <c r="C19" t="s">
-        <v>358</v>
       </c>
       <c r="D19">
         <v>20210614</v>
@@ -6243,18 +6425,18 @@
         <v>20210614</v>
       </c>
       <c r="K19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" t="s">
         <v>304</v>
-      </c>
-      <c r="C20" t="s">
-        <v>359</v>
       </c>
       <c r="D20">
         <v>20210616</v>
@@ -6279,18 +6461,18 @@
         <v>20210616</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" t="s">
         <v>305</v>
-      </c>
-      <c r="C21" t="s">
-        <v>360</v>
       </c>
       <c r="D21">
         <v>20210616</v>
@@ -6315,18 +6497,18 @@
         <v>20210616</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" t="s">
         <v>306</v>
-      </c>
-      <c r="C22" t="s">
-        <v>361</v>
       </c>
       <c r="D22">
         <v>20210616</v>
@@ -6351,18 +6533,18 @@
         <v>20210616</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" t="s">
         <v>307</v>
-      </c>
-      <c r="C23" t="s">
-        <v>362</v>
       </c>
       <c r="D23">
         <v>20210616</v>
@@ -6387,18 +6569,18 @@
         <v>20210616</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
         <v>308</v>
-      </c>
-      <c r="C24" t="s">
-        <v>363</v>
       </c>
       <c r="D24">
         <v>20210616</v>
@@ -6423,18 +6605,18 @@
         <v>20210616</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
         <v>309</v>
-      </c>
-      <c r="C25" t="s">
-        <v>364</v>
       </c>
       <c r="D25">
         <v>20210616</v>
@@ -6459,18 +6641,18 @@
         <v>20210616</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" t="s">
         <v>310</v>
-      </c>
-      <c r="C26" t="s">
-        <v>365</v>
       </c>
       <c r="D26">
         <v>20210616</v>
@@ -6495,18 +6677,18 @@
         <v>20210616</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" t="s">
         <v>311</v>
-      </c>
-      <c r="C27" t="s">
-        <v>366</v>
       </c>
       <c r="D27">
         <v>20210616</v>
@@ -6531,18 +6713,18 @@
         <v>20210616</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" t="s">
         <v>312</v>
-      </c>
-      <c r="C28" t="s">
-        <v>367</v>
       </c>
       <c r="D28">
         <v>20210616</v>
@@ -6567,18 +6749,18 @@
         <v>20210616</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" t="s">
         <v>313</v>
-      </c>
-      <c r="C29" t="s">
-        <v>368</v>
       </c>
       <c r="D29">
         <v>20210616</v>
@@ -6603,18 +6785,18 @@
         <v>20210616</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" t="s">
         <v>314</v>
-      </c>
-      <c r="C30" t="s">
-        <v>369</v>
       </c>
       <c r="D30">
         <v>20210616</v>
@@ -6639,18 +6821,18 @@
         <v>20210616</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" t="s">
         <v>315</v>
-      </c>
-      <c r="C31" t="s">
-        <v>370</v>
       </c>
       <c r="D31">
         <v>20210616</v>
@@ -6675,18 +6857,18 @@
         <v>20210616</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" t="s">
         <v>316</v>
-      </c>
-      <c r="C32" t="s">
-        <v>371</v>
       </c>
       <c r="D32">
         <v>20210616</v>
@@ -6711,18 +6893,18 @@
         <v>20210616</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" t="s">
         <v>317</v>
-      </c>
-      <c r="C33" t="s">
-        <v>372</v>
       </c>
       <c r="D33">
         <v>20210616</v>
@@ -6747,18 +6929,18 @@
         <v>20210616</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" t="s">
         <v>318</v>
-      </c>
-      <c r="C34" t="s">
-        <v>373</v>
       </c>
       <c r="D34">
         <v>20210616</v>
@@ -6783,18 +6965,18 @@
         <v>20210616</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" t="s">
         <v>319</v>
-      </c>
-      <c r="C35" t="s">
-        <v>374</v>
       </c>
       <c r="D35">
         <v>20210616</v>
@@ -6819,18 +7001,18 @@
         <v>20210616</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" t="s">
         <v>320</v>
-      </c>
-      <c r="C36" t="s">
-        <v>375</v>
       </c>
       <c r="D36">
         <v>20210616</v>
@@ -6855,18 +7037,18 @@
         <v>20210616</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" t="s">
         <v>321</v>
-      </c>
-      <c r="C37" t="s">
-        <v>376</v>
       </c>
       <c r="D37">
         <v>20210616</v>
@@ -6891,18 +7073,18 @@
         <v>20210616</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" t="s">
         <v>322</v>
-      </c>
-      <c r="C38" t="s">
-        <v>377</v>
       </c>
       <c r="D38">
         <v>20210618</v>
@@ -6916,23 +7098,29 @@
       <c r="G38">
         <v>88</v>
       </c>
+      <c r="H38">
+        <v>848</v>
+      </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>760</v>
+      </c>
+      <c r="J38">
+        <v>20210618</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
         <v>323</v>
-      </c>
-      <c r="C39" t="s">
-        <v>378</v>
       </c>
       <c r="D39">
         <v>20210618</v>
@@ -6946,23 +7134,29 @@
       <c r="G39">
         <v>105</v>
       </c>
+      <c r="H39">
+        <v>820</v>
+      </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>-105</v>
+        <v>715</v>
+      </c>
+      <c r="J39">
+        <v>20210618</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" t="s">
         <v>324</v>
-      </c>
-      <c r="C40" t="s">
-        <v>379</v>
       </c>
       <c r="D40">
         <v>20210618</v>
@@ -6976,23 +7170,29 @@
       <c r="G40">
         <v>88</v>
       </c>
+      <c r="H40">
+        <v>884</v>
+      </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>796</v>
+      </c>
+      <c r="J40">
+        <v>20210618</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" t="s">
         <v>325</v>
-      </c>
-      <c r="C41" t="s">
-        <v>380</v>
       </c>
       <c r="D41">
         <v>20210618</v>
@@ -7006,23 +7206,29 @@
       <c r="G41">
         <v>88</v>
       </c>
+      <c r="H41">
+        <v>750</v>
+      </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>662</v>
+      </c>
+      <c r="J41">
+        <v>20210618</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" t="s">
         <v>326</v>
-      </c>
-      <c r="C42" t="s">
-        <v>381</v>
       </c>
       <c r="D42">
         <v>20210618</v>
@@ -7036,23 +7242,29 @@
       <c r="G42">
         <v>89</v>
       </c>
+      <c r="H42">
+        <v>841</v>
+      </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>752</v>
+      </c>
+      <c r="J42">
+        <v>20210618</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" t="s">
         <v>327</v>
-      </c>
-      <c r="C43" t="s">
-        <v>382</v>
       </c>
       <c r="D43">
         <v>20210618</v>
@@ -7066,23 +7278,29 @@
       <c r="G43">
         <v>88</v>
       </c>
+      <c r="H43">
+        <v>802</v>
+      </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>714</v>
+      </c>
+      <c r="J43">
+        <v>20210618</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" t="s">
         <v>328</v>
-      </c>
-      <c r="C44" t="s">
-        <v>383</v>
       </c>
       <c r="D44">
         <v>20210618</v>
@@ -7096,23 +7314,29 @@
       <c r="G44">
         <v>89</v>
       </c>
+      <c r="H44">
+        <v>824</v>
+      </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>735</v>
+      </c>
+      <c r="J44">
+        <v>20210618</v>
       </c>
       <c r="K44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" t="s">
         <v>329</v>
-      </c>
-      <c r="C45" t="s">
-        <v>384</v>
       </c>
       <c r="D45">
         <v>20210618</v>
@@ -7126,23 +7350,29 @@
       <c r="G45">
         <v>88</v>
       </c>
+      <c r="H45">
+        <v>802</v>
+      </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>714</v>
+      </c>
+      <c r="J45">
+        <v>20210618</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" t="s">
         <v>330</v>
-      </c>
-      <c r="C46" t="s">
-        <v>385</v>
       </c>
       <c r="D46">
         <v>20210618</v>
@@ -7156,23 +7386,29 @@
       <c r="G46">
         <v>89</v>
       </c>
+      <c r="H46">
+        <v>778</v>
+      </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>689</v>
+      </c>
+      <c r="J46">
+        <v>20210618</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" t="s">
         <v>331</v>
-      </c>
-      <c r="C47" t="s">
-        <v>386</v>
       </c>
       <c r="D47">
         <v>20210618</v>
@@ -7186,23 +7422,29 @@
       <c r="G47">
         <v>88</v>
       </c>
+      <c r="H47">
+        <v>824</v>
+      </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>736</v>
+      </c>
+      <c r="J47">
+        <v>20210618</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" t="s">
         <v>332</v>
-      </c>
-      <c r="C48" t="s">
-        <v>387</v>
       </c>
       <c r="D48">
         <v>20210618</v>
@@ -7216,23 +7458,29 @@
       <c r="G48">
         <v>89</v>
       </c>
+      <c r="H48">
+        <v>830</v>
+      </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>741</v>
+      </c>
+      <c r="J48">
+        <v>20210618</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" t="s">
         <v>333</v>
-      </c>
-      <c r="C49" t="s">
-        <v>388</v>
       </c>
       <c r="D49">
         <v>20210618</v>
@@ -7246,23 +7494,29 @@
       <c r="G49">
         <v>88</v>
       </c>
+      <c r="H49">
+        <v>777</v>
+      </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>689</v>
+      </c>
+      <c r="J49">
+        <v>20210618</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" t="s">
         <v>334</v>
-      </c>
-      <c r="C50" t="s">
-        <v>389</v>
       </c>
       <c r="D50">
         <v>20210618</v>
@@ -7276,23 +7530,29 @@
       <c r="G50">
         <v>89</v>
       </c>
+      <c r="H50">
+        <v>819</v>
+      </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>730</v>
+      </c>
+      <c r="J50">
+        <v>20210618</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" t="s">
         <v>335</v>
-      </c>
-      <c r="C51" t="s">
-        <v>390</v>
       </c>
       <c r="D51">
         <v>20210618</v>
@@ -7306,23 +7566,29 @@
       <c r="G51">
         <v>89</v>
       </c>
+      <c r="H51">
+        <v>847</v>
+      </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>758</v>
+      </c>
+      <c r="J51">
+        <v>20210618</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" t="s">
         <v>336</v>
-      </c>
-      <c r="C52" t="s">
-        <v>391</v>
       </c>
       <c r="D52">
         <v>20210618</v>
@@ -7336,23 +7602,29 @@
       <c r="G52">
         <v>87</v>
       </c>
+      <c r="H52">
+        <v>882</v>
+      </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>-87</v>
+        <v>795</v>
+      </c>
+      <c r="J52">
+        <v>20210618</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" t="s">
         <v>337</v>
-      </c>
-      <c r="C53" t="s">
-        <v>392</v>
       </c>
       <c r="D53">
         <v>20210618</v>
@@ -7366,23 +7638,29 @@
       <c r="G53">
         <v>88</v>
       </c>
+      <c r="H53">
+        <v>801</v>
+      </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>713</v>
+      </c>
+      <c r="J53">
+        <v>20210618</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" t="s">
         <v>338</v>
-      </c>
-      <c r="C54" t="s">
-        <v>393</v>
       </c>
       <c r="D54">
         <v>20210618</v>
@@ -7396,23 +7674,29 @@
       <c r="G54">
         <v>91</v>
       </c>
+      <c r="H54">
+        <v>903</v>
+      </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>-91</v>
+        <v>812</v>
+      </c>
+      <c r="J54">
+        <v>20210618</v>
       </c>
       <c r="K54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" t="s">
         <v>339</v>
-      </c>
-      <c r="C55" t="s">
-        <v>394</v>
       </c>
       <c r="D55">
         <v>20210618</v>
@@ -7426,12 +7710,18 @@
       <c r="G55">
         <v>90</v>
       </c>
+      <c r="H55">
+        <v>862</v>
+      </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>772</v>
+      </c>
+      <c r="J55">
+        <v>20210618</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7439,4 +7729,1834 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C630F-CED0-3C49-9F7A-3D77E458B865}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2">
+        <v>907</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2-G2</f>
+        <v>818</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2">
+        <v>834</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I19" si="0">H3-G3</f>
+        <v>745</v>
+      </c>
+      <c r="J3" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2">
+        <v>865</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+      <c r="J4" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2">
+        <v>866</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2">
+        <v>843</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+      <c r="J6" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2">
+        <v>781</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2">
+        <v>882</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>793</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2">
+        <v>834</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>745</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2">
+        <v>905</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>816</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2">
+        <v>831</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>743</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2">
+        <v>934</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>844</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2">
+        <v>847</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2">
+        <v>908</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>803</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2">
+        <v>830</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2">
+        <v>890</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>802</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2">
+        <v>808</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>719</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2">
+        <v>891</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+      <c r="J18" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2">
+        <v>827</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20210621</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>4</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>4</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>4</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA9B137-6106-724A-B99E-A9F796B98C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679771F-215A-814A-AA54-127BD4F8FBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1483,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1526,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1537,6 +1543,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7736,7 +7743,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7857,7 +7864,7 @@
         <v>834</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I19" si="0">H3-G3</f>
+        <f t="shared" ref="I3:I55" si="0">H3-G3</f>
         <v>745</v>
       </c>
       <c r="J3" s="2">
@@ -8521,17 +8528,28 @@
       <c r="C20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E20" s="2">
         <v>4</v>
       </c>
       <c r="F20" s="7">
         <v>1000</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="G20" s="8">
+        <v>100</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>230</v>
       </c>
@@ -8550,17 +8568,28 @@
       <c r="C21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E21" s="2">
         <v>4</v>
       </c>
       <c r="F21" s="7">
         <v>1000</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="G21" s="8">
+        <v>100</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>230</v>
       </c>
@@ -8579,17 +8608,28 @@
       <c r="C22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E22" s="2">
         <v>4</v>
       </c>
       <c r="F22" s="7">
         <v>1000</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="G22" s="8">
+        <v>100</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>230</v>
       </c>
@@ -8608,17 +8648,28 @@
       <c r="C23" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="7">
         <v>1000</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="8">
+        <v>100</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>230</v>
       </c>
@@ -8637,17 +8688,28 @@
       <c r="C24" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="7">
         <v>1000</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="8">
+        <v>100</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>230</v>
       </c>
@@ -8666,17 +8728,28 @@
       <c r="C25" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="7">
         <v>1000</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="8">
+        <v>100</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J25" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>230</v>
       </c>
@@ -8695,17 +8768,28 @@
       <c r="C26" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E26" s="2">
         <v>4</v>
       </c>
       <c r="F26" s="7">
         <v>1000</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="G26" s="8">
+        <v>100</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J26" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>230</v>
       </c>
@@ -8724,17 +8808,28 @@
       <c r="C27" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="7">
         <v>1000</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="G27" s="8">
+        <v>100</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J27" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>230</v>
       </c>
@@ -8753,17 +8848,28 @@
       <c r="C28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
       <c r="F28" s="7">
         <v>1000</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="8">
+        <v>100</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>230</v>
       </c>
@@ -8782,17 +8888,28 @@
       <c r="C29" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" s="7">
         <v>1000</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="G29" s="8">
+        <v>100</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J29" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>230</v>
       </c>
@@ -8811,17 +8928,28 @@
       <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E30" s="2">
         <v>4</v>
       </c>
       <c r="F30" s="7">
         <v>1000</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="G30" s="8">
+        <v>100</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J30" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>230</v>
       </c>
@@ -8840,17 +8968,28 @@
       <c r="C31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
       <c r="F31" s="7">
         <v>1000</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J31" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K31" s="2" t="s">
         <v>230</v>
       </c>
@@ -8869,17 +9008,28 @@
       <c r="C32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E32" s="2">
         <v>4</v>
       </c>
       <c r="F32" s="7">
         <v>1000</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="G32" s="8">
+        <v>100</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J32" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>230</v>
       </c>
@@ -8898,17 +9048,28 @@
       <c r="C33" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E33" s="2">
         <v>4</v>
       </c>
       <c r="F33" s="7">
         <v>1000</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="G33" s="8">
+        <v>100</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J33" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K33" s="2" t="s">
         <v>230</v>
       </c>
@@ -8927,17 +9088,28 @@
       <c r="C34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E34" s="2">
         <v>4</v>
       </c>
       <c r="F34" s="7">
         <v>1000</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="G34" s="8">
+        <v>100</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J34" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>230</v>
       </c>
@@ -8956,17 +9128,28 @@
       <c r="C35" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E35" s="2">
         <v>4</v>
       </c>
       <c r="F35" s="7">
         <v>1000</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="G35" s="8">
+        <v>100</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J35" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>230</v>
       </c>
@@ -8985,17 +9168,28 @@
       <c r="C36" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E36" s="2">
         <v>4</v>
       </c>
       <c r="F36" s="7">
         <v>1000</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="G36" s="8">
+        <v>100</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J36" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>230</v>
       </c>
@@ -9014,17 +9208,28 @@
       <c r="C37" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>20210622</v>
+      </c>
       <c r="E37" s="2">
         <v>4</v>
       </c>
       <c r="F37" s="7">
         <v>1000</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="G37" s="8">
+        <v>100</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J37" s="2">
+        <v>20210622</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>230</v>
       </c>
@@ -9043,17 +9248,28 @@
       <c r="C38" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E38" s="2">
         <v>4</v>
       </c>
       <c r="F38" s="7">
         <v>1000</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="G38" s="8">
+        <v>100</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J38" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K38" s="2" t="s">
         <v>230</v>
       </c>
@@ -9072,17 +9288,28 @@
       <c r="C39" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E39" s="2">
         <v>4</v>
       </c>
       <c r="F39" s="7">
         <v>1000</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="G39" s="8">
+        <v>100</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J39" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K39" s="2" t="s">
         <v>230</v>
       </c>
@@ -9101,17 +9328,28 @@
       <c r="C40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E40" s="2">
         <v>4</v>
       </c>
       <c r="F40" s="7">
         <v>1000</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="G40" s="8">
+        <v>100</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J40" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K40" s="2" t="s">
         <v>230</v>
       </c>
@@ -9130,17 +9368,28 @@
       <c r="C41" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E41" s="2">
         <v>4</v>
       </c>
       <c r="F41" s="7">
         <v>1000</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="G41" s="8">
+        <v>100</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J41" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K41" s="2" t="s">
         <v>230</v>
       </c>
@@ -9159,17 +9408,28 @@
       <c r="C42" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E42" s="2">
         <v>4</v>
       </c>
       <c r="F42" s="7">
         <v>1000</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="G42" s="8">
+        <v>100</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J42" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K42" s="2" t="s">
         <v>230</v>
       </c>
@@ -9188,17 +9448,28 @@
       <c r="C43" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E43" s="2">
         <v>4</v>
       </c>
       <c r="F43" s="7">
         <v>1000</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="G43" s="8">
+        <v>100</v>
+      </c>
+      <c r="H43" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J43" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K43" s="2" t="s">
         <v>230</v>
       </c>
@@ -9217,17 +9488,28 @@
       <c r="C44" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E44" s="2">
         <v>4</v>
       </c>
       <c r="F44" s="7">
         <v>1000</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="G44" s="8">
+        <v>100</v>
+      </c>
+      <c r="H44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J44" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K44" s="2" t="s">
         <v>230</v>
       </c>
@@ -9246,17 +9528,28 @@
       <c r="C45" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E45" s="2">
         <v>4</v>
       </c>
       <c r="F45" s="7">
         <v>1000</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="G45" s="8">
+        <v>100</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J45" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K45" s="2" t="s">
         <v>230</v>
       </c>
@@ -9275,17 +9568,28 @@
       <c r="C46" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E46" s="2">
         <v>4</v>
       </c>
       <c r="F46" s="7">
         <v>1000</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="G46" s="8">
+        <v>100</v>
+      </c>
+      <c r="H46" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J46" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K46" s="2" t="s">
         <v>230</v>
       </c>
@@ -9304,17 +9608,28 @@
       <c r="C47" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E47" s="2">
         <v>4</v>
       </c>
       <c r="F47" s="7">
         <v>1000</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="G47" s="8">
+        <v>100</v>
+      </c>
+      <c r="H47" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J47" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K47" s="2" t="s">
         <v>230</v>
       </c>
@@ -9333,17 +9648,28 @@
       <c r="C48" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E48" s="2">
         <v>4</v>
       </c>
       <c r="F48" s="7">
         <v>1000</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="G48" s="8">
+        <v>100</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J48" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K48" s="2" t="s">
         <v>230</v>
       </c>
@@ -9362,17 +9688,28 @@
       <c r="C49" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E49" s="2">
         <v>4</v>
       </c>
       <c r="F49" s="7">
         <v>1000</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="G49" s="8">
+        <v>100</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J49" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K49" s="2" t="s">
         <v>230</v>
       </c>
@@ -9391,17 +9728,28 @@
       <c r="C50" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E50" s="2">
         <v>4</v>
       </c>
       <c r="F50" s="7">
         <v>1000</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="G50" s="8">
+        <v>100</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J50" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K50" s="2" t="s">
         <v>230</v>
       </c>
@@ -9420,17 +9768,28 @@
       <c r="C51" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E51" s="2">
         <v>4</v>
       </c>
       <c r="F51" s="7">
         <v>1000</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="G51" s="8">
+        <v>100</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J51" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K51" s="2" t="s">
         <v>230</v>
       </c>
@@ -9449,17 +9808,28 @@
       <c r="C52" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E52" s="2">
         <v>4</v>
       </c>
       <c r="F52" s="7">
         <v>1000</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="G52" s="8">
+        <v>100</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J52" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K52" s="2" t="s">
         <v>230</v>
       </c>
@@ -9478,17 +9848,28 @@
       <c r="C53" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E53" s="2">
         <v>4</v>
       </c>
       <c r="F53" s="7">
         <v>1000</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="G53" s="8">
+        <v>100</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J53" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K53" s="2" t="s">
         <v>230</v>
       </c>
@@ -9507,17 +9888,28 @@
       <c r="C54" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E54" s="2">
         <v>4</v>
       </c>
       <c r="F54" s="7">
         <v>1000</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="G54" s="8">
+        <v>100</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J54" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K54" s="2" t="s">
         <v>230</v>
       </c>
@@ -9536,17 +9928,28 @@
       <c r="C55" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>20210624</v>
+      </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="F55" s="7">
         <v>1000</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="G55" s="8">
+        <v>100</v>
+      </c>
+      <c r="H55" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J55" s="2">
+        <v>20210624</v>
+      </c>
       <c r="K55" s="2" t="s">
         <v>230</v>
       </c>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679771F-215A-814A-AA54-127BD4F8FBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE349893-0517-9648-817E-0A6E6082F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="Rainfall 2" sheetId="2" r:id="rId2"/>
     <sheet name="Rainfall 3" sheetId="3" r:id="rId3"/>
     <sheet name="Rainfall 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Rainfall 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Rainfall 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -3692,7 +3694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1978E5-E4E9-6B46-8E5C-BBF3C2484C99}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -5718,7 +5720,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7743,7 +7745,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8529,7 +8531,7 @@
         <v>304</v>
       </c>
       <c r="D20" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E20" s="2">
         <v>4</v>
@@ -8538,17 +8540,17 @@
         <v>1000</v>
       </c>
       <c r="G20" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H20" s="8">
-        <v>1000</v>
+        <v>841</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>735</v>
       </c>
       <c r="J20" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>230</v>
@@ -8569,7 +8571,7 @@
         <v>305</v>
       </c>
       <c r="D21" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E21" s="2">
         <v>4</v>
@@ -8578,17 +8580,17 @@
         <v>1000</v>
       </c>
       <c r="G21" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H21" s="8">
-        <v>1000</v>
+        <v>776</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>687</v>
       </c>
       <c r="J21" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>230</v>
@@ -8609,7 +8611,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
@@ -8618,17 +8620,17 @@
         <v>1000</v>
       </c>
       <c r="G22" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H22" s="8">
-        <v>1000</v>
+        <v>886</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>796</v>
       </c>
       <c r="J22" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>230</v>
@@ -8649,7 +8651,7 @@
         <v>307</v>
       </c>
       <c r="D23" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
@@ -8658,17 +8660,17 @@
         <v>1000</v>
       </c>
       <c r="G23" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H23" s="8">
-        <v>1000</v>
+        <v>852</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>763</v>
       </c>
       <c r="J23" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>230</v>
@@ -8689,7 +8691,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
@@ -8698,17 +8700,17 @@
         <v>1000</v>
       </c>
       <c r="G24" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H24" s="8">
-        <v>1000</v>
+        <v>876</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>787</v>
       </c>
       <c r="J24" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>230</v>
@@ -8729,7 +8731,7 @@
         <v>309</v>
       </c>
       <c r="D25" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
@@ -8738,17 +8740,17 @@
         <v>1000</v>
       </c>
       <c r="G25" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H25" s="8">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>782</v>
       </c>
       <c r="J25" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>230</v>
@@ -8769,7 +8771,7 @@
         <v>310</v>
       </c>
       <c r="D26" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E26" s="2">
         <v>4</v>
@@ -8778,17 +8780,17 @@
         <v>1000</v>
       </c>
       <c r="G26" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H26" s="8">
-        <v>1000</v>
+        <v>836</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>747</v>
       </c>
       <c r="J26" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>230</v>
@@ -8809,7 +8811,7 @@
         <v>311</v>
       </c>
       <c r="D27" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
@@ -8818,17 +8820,17 @@
         <v>1000</v>
       </c>
       <c r="G27" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H27" s="8">
-        <v>1000</v>
+        <v>815</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>727</v>
       </c>
       <c r="J27" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>230</v>
@@ -8849,7 +8851,7 @@
         <v>312</v>
       </c>
       <c r="D28" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
@@ -8858,17 +8860,17 @@
         <v>1000</v>
       </c>
       <c r="G28" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H28" s="8">
-        <v>1000</v>
+        <v>894</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>805</v>
       </c>
       <c r="J28" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>230</v>
@@ -8889,7 +8891,7 @@
         <v>313</v>
       </c>
       <c r="D29" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
@@ -8898,17 +8900,17 @@
         <v>1000</v>
       </c>
       <c r="G29" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H29" s="8">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>781</v>
       </c>
       <c r="J29" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>230</v>
@@ -8929,7 +8931,7 @@
         <v>314</v>
       </c>
       <c r="D30" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E30" s="2">
         <v>4</v>
@@ -8938,17 +8940,17 @@
         <v>1000</v>
       </c>
       <c r="G30" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H30" s="8">
-        <v>1000</v>
+        <v>864</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>775</v>
       </c>
       <c r="J30" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>230</v>
@@ -8969,7 +8971,7 @@
         <v>315</v>
       </c>
       <c r="D31" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E31" s="2">
         <v>4</v>
@@ -8978,17 +8980,17 @@
         <v>1000</v>
       </c>
       <c r="G31" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H31" s="8">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>751</v>
       </c>
       <c r="J31" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>230</v>
@@ -9009,7 +9011,7 @@
         <v>316</v>
       </c>
       <c r="D32" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E32" s="2">
         <v>4</v>
@@ -9018,17 +9020,17 @@
         <v>1000</v>
       </c>
       <c r="G32" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H32" s="8">
-        <v>1000</v>
+        <v>904</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>815</v>
       </c>
       <c r="J32" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>230</v>
@@ -9049,7 +9051,7 @@
         <v>317</v>
       </c>
       <c r="D33" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
@@ -9058,17 +9060,17 @@
         <v>1000</v>
       </c>
       <c r="G33" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H33" s="8">
-        <v>1000</v>
+        <v>851</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>763</v>
       </c>
       <c r="J33" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>230</v>
@@ -9089,7 +9091,7 @@
         <v>318</v>
       </c>
       <c r="D34" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E34" s="2">
         <v>4</v>
@@ -9098,17 +9100,17 @@
         <v>1000</v>
       </c>
       <c r="G34" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H34" s="8">
-        <v>1000</v>
+        <v>901</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>813</v>
       </c>
       <c r="J34" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>230</v>
@@ -9129,7 +9131,7 @@
         <v>319</v>
       </c>
       <c r="D35" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E35" s="2">
         <v>4</v>
@@ -9138,17 +9140,17 @@
         <v>1000</v>
       </c>
       <c r="G35" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H35" s="8">
-        <v>1000</v>
+        <v>832</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>742</v>
       </c>
       <c r="J35" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>230</v>
@@ -9169,7 +9171,7 @@
         <v>320</v>
       </c>
       <c r="D36" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
@@ -9178,17 +9180,17 @@
         <v>1000</v>
       </c>
       <c r="G36" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H36" s="8">
-        <v>1000</v>
+        <v>821</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>732</v>
       </c>
       <c r="J36" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>230</v>
@@ -9209,7 +9211,7 @@
         <v>321</v>
       </c>
       <c r="D37" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
@@ -9218,17 +9220,17 @@
         <v>1000</v>
       </c>
       <c r="G37" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H37" s="8">
-        <v>1000</v>
+        <v>835</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>747</v>
       </c>
       <c r="J37" s="2">
-        <v>20210622</v>
+        <v>20210623</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>230</v>
@@ -9249,7 +9251,7 @@
         <v>322</v>
       </c>
       <c r="D38" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
@@ -9268,7 +9270,7 @@
         <v>900</v>
       </c>
       <c r="J38" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>230</v>
@@ -9289,7 +9291,7 @@
         <v>323</v>
       </c>
       <c r="D39" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
@@ -9308,7 +9310,7 @@
         <v>900</v>
       </c>
       <c r="J39" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>230</v>
@@ -9329,7 +9331,7 @@
         <v>324</v>
       </c>
       <c r="D40" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
@@ -9348,7 +9350,7 @@
         <v>900</v>
       </c>
       <c r="J40" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>230</v>
@@ -9369,7 +9371,7 @@
         <v>325</v>
       </c>
       <c r="D41" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
@@ -9388,7 +9390,7 @@
         <v>900</v>
       </c>
       <c r="J41" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>230</v>
@@ -9409,7 +9411,7 @@
         <v>326</v>
       </c>
       <c r="D42" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E42" s="2">
         <v>4</v>
@@ -9428,7 +9430,7 @@
         <v>900</v>
       </c>
       <c r="J42" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>230</v>
@@ -9449,7 +9451,7 @@
         <v>327</v>
       </c>
       <c r="D43" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E43" s="2">
         <v>4</v>
@@ -9468,7 +9470,7 @@
         <v>900</v>
       </c>
       <c r="J43" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>230</v>
@@ -9489,7 +9491,7 @@
         <v>328</v>
       </c>
       <c r="D44" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E44" s="2">
         <v>4</v>
@@ -9508,7 +9510,7 @@
         <v>900</v>
       </c>
       <c r="J44" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>230</v>
@@ -9529,7 +9531,7 @@
         <v>329</v>
       </c>
       <c r="D45" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
@@ -9548,7 +9550,7 @@
         <v>900</v>
       </c>
       <c r="J45" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>230</v>
@@ -9569,7 +9571,7 @@
         <v>330</v>
       </c>
       <c r="D46" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -9588,7 +9590,7 @@
         <v>900</v>
       </c>
       <c r="J46" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>230</v>
@@ -9609,7 +9611,7 @@
         <v>331</v>
       </c>
       <c r="D47" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -9628,7 +9630,7 @@
         <v>900</v>
       </c>
       <c r="J47" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>230</v>
@@ -9649,7 +9651,7 @@
         <v>332</v>
       </c>
       <c r="D48" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -9668,7 +9670,7 @@
         <v>900</v>
       </c>
       <c r="J48" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>230</v>
@@ -9689,7 +9691,7 @@
         <v>333</v>
       </c>
       <c r="D49" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E49" s="2">
         <v>4</v>
@@ -9708,7 +9710,7 @@
         <v>900</v>
       </c>
       <c r="J49" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>230</v>
@@ -9729,7 +9731,7 @@
         <v>334</v>
       </c>
       <c r="D50" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E50" s="2">
         <v>4</v>
@@ -9748,7 +9750,7 @@
         <v>900</v>
       </c>
       <c r="J50" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>230</v>
@@ -9769,7 +9771,7 @@
         <v>335</v>
       </c>
       <c r="D51" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E51" s="2">
         <v>4</v>
@@ -9788,7 +9790,7 @@
         <v>900</v>
       </c>
       <c r="J51" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>230</v>
@@ -9809,7 +9811,7 @@
         <v>336</v>
       </c>
       <c r="D52" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
@@ -9828,7 +9830,7 @@
         <v>900</v>
       </c>
       <c r="J52" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>230</v>
@@ -9849,7 +9851,7 @@
         <v>337</v>
       </c>
       <c r="D53" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E53" s="2">
         <v>4</v>
@@ -9868,7 +9870,7 @@
         <v>900</v>
       </c>
       <c r="J53" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>230</v>
@@ -9889,7 +9891,7 @@
         <v>338</v>
       </c>
       <c r="D54" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E54" s="2">
         <v>4</v>
@@ -9908,7 +9910,7 @@
         <v>900</v>
       </c>
       <c r="J54" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>230</v>
@@ -9929,7 +9931,7 @@
         <v>339</v>
       </c>
       <c r="D55" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
@@ -9948,7 +9950,7 @@
         <v>900</v>
       </c>
       <c r="J55" s="2">
-        <v>20210624</v>
+        <v>20210626</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>230</v>
@@ -9962,4 +9964,28 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -5,34 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE349893-0517-9648-817E-0A6E6082F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365ADDB8-2EEF-DD49-B45C-BA2EE7409674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
     <sheet name="Rainfall 2" sheetId="2" r:id="rId2"/>
     <sheet name="Rainfall 3" sheetId="3" r:id="rId3"/>
     <sheet name="Rainfall 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Rainfall 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Rainfall 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,10 +35,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{98B61FB3-52CC-9F41-BC50-21752F5C5A25}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -64,10 +62,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6AB049BB-9B62-234E-B092-DC3406986DB0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -82,10 +89,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{944BE181-8429-0C41-98F4-DAD1FFAEEFEF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -93,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="449">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1534,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1546,6 +1562,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1890,28 +1908,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A39224-C7A3-DC45-833D-204FCB526563}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C55"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,37 +1943,40 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>229</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -1969,25 +1990,22 @@
         <v>20210531</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1500</v>
       </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="3">
         <v>20210603</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -2001,25 +2019,22 @@
         <v>20210531</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3000</v>
       </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="3">
         <v>20210603</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -2033,25 +2048,22 @@
         <v>20210531</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>1500</v>
       </c>
-      <c r="F4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="3">
         <v>20210603</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -2065,25 +2077,22 @@
         <v>20210531</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>3000</v>
       </c>
-      <c r="F5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="3">
         <v>20210604</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -2097,25 +2106,22 @@
         <v>20210531</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>1500</v>
       </c>
-      <c r="F6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="3">
         <v>20210603</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -2129,25 +2135,22 @@
         <v>20210531</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3000</v>
       </c>
-      <c r="F7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="3">
         <v>20210604</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
@@ -2161,25 +2164,22 @@
         <v>20210531</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1500</v>
       </c>
-      <c r="F8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" t="s">
-        <v>227</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="3">
         <v>20210604</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -2193,25 +2193,22 @@
         <v>20210531</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>3000</v>
       </c>
-      <c r="F9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="3">
         <v>20210603</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
@@ -2225,25 +2222,22 @@
         <v>20210531</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1500</v>
       </c>
-      <c r="F10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="3">
         <v>20210603</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -2257,25 +2251,22 @@
         <v>20210531</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>3000</v>
       </c>
-      <c r="F11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="3">
         <v>20210605</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
@@ -2289,25 +2280,22 @@
         <v>20210531</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1500</v>
       </c>
-      <c r="F12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="3">
         <v>20210604</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -2321,25 +2309,22 @@
         <v>20210531</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>3000</v>
       </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" t="s">
-        <v>227</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="3">
         <v>20210604</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -2353,25 +2338,22 @@
         <v>20210531</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>1500</v>
       </c>
-      <c r="F14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="3">
         <v>20210604</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -2385,25 +2367,22 @@
         <v>20210531</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>3000</v>
       </c>
-      <c r="F15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" t="s">
-        <v>227</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="3">
         <v>20210604</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -2417,25 +2396,22 @@
         <v>20210531</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>1500</v>
       </c>
-      <c r="F16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="3">
         <v>20210603</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
@@ -2449,25 +2425,22 @@
         <v>20210531</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>3000</v>
       </c>
-      <c r="F17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="3">
         <v>20210603</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
@@ -2481,25 +2454,22 @@
         <v>20210531</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>1500</v>
       </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" t="s">
-        <v>227</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="3">
         <v>20210604</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
@@ -2513,25 +2483,22 @@
         <v>20210531</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>3000</v>
       </c>
-      <c r="F19" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="3">
         <v>20210604</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2545,25 +2512,22 @@
         <v>20210602</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>1500</v>
       </c>
-      <c r="F20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" t="s">
-        <v>227</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="3">
         <v>20210605</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2577,25 +2541,22 @@
         <v>20210602</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>3000</v>
       </c>
-      <c r="F21" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="3">
         <v>20210605</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
@@ -2609,25 +2570,22 @@
         <v>20210602</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1500</v>
       </c>
-      <c r="F22" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="3">
         <v>20210605</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
@@ -2641,25 +2599,22 @@
         <v>20210602</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>3000</v>
       </c>
-      <c r="F23" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" t="s">
-        <v>227</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="3">
         <v>20210605</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -2673,25 +2628,22 @@
         <v>20210602</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>1500</v>
       </c>
-      <c r="F24" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" t="s">
-        <v>227</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="3">
         <v>20210605</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>142</v>
       </c>
@@ -2705,25 +2657,22 @@
         <v>20210602</v>
       </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>3000</v>
       </c>
-      <c r="F25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="3">
         <v>20210605</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -2737,25 +2686,22 @@
         <v>20210602</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>1500</v>
       </c>
-      <c r="F26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="3">
         <v>20210605</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>144</v>
       </c>
@@ -2769,25 +2715,22 @@
         <v>20210602</v>
       </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>3000</v>
       </c>
-      <c r="F27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27" t="s">
-        <v>227</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="3">
         <v>20210605</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -2801,25 +2744,22 @@
         <v>20210602</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>1500</v>
       </c>
-      <c r="F28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="3">
         <v>20210605</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -2833,25 +2773,22 @@
         <v>20210602</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>3000</v>
       </c>
-      <c r="F29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" t="s">
-        <v>227</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="3">
         <v>20210605</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -2865,25 +2802,22 @@
         <v>20210602</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>1500</v>
       </c>
-      <c r="F30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" t="s">
-        <v>227</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="3">
         <v>20210605</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -2897,25 +2831,22 @@
         <v>20210602</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>3000</v>
       </c>
-      <c r="F31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" t="s">
-        <v>227</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="3">
         <v>20210605</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
@@ -2929,25 +2860,22 @@
         <v>20210602</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>1500</v>
       </c>
-      <c r="F32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" t="s">
-        <v>227</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="3">
         <v>20210605</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -2961,25 +2889,22 @@
         <v>20210602</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>3000</v>
       </c>
-      <c r="F33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" t="s">
-        <v>227</v>
-      </c>
-      <c r="H33" t="s">
-        <v>227</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="3">
         <v>20210605</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
@@ -2993,25 +2918,22 @@
         <v>20210602</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>1500</v>
       </c>
-      <c r="F34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="3">
         <v>20210605</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
@@ -3025,25 +2947,22 @@
         <v>20210602</v>
       </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>3000</v>
       </c>
-      <c r="F35" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="3">
         <v>20210605</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
@@ -3057,25 +2976,22 @@
         <v>20210602</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>1500</v>
       </c>
-      <c r="F36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" t="s">
-        <v>227</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="3">
         <v>20210605</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -3089,25 +3005,22 @@
         <v>20210602</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>3000</v>
       </c>
-      <c r="F37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="3">
         <v>20210605</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -3121,25 +3034,22 @@
         <v>20210604</v>
       </c>
       <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>1500</v>
       </c>
-      <c r="F38" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" t="s">
-        <v>227</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="3">
         <v>20210606</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -3153,25 +3063,22 @@
         <v>20210604</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>3000</v>
       </c>
-      <c r="F39" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" t="s">
-        <v>227</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="3">
         <v>20210606</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -3185,25 +3092,22 @@
         <v>20210604</v>
       </c>
       <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>1500</v>
       </c>
-      <c r="F40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" t="s">
-        <v>227</v>
-      </c>
-      <c r="H40" t="s">
-        <v>227</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="3">
         <v>20210606</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
@@ -3217,25 +3121,22 @@
         <v>20210604</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>3000</v>
       </c>
-      <c r="F41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" t="s">
-        <v>227</v>
-      </c>
-      <c r="H41" t="s">
-        <v>227</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="3">
         <v>20210606</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -3249,25 +3150,22 @@
         <v>20210604</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>1500</v>
       </c>
-      <c r="F42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" t="s">
-        <v>227</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="3">
         <v>20210606</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -3281,25 +3179,22 @@
         <v>20210604</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>3000</v>
       </c>
-      <c r="F43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" t="s">
-        <v>227</v>
-      </c>
-      <c r="H43" t="s">
-        <v>227</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="3">
         <v>20210606</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -3313,25 +3208,22 @@
         <v>20210604</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>1500</v>
       </c>
-      <c r="F44" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H44" t="s">
-        <v>227</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="3">
         <v>20210606</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -3345,25 +3237,22 @@
         <v>20210604</v>
       </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>3000</v>
       </c>
-      <c r="F45" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" t="s">
-        <v>227</v>
-      </c>
-      <c r="H45" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="3">
         <v>20210606</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
@@ -3377,25 +3266,22 @@
         <v>20210604</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>1500</v>
       </c>
-      <c r="F46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" t="s">
-        <v>227</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="3">
         <v>20210606</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
@@ -3409,25 +3295,22 @@
         <v>20210604</v>
       </c>
       <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>3000</v>
       </c>
-      <c r="F47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" t="s">
-        <v>227</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="3">
         <v>20210606</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
@@ -3441,25 +3324,22 @@
         <v>20210604</v>
       </c>
       <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>1500</v>
       </c>
-      <c r="F48" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" t="s">
-        <v>227</v>
-      </c>
-      <c r="H48" t="s">
-        <v>227</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="3">
         <v>20210607</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -3473,25 +3353,22 @@
         <v>20210604</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>3000</v>
       </c>
-      <c r="F49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H49" t="s">
-        <v>227</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="3">
         <v>20210607</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
@@ -3505,25 +3382,22 @@
         <v>20210604</v>
       </c>
       <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>1500</v>
       </c>
-      <c r="F50" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" t="s">
-        <v>227</v>
-      </c>
-      <c r="H50" t="s">
-        <v>227</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="3">
         <v>20210607</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>168</v>
       </c>
@@ -3537,25 +3411,22 @@
         <v>20210604</v>
       </c>
       <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>3000</v>
       </c>
-      <c r="F51" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" t="s">
-        <v>227</v>
-      </c>
-      <c r="H51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="3">
         <v>20210606</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -3569,25 +3440,22 @@
         <v>20210604</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>1500</v>
       </c>
-      <c r="F52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" t="s">
-        <v>227</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="3">
         <v>20210607</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
@@ -3601,25 +3469,22 @@
         <v>20210604</v>
       </c>
       <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>3000</v>
       </c>
-      <c r="F53" t="s">
-        <v>227</v>
-      </c>
-      <c r="G53" t="s">
-        <v>227</v>
-      </c>
-      <c r="H53" t="s">
-        <v>227</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="3">
         <v>20210607</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
@@ -3633,25 +3498,22 @@
         <v>20210604</v>
       </c>
       <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>1500</v>
       </c>
-      <c r="F54" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" t="s">
-        <v>227</v>
-      </c>
-      <c r="H54" t="s">
-        <v>227</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="3">
         <v>20210607</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
@@ -3665,21 +3527,18 @@
         <v>20210604</v>
       </c>
       <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>3000</v>
       </c>
-      <c r="F55" t="s">
-        <v>227</v>
-      </c>
-      <c r="G55" t="s">
-        <v>227</v>
-      </c>
-      <c r="H55" t="s">
-        <v>227</v>
-      </c>
-      <c r="I55" s="3">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="3">
         <v>20210606</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3695,7 +3554,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7744,8 +7603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C630F-CED0-3C49-9F7A-3D77E458B865}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9251,7 +9110,7 @@
         <v>322</v>
       </c>
       <c r="D38" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
@@ -9260,17 +9119,15 @@
         <v>1000</v>
       </c>
       <c r="G38" s="8">
-        <v>100</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1000</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H38" s="8"/>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-104</v>
       </c>
       <c r="J38" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>230</v>
@@ -9291,7 +9148,7 @@
         <v>323</v>
       </c>
       <c r="D39" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
@@ -9300,17 +9157,15 @@
         <v>1000</v>
       </c>
       <c r="G39" s="8">
-        <v>100</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H39" s="8"/>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-89</v>
       </c>
       <c r="J39" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>230</v>
@@ -9331,7 +9186,7 @@
         <v>324</v>
       </c>
       <c r="D40" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
@@ -9340,17 +9195,15 @@
         <v>1000</v>
       </c>
       <c r="G40" s="8">
-        <v>100</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H40" s="8"/>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J40" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>230</v>
@@ -9371,7 +9224,7 @@
         <v>325</v>
       </c>
       <c r="D41" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
@@ -9380,17 +9233,15 @@
         <v>1000</v>
       </c>
       <c r="G41" s="8">
-        <v>100</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H41" s="8"/>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J41" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>230</v>
@@ -9411,7 +9262,7 @@
         <v>326</v>
       </c>
       <c r="D42" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E42" s="2">
         <v>4</v>
@@ -9420,17 +9271,15 @@
         <v>1000</v>
       </c>
       <c r="G42" s="8">
-        <v>100</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H42" s="8"/>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J42" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>230</v>
@@ -9451,7 +9300,7 @@
         <v>327</v>
       </c>
       <c r="D43" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E43" s="2">
         <v>4</v>
@@ -9460,17 +9309,15 @@
         <v>1000</v>
       </c>
       <c r="G43" s="8">
-        <v>100</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-89</v>
       </c>
       <c r="J43" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>230</v>
@@ -9491,7 +9338,7 @@
         <v>328</v>
       </c>
       <c r="D44" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E44" s="2">
         <v>4</v>
@@ -9500,17 +9347,15 @@
         <v>1000</v>
       </c>
       <c r="G44" s="8">
-        <v>100</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H44" s="8"/>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J44" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>230</v>
@@ -9531,7 +9376,7 @@
         <v>329</v>
       </c>
       <c r="D45" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
@@ -9540,17 +9385,15 @@
         <v>1000</v>
       </c>
       <c r="G45" s="8">
-        <v>100</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J45" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>230</v>
@@ -9571,7 +9414,7 @@
         <v>330</v>
       </c>
       <c r="D46" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -9580,17 +9423,15 @@
         <v>1000</v>
       </c>
       <c r="G46" s="8">
-        <v>100</v>
-      </c>
-      <c r="H46" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H46" s="8"/>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J46" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>230</v>
@@ -9611,7 +9452,7 @@
         <v>331</v>
       </c>
       <c r="D47" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -9620,17 +9461,15 @@
         <v>1000</v>
       </c>
       <c r="G47" s="8">
-        <v>100</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H47" s="8"/>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J47" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>230</v>
@@ -9651,7 +9490,7 @@
         <v>332</v>
       </c>
       <c r="D48" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -9660,17 +9499,15 @@
         <v>1000</v>
       </c>
       <c r="G48" s="8">
-        <v>100</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H48" s="8"/>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-89</v>
       </c>
       <c r="J48" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>230</v>
@@ -9691,7 +9528,7 @@
         <v>333</v>
       </c>
       <c r="D49" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E49" s="2">
         <v>4</v>
@@ -9700,17 +9537,15 @@
         <v>1000</v>
       </c>
       <c r="G49" s="8">
-        <v>100</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1000</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H49" s="8"/>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-103</v>
       </c>
       <c r="J49" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>230</v>
@@ -9731,7 +9566,7 @@
         <v>334</v>
       </c>
       <c r="D50" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E50" s="2">
         <v>4</v>
@@ -9740,17 +9575,15 @@
         <v>1000</v>
       </c>
       <c r="G50" s="8">
-        <v>100</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-89</v>
       </c>
       <c r="J50" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>230</v>
@@ -9771,7 +9604,7 @@
         <v>335</v>
       </c>
       <c r="D51" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E51" s="2">
         <v>4</v>
@@ -9780,17 +9613,15 @@
         <v>1000</v>
       </c>
       <c r="G51" s="8">
-        <v>100</v>
-      </c>
-      <c r="H51" s="8">
-        <v>1000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H51" s="8"/>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-89</v>
       </c>
       <c r="J51" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>230</v>
@@ -9811,7 +9642,7 @@
         <v>336</v>
       </c>
       <c r="D52" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
@@ -9820,17 +9651,15 @@
         <v>1000</v>
       </c>
       <c r="G52" s="8">
-        <v>100</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H52" s="8"/>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J52" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>230</v>
@@ -9851,7 +9680,7 @@
         <v>337</v>
       </c>
       <c r="D53" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E53" s="2">
         <v>4</v>
@@ -9860,17 +9689,15 @@
         <v>1000</v>
       </c>
       <c r="G53" s="8">
-        <v>100</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H53" s="8"/>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J53" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>230</v>
@@ -9891,7 +9718,7 @@
         <v>338</v>
       </c>
       <c r="D54" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E54" s="2">
         <v>4</v>
@@ -9900,17 +9727,15 @@
         <v>1000</v>
       </c>
       <c r="G54" s="8">
-        <v>100</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H54" s="8"/>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-89</v>
       </c>
       <c r="J54" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>230</v>
@@ -9931,7 +9756,7 @@
         <v>339</v>
       </c>
       <c r="D55" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
@@ -9940,17 +9765,15 @@
         <v>1000</v>
       </c>
       <c r="G55" s="8">
-        <v>100</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1000</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H55" s="8"/>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>-88</v>
       </c>
       <c r="J55" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>230</v>
@@ -9964,28 +9787,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365ADDB8-2EEF-DD49-B45C-BA2EE7409674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C19922D-1279-6144-A60E-6190F014019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -7604,7 +7604,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9121,10 +9121,12 @@
       <c r="G38" s="8">
         <v>104</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>827</v>
+      </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>-104</v>
+        <v>723</v>
       </c>
       <c r="J38" s="2">
         <v>20210625</v>
@@ -9159,10 +9161,12 @@
       <c r="G39" s="8">
         <v>89</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>827</v>
+      </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>738</v>
       </c>
       <c r="J39" s="2">
         <v>20210625</v>
@@ -9197,10 +9201,12 @@
       <c r="G40" s="8">
         <v>88</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>893</v>
+      </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>805</v>
       </c>
       <c r="J40" s="2">
         <v>20210625</v>
@@ -9235,10 +9241,12 @@
       <c r="G41" s="8">
         <v>88</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8">
+        <v>856</v>
+      </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>768</v>
       </c>
       <c r="J41" s="2">
         <v>20210625</v>
@@ -9273,10 +9281,12 @@
       <c r="G42" s="8">
         <v>88</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>817</v>
+      </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>729</v>
       </c>
       <c r="J42" s="2">
         <v>20210625</v>
@@ -9311,10 +9321,12 @@
       <c r="G43" s="8">
         <v>89</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>817</v>
+      </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>728</v>
       </c>
       <c r="J43" s="2">
         <v>20210625</v>
@@ -9349,10 +9361,12 @@
       <c r="G44" s="8">
         <v>88</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8">
+        <v>896</v>
+      </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>808</v>
       </c>
       <c r="J44" s="2">
         <v>20210625</v>
@@ -9387,10 +9401,12 @@
       <c r="G45" s="8">
         <v>88</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>808</v>
+      </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>720</v>
       </c>
       <c r="J45" s="2">
         <v>20210625</v>
@@ -9425,10 +9441,12 @@
       <c r="G46" s="8">
         <v>88</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>808</v>
+      </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>720</v>
       </c>
       <c r="J46" s="2">
         <v>20210625</v>
@@ -9463,10 +9481,12 @@
       <c r="G47" s="8">
         <v>88</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8">
+        <v>846</v>
+      </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>758</v>
       </c>
       <c r="J47" s="2">
         <v>20210625</v>
@@ -9501,10 +9521,12 @@
       <c r="G48" s="8">
         <v>89</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>903</v>
+      </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>814</v>
       </c>
       <c r="J48" s="2">
         <v>20210625</v>
@@ -9539,10 +9561,12 @@
       <c r="G49" s="8">
         <v>103</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>868</v>
+      </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>-103</v>
+        <v>765</v>
       </c>
       <c r="J49" s="2">
         <v>20210625</v>
@@ -9577,10 +9601,12 @@
       <c r="G50" s="8">
         <v>89</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>915</v>
+      </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>826</v>
       </c>
       <c r="J50" s="2">
         <v>20210625</v>
@@ -9615,10 +9641,12 @@
       <c r="G51" s="8">
         <v>89</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8">
+        <v>863</v>
+      </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>774</v>
       </c>
       <c r="J51" s="2">
         <v>20210625</v>
@@ -9653,10 +9681,12 @@
       <c r="G52" s="8">
         <v>88</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8">
+        <v>878</v>
+      </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>790</v>
       </c>
       <c r="J52" s="2">
         <v>20210625</v>
@@ -9691,10 +9721,12 @@
       <c r="G53" s="8">
         <v>88</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="8">
+        <v>883</v>
+      </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>795</v>
       </c>
       <c r="J53" s="2">
         <v>20210625</v>
@@ -9729,10 +9761,12 @@
       <c r="G54" s="8">
         <v>89</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="8">
+        <v>899</v>
+      </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>810</v>
       </c>
       <c r="J54" s="2">
         <v>20210625</v>
@@ -9767,10 +9801,12 @@
       <c r="G55" s="8">
         <v>88</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8">
+        <v>875</v>
+      </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>787</v>
       </c>
       <c r="J55" s="2">
         <v>20210625</v>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE349893-0517-9648-817E-0A6E6082F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB9AF3-429F-3F4D-9349-C4ED08CCD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="502">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1440,6 +1440,165 @@
   </si>
   <si>
     <t>SSCAMR00270</t>
+  </si>
+  <si>
+    <t>SSCAMR00271</t>
+  </si>
+  <si>
+    <t>SSCAMR00272</t>
+  </si>
+  <si>
+    <t>SSCAMR00273</t>
+  </si>
+  <si>
+    <t>SSCAMR00274</t>
+  </si>
+  <si>
+    <t>SSCAMR00275</t>
+  </si>
+  <si>
+    <t>SSCAMR00276</t>
+  </si>
+  <si>
+    <t>SSCAMR00277</t>
+  </si>
+  <si>
+    <t>SSCAMR00278</t>
+  </si>
+  <si>
+    <t>SSCAMR00279</t>
+  </si>
+  <si>
+    <t>SSCAMR00280</t>
+  </si>
+  <si>
+    <t>SSCAMR00281</t>
+  </si>
+  <si>
+    <t>SSCAMR00282</t>
+  </si>
+  <si>
+    <t>SSCAMR00283</t>
+  </si>
+  <si>
+    <t>SSCAMR00284</t>
+  </si>
+  <si>
+    <t>SSCAMR00285</t>
+  </si>
+  <si>
+    <t>SSCAMR00286</t>
+  </si>
+  <si>
+    <t>SSCAMR00287</t>
+  </si>
+  <si>
+    <t>SSCAMR00288</t>
+  </si>
+  <si>
+    <t>SSCAMR00289</t>
+  </si>
+  <si>
+    <t>SSCAMR00290</t>
+  </si>
+  <si>
+    <t>SSCAMR00291</t>
+  </si>
+  <si>
+    <t>SSCAMR00292</t>
+  </si>
+  <si>
+    <t>SSCAMR00293</t>
+  </si>
+  <si>
+    <t>SSCAMR00294</t>
+  </si>
+  <si>
+    <t>SSCAMR00295</t>
+  </si>
+  <si>
+    <t>SSCAMR00296</t>
+  </si>
+  <si>
+    <t>SSCAMR00297</t>
+  </si>
+  <si>
+    <t>SSCAMR00298</t>
+  </si>
+  <si>
+    <t>SSCAMR00299</t>
+  </si>
+  <si>
+    <t>SSCAMR00300</t>
+  </si>
+  <si>
+    <t>SSCAMR00301</t>
+  </si>
+  <si>
+    <t>SSCAMR00302</t>
+  </si>
+  <si>
+    <t>SSCAMR00303</t>
+  </si>
+  <si>
+    <t>SSCAMR00304</t>
+  </si>
+  <si>
+    <t>SSCAMR00305</t>
+  </si>
+  <si>
+    <t>SSCAMR00306</t>
+  </si>
+  <si>
+    <t>SSCAMR00307</t>
+  </si>
+  <si>
+    <t>SSCAMR00308</t>
+  </si>
+  <si>
+    <t>SSCAMR00309</t>
+  </si>
+  <si>
+    <t>SSCAMR00310</t>
+  </si>
+  <si>
+    <t>SSCAMR00311</t>
+  </si>
+  <si>
+    <t>SSCAMR00312</t>
+  </si>
+  <si>
+    <t>SSCAMR00313</t>
+  </si>
+  <si>
+    <t>SSCAMR00314</t>
+  </si>
+  <si>
+    <t>SSCAMR00315</t>
+  </si>
+  <si>
+    <t>SSCAMR00316</t>
+  </si>
+  <si>
+    <t>SSCAMR00317</t>
+  </si>
+  <si>
+    <t>SSCAMR00318</t>
+  </si>
+  <si>
+    <t>SSCAMR00319</t>
+  </si>
+  <si>
+    <t>SSCAMR00320</t>
+  </si>
+  <si>
+    <t>SSCAMR00321</t>
+  </si>
+  <si>
+    <t>SSCAMR00322</t>
+  </si>
+  <si>
+    <t>SSCAMR00323</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1485,12 +1644,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1545,7 +1698,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5719,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7CF24D-EF41-5241-906E-DAD6D3AC4CE4}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -7744,8 +7897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C630F-CED0-3C49-9F7A-3D77E458B865}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9251,7 +9404,7 @@
         <v>322</v>
       </c>
       <c r="D38" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
@@ -9260,17 +9413,17 @@
         <v>1000</v>
       </c>
       <c r="G38" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H38" s="8">
-        <v>1000</v>
+        <v>827</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>723</v>
       </c>
       <c r="J38" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>230</v>
@@ -9291,7 +9444,7 @@
         <v>323</v>
       </c>
       <c r="D39" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
@@ -9300,17 +9453,17 @@
         <v>1000</v>
       </c>
       <c r="G39" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H39" s="8">
-        <v>1000</v>
+        <v>827</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>738</v>
       </c>
       <c r="J39" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>230</v>
@@ -9331,7 +9484,7 @@
         <v>324</v>
       </c>
       <c r="D40" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
@@ -9340,17 +9493,17 @@
         <v>1000</v>
       </c>
       <c r="G40" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H40" s="8">
-        <v>1000</v>
+        <v>893</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>805</v>
       </c>
       <c r="J40" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>230</v>
@@ -9371,7 +9524,7 @@
         <v>325</v>
       </c>
       <c r="D41" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
@@ -9380,17 +9533,17 @@
         <v>1000</v>
       </c>
       <c r="G41" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H41" s="8">
-        <v>1000</v>
+        <v>856</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>768</v>
       </c>
       <c r="J41" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>230</v>
@@ -9411,7 +9564,7 @@
         <v>326</v>
       </c>
       <c r="D42" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E42" s="2">
         <v>4</v>
@@ -9420,17 +9573,17 @@
         <v>1000</v>
       </c>
       <c r="G42" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H42" s="8">
-        <v>1000</v>
+        <v>817</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>729</v>
       </c>
       <c r="J42" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>230</v>
@@ -9451,7 +9604,7 @@
         <v>327</v>
       </c>
       <c r="D43" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E43" s="2">
         <v>4</v>
@@ -9460,17 +9613,17 @@
         <v>1000</v>
       </c>
       <c r="G43" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H43" s="8">
-        <v>1000</v>
+        <v>817</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>728</v>
       </c>
       <c r="J43" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>230</v>
@@ -9491,7 +9644,7 @@
         <v>328</v>
       </c>
       <c r="D44" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E44" s="2">
         <v>4</v>
@@ -9500,17 +9653,17 @@
         <v>1000</v>
       </c>
       <c r="G44" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H44" s="8">
-        <v>1000</v>
+        <v>896</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>808</v>
       </c>
       <c r="J44" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>230</v>
@@ -9531,7 +9684,7 @@
         <v>329</v>
       </c>
       <c r="D45" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
@@ -9540,17 +9693,17 @@
         <v>1000</v>
       </c>
       <c r="G45" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H45" s="8">
-        <v>1000</v>
+        <v>808</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="J45" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>230</v>
@@ -9571,7 +9724,7 @@
         <v>330</v>
       </c>
       <c r="D46" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -9580,17 +9733,17 @@
         <v>1000</v>
       </c>
       <c r="G46" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H46" s="8">
-        <v>1000</v>
+        <v>808</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="J46" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>230</v>
@@ -9611,7 +9764,7 @@
         <v>331</v>
       </c>
       <c r="D47" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -9620,17 +9773,17 @@
         <v>1000</v>
       </c>
       <c r="G47" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H47" s="8">
-        <v>1000</v>
+        <v>846</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>758</v>
       </c>
       <c r="J47" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>230</v>
@@ -9651,7 +9804,7 @@
         <v>332</v>
       </c>
       <c r="D48" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -9660,17 +9813,17 @@
         <v>1000</v>
       </c>
       <c r="G48" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H48" s="8">
-        <v>1000</v>
+        <v>903</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>814</v>
       </c>
       <c r="J48" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>230</v>
@@ -9691,7 +9844,7 @@
         <v>333</v>
       </c>
       <c r="D49" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E49" s="2">
         <v>4</v>
@@ -9700,17 +9853,17 @@
         <v>1000</v>
       </c>
       <c r="G49" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H49" s="8">
-        <v>1000</v>
+        <v>868</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>765</v>
       </c>
       <c r="J49" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>230</v>
@@ -9731,7 +9884,7 @@
         <v>334</v>
       </c>
       <c r="D50" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E50" s="2">
         <v>4</v>
@@ -9740,17 +9893,17 @@
         <v>1000</v>
       </c>
       <c r="G50" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H50" s="8">
-        <v>1000</v>
+        <v>915</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>826</v>
       </c>
       <c r="J50" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>230</v>
@@ -9771,7 +9924,7 @@
         <v>335</v>
       </c>
       <c r="D51" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E51" s="2">
         <v>4</v>
@@ -9780,17 +9933,17 @@
         <v>1000</v>
       </c>
       <c r="G51" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H51" s="8">
-        <v>1000</v>
+        <v>863</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>774</v>
       </c>
       <c r="J51" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>230</v>
@@ -9811,7 +9964,7 @@
         <v>336</v>
       </c>
       <c r="D52" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
@@ -9820,17 +9973,17 @@
         <v>1000</v>
       </c>
       <c r="G52" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H52" s="8">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>790</v>
       </c>
       <c r="J52" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>230</v>
@@ -9851,7 +10004,7 @@
         <v>337</v>
       </c>
       <c r="D53" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E53" s="2">
         <v>4</v>
@@ -9860,17 +10013,17 @@
         <v>1000</v>
       </c>
       <c r="G53" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H53" s="8">
-        <v>1000</v>
+        <v>883</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>795</v>
       </c>
       <c r="J53" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>230</v>
@@ -9891,7 +10044,7 @@
         <v>338</v>
       </c>
       <c r="D54" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E54" s="2">
         <v>4</v>
@@ -9900,17 +10053,17 @@
         <v>1000</v>
       </c>
       <c r="G54" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H54" s="8">
-        <v>1000</v>
+        <v>899</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="J54" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>230</v>
@@ -9931,7 +10084,7 @@
         <v>339</v>
       </c>
       <c r="D55" s="2">
-        <v>20210626</v>
+        <v>20210625</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
@@ -9940,17 +10093,17 @@
         <v>1000</v>
       </c>
       <c r="G55" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H55" s="8">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>787</v>
       </c>
       <c r="J55" s="2">
-        <v>20210626</v>
+        <v>20210628</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>230</v>
@@ -9968,12 +10121,1938 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2">
+        <v>889</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2-G2</f>
+        <v>801</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2">
+        <v>860</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I55" si="0">H3-G3</f>
+        <v>759</v>
+      </c>
+      <c r="J3" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2">
+        <v>899</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>811</v>
+      </c>
+      <c r="J4" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2">
+        <v>864</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>763</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2">
+        <v>875</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>785</v>
+      </c>
+      <c r="J6" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>91</v>
+      </c>
+      <c r="H7" s="2">
+        <v>813</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2">
+        <v>889</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>798</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2">
+        <v>848</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>759</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2">
+        <v>912</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2">
+        <v>816</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>727</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2">
+        <v>940</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2">
+        <v>851</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>762</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>91</v>
+      </c>
+      <c r="H14" s="2">
+        <v>925</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>834</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2">
+        <v>877</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>788</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>90</v>
+      </c>
+      <c r="H16" s="2">
+        <v>912</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2">
+        <v>865</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2">
+        <v>899</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>811</v>
+      </c>
+      <c r="J18" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>105</v>
+      </c>
+      <c r="H19" s="2">
+        <v>846</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20210628</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB9AF3-429F-3F4D-9349-C4ED08CCD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224149E1-E486-5245-9FC8-B29D08273C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
@@ -10123,8 +10123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10909,20 +10909,26 @@
       <c r="C20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="7">
         <v>1000</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8">
+        <v>90</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>230</v>
       </c>
@@ -10941,20 +10947,26 @@
       <c r="C21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="7">
         <v>1000</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8">
+        <v>90</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>230</v>
       </c>
@@ -10973,20 +10985,26 @@
       <c r="C22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="7">
         <v>1000</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8">
+        <v>90</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>230</v>
       </c>
@@ -11005,20 +11023,26 @@
       <c r="C23" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="7">
         <v>1000</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8">
+        <v>89</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>-89</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>230</v>
       </c>
@@ -11037,20 +11061,26 @@
       <c r="C24" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="7">
         <v>1000</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8">
+        <v>89</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>-89</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>230</v>
       </c>
@@ -11069,20 +11099,26 @@
       <c r="C25" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="7">
         <v>1000</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8">
+        <v>106</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>-106</v>
+      </c>
+      <c r="J25" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>230</v>
       </c>
@@ -11101,20 +11137,26 @@
       <c r="C26" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="7">
         <v>1000</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8">
+        <v>90</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J26" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>230</v>
       </c>
@@ -11133,20 +11175,26 @@
       <c r="C27" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="7">
         <v>1000</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8">
+        <v>104</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>-104</v>
+      </c>
+      <c r="J27" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>230</v>
       </c>
@@ -11165,20 +11213,26 @@
       <c r="C28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="7">
         <v>1000</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="8">
+        <v>90</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>230</v>
       </c>
@@ -11197,20 +11251,26 @@
       <c r="C29" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="7">
         <v>1000</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8">
+        <v>90</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J29" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>230</v>
       </c>
@@ -11229,20 +11289,26 @@
       <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="7">
         <v>1000</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8">
+        <v>103</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="2"/>
+        <v>-103</v>
+      </c>
+      <c r="J30" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>230</v>
       </c>
@@ -11261,20 +11327,26 @@
       <c r="C31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="7">
         <v>1000</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8">
+        <v>101</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="2"/>
+        <v>-101</v>
+      </c>
+      <c r="J31" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K31" s="2" t="s">
         <v>230</v>
       </c>
@@ -11293,20 +11365,26 @@
       <c r="C32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="7">
         <v>1000</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <v>106</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>-106</v>
+      </c>
+      <c r="J32" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>230</v>
       </c>
@@ -11325,20 +11403,26 @@
       <c r="C33" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="7">
         <v>1000</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>90</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J33" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K33" s="2" t="s">
         <v>230</v>
       </c>
@@ -11357,20 +11441,26 @@
       <c r="C34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="7">
         <v>1000</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="8">
+        <v>90</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>-90</v>
+      </c>
+      <c r="J34" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>230</v>
       </c>
@@ -11389,20 +11479,26 @@
       <c r="C35" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="7">
         <v>1000</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8">
+        <v>89</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>-89</v>
+      </c>
+      <c r="J35" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>230</v>
       </c>
@@ -11421,20 +11517,26 @@
       <c r="C36" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="7">
         <v>1000</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="8">
+        <v>88</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>-88</v>
+      </c>
+      <c r="J36" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>230</v>
       </c>
@@ -11453,20 +11555,26 @@
       <c r="C37" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>20210630</v>
+      </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="7">
         <v>1000</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8">
+        <v>88</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>-88</v>
+      </c>
+      <c r="J37" s="2">
+        <v>20210630</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>230</v>
       </c>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grace\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A6746-7F72-9240-94CE-4A13AA9AD7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D81F04-CB85-4673-BC5E-39CB5B04B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="1080" yWindow="-110" windowWidth="18230" windowHeight="11020" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -2052,7 +2052,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2067,7 +2067,7 @@
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>142</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>144</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>168</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
@@ -4019,7 +4019,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -4038,7 +4038,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -6209,7 +6209,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -6228,7 +6228,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>231</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>233</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>234</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>236</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>237</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>238</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>241</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>243</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>244</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>245</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>246</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>247</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>248</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>250</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>251</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>252</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>253</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>254</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>255</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>261</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>262</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>264</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>266</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>267</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>268</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>269</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>270</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>271</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>272</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>273</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>274</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>275</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>277</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>278</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>279</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>280</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>281</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>282</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>283</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>284</v>
       </c>
@@ -8399,12 +8399,12 @@
       <selection activeCell="D27" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>395</v>
       </c>
@@ -8497,7 +8497,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>396</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>397</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>398</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>399</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>400</v>
       </c>
@@ -8712,7 +8712,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>401</v>
       </c>
@@ -8755,7 +8755,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>402</v>
       </c>
@@ -8798,7 +8798,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>403</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>404</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>405</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>406</v>
       </c>
@@ -8970,7 +8970,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>407</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>408</v>
       </c>
@@ -9056,7 +9056,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>409</v>
       </c>
@@ -9099,7 +9099,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>410</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>411</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>412</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>413</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>414</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>415</v>
       </c>
@@ -9357,7 +9357,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>416</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>417</v>
       </c>
@@ -9443,7 +9443,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>418</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>419</v>
       </c>
@@ -9529,7 +9529,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>420</v>
       </c>
@@ -9572,7 +9572,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>421</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>422</v>
       </c>
@@ -9658,7 +9658,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>423</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>424</v>
       </c>
@@ -9744,7 +9744,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>425</v>
       </c>
@@ -9787,7 +9787,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>426</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>427</v>
       </c>
@@ -9873,7 +9873,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>428</v>
       </c>
@@ -9916,7 +9916,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>429</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>430</v>
       </c>
@@ -10002,7 +10002,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>431</v>
       </c>
@@ -10045,7 +10045,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>432</v>
       </c>
@@ -10088,7 +10088,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>433</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>434</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>435</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>436</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>437</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>438</v>
       </c>
@@ -10346,7 +10346,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>439</v>
       </c>
@@ -10389,7 +10389,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>440</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>441</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>442</v>
       </c>
@@ -10518,7 +10518,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>443</v>
       </c>
@@ -10561,7 +10561,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>444</v>
       </c>
@@ -10604,7 +10604,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>445</v>
       </c>
@@ -10647,7 +10647,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>446</v>
       </c>
@@ -10690,7 +10690,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>447</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>448</v>
       </c>
@@ -10787,15 +10787,15 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>448</v>
       </c>
@@ -10888,7 +10888,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>449</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>450</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>451</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>452</v>
       </c>
@@ -11060,7 +11060,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>453</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>454</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>455</v>
       </c>
@@ -11189,7 +11189,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>456</v>
       </c>
@@ -11232,7 +11232,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>457</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>458</v>
       </c>
@@ -11318,7 +11318,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>459</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>460</v>
       </c>
@@ -11404,7 +11404,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>461</v>
       </c>
@@ -11447,7 +11447,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>462</v>
       </c>
@@ -11490,7 +11490,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>463</v>
       </c>
@@ -11533,7 +11533,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>464</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>465</v>
       </c>
@@ -11619,7 +11619,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>466</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>467</v>
       </c>
@@ -11705,7 +11705,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>468</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>469</v>
       </c>
@@ -11791,7 +11791,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>470</v>
       </c>
@@ -11834,7 +11834,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>471</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>472</v>
       </c>
@@ -11920,7 +11920,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>473</v>
       </c>
@@ -11963,7 +11963,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>474</v>
       </c>
@@ -12006,7 +12006,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>475</v>
       </c>
@@ -12049,7 +12049,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>476</v>
       </c>
@@ -12092,7 +12092,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>477</v>
       </c>
@@ -12135,7 +12135,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>478</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>479</v>
       </c>
@@ -12221,7 +12221,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>480</v>
       </c>
@@ -12264,7 +12264,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>481</v>
       </c>
@@ -12307,7 +12307,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>482</v>
       </c>
@@ -12350,7 +12350,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>483</v>
       </c>
@@ -12393,7 +12393,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>484</v>
       </c>
@@ -12415,11 +12415,13 @@
       <c r="G38" s="7">
         <v>1000</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K38" s="2">
         <v>20210702</v>
@@ -12432,7 +12434,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>485</v>
       </c>
@@ -12454,11 +12456,13 @@
       <c r="G39" s="7">
         <v>1000</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K39" s="2">
         <v>20210702</v>
@@ -12471,7 +12475,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>486</v>
       </c>
@@ -12493,11 +12497,13 @@
       <c r="G40" s="7">
         <v>1000</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K40" s="2">
         <v>20210702</v>
@@ -12510,7 +12516,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>487</v>
       </c>
@@ -12532,11 +12538,13 @@
       <c r="G41" s="7">
         <v>1000</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="2">
         <v>20210702</v>
@@ -12549,7 +12557,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>488</v>
       </c>
@@ -12571,11 +12579,13 @@
       <c r="G42" s="7">
         <v>1000</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K42" s="2">
         <v>20210702</v>
@@ -12588,7 +12598,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>489</v>
       </c>
@@ -12610,11 +12620,13 @@
       <c r="G43" s="7">
         <v>1000</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>1</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K43" s="2">
         <v>20210702</v>
@@ -12627,7 +12639,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>490</v>
       </c>
@@ -12649,11 +12661,13 @@
       <c r="G44" s="7">
         <v>1000</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8">
+        <v>1</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K44" s="2">
         <v>20210702</v>
@@ -12666,7 +12680,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>491</v>
       </c>
@@ -12688,11 +12702,13 @@
       <c r="G45" s="7">
         <v>1000</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>1</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="2">
         <v>20210702</v>
@@ -12705,7 +12721,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>492</v>
       </c>
@@ -12727,11 +12743,13 @@
       <c r="G46" s="7">
         <v>1000</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>1</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="2">
         <v>20210702</v>
@@ -12744,7 +12762,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>493</v>
       </c>
@@ -12766,11 +12784,13 @@
       <c r="G47" s="7">
         <v>1000</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8">
+        <v>1</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="2">
         <v>20210702</v>
@@ -12783,7 +12803,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>494</v>
       </c>
@@ -12805,11 +12825,13 @@
       <c r="G48" s="7">
         <v>1000</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>1</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K48" s="2">
         <v>20210702</v>
@@ -12822,7 +12844,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>495</v>
       </c>
@@ -12861,7 +12883,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>496</v>
       </c>
@@ -12883,11 +12905,13 @@
       <c r="G50" s="7">
         <v>1000</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>1</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K50" s="2">
         <v>20210702</v>
@@ -12900,7 +12924,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>497</v>
       </c>
@@ -12939,7 +12963,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>498</v>
       </c>
@@ -12978,7 +13002,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>499</v>
       </c>
@@ -13017,7 +13041,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>500</v>
       </c>
@@ -13056,7 +13080,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>501</v>
       </c>
@@ -13107,7 +13131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A6746-7F72-9240-94CE-4A13AA9AD7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024F4DE-E3F8-3743-BEC5-E8B35DA1B3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="5" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="611">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1602,6 +1602,330 @@
   </si>
   <si>
     <t>column_length</t>
+  </si>
+  <si>
+    <t>SSCAMR00324</t>
+  </si>
+  <si>
+    <t>SSCAMR00325</t>
+  </si>
+  <si>
+    <t>SSCAMR00326</t>
+  </si>
+  <si>
+    <t>SSCAMR00327</t>
+  </si>
+  <si>
+    <t>SSCAMR00328</t>
+  </si>
+  <si>
+    <t>SSCAMR00329</t>
+  </si>
+  <si>
+    <t>SSCAMR00330</t>
+  </si>
+  <si>
+    <t>SSCAMR00331</t>
+  </si>
+  <si>
+    <t>SSCAMR00332</t>
+  </si>
+  <si>
+    <t>SSCAMR00333</t>
+  </si>
+  <si>
+    <t>SSCAMR00334</t>
+  </si>
+  <si>
+    <t>SSCAMR00335</t>
+  </si>
+  <si>
+    <t>SSCAMR00336</t>
+  </si>
+  <si>
+    <t>SSCAMR00337</t>
+  </si>
+  <si>
+    <t>SSCAMR00338</t>
+  </si>
+  <si>
+    <t>SSCAMR00339</t>
+  </si>
+  <si>
+    <t>SSCAMR00340</t>
+  </si>
+  <si>
+    <t>SSCAMR00341</t>
+  </si>
+  <si>
+    <t>SSCAMR00342</t>
+  </si>
+  <si>
+    <t>SSCAMR00343</t>
+  </si>
+  <si>
+    <t>SSCAMR00344</t>
+  </si>
+  <si>
+    <t>SSCAMR00345</t>
+  </si>
+  <si>
+    <t>SSCAMR00346</t>
+  </si>
+  <si>
+    <t>SSCAMR00347</t>
+  </si>
+  <si>
+    <t>SSCAMR00348</t>
+  </si>
+  <si>
+    <t>SSCAMR00349</t>
+  </si>
+  <si>
+    <t>SSCAMR00350</t>
+  </si>
+  <si>
+    <t>SSCAMR00351</t>
+  </si>
+  <si>
+    <t>SSCAMR00352</t>
+  </si>
+  <si>
+    <t>SSCAMR00353</t>
+  </si>
+  <si>
+    <t>SSCAMR00354</t>
+  </si>
+  <si>
+    <t>SSCAMR00355</t>
+  </si>
+  <si>
+    <t>SSCAMR00356</t>
+  </si>
+  <si>
+    <t>SSCAMR00357</t>
+  </si>
+  <si>
+    <t>SSCAMR00358</t>
+  </si>
+  <si>
+    <t>SSCAMR00359</t>
+  </si>
+  <si>
+    <t>SSCAMR00360</t>
+  </si>
+  <si>
+    <t>SSCAMR00361</t>
+  </si>
+  <si>
+    <t>SSCAMR00362</t>
+  </si>
+  <si>
+    <t>SSCAMR00363</t>
+  </si>
+  <si>
+    <t>SSCAMR00364</t>
+  </si>
+  <si>
+    <t>SSCAMR00365</t>
+  </si>
+  <si>
+    <t>SSCAMR00366</t>
+  </si>
+  <si>
+    <t>SSCAMR00367</t>
+  </si>
+  <si>
+    <t>SSCAMR00368</t>
+  </si>
+  <si>
+    <t>SSCAMR00369</t>
+  </si>
+  <si>
+    <t>SSCAMR00370</t>
+  </si>
+  <si>
+    <t>SSCAMR00371</t>
+  </si>
+  <si>
+    <t>SSCAMR00372</t>
+  </si>
+  <si>
+    <t>SSCAMR00373</t>
+  </si>
+  <si>
+    <t>SSCAMR00374</t>
+  </si>
+  <si>
+    <t>SSCAMR00375</t>
+  </si>
+  <si>
+    <t>SSCAMR00376</t>
+  </si>
+  <si>
+    <t>SSCAMR00377</t>
+  </si>
+  <si>
+    <t>C04R6</t>
+  </si>
+  <si>
+    <t>C05R6</t>
+  </si>
+  <si>
+    <t>C06R6</t>
+  </si>
+  <si>
+    <t>C07R6</t>
+  </si>
+  <si>
+    <t>C08R6</t>
+  </si>
+  <si>
+    <t>C09R6</t>
+  </si>
+  <si>
+    <t>C10R6</t>
+  </si>
+  <si>
+    <t>C11R6</t>
+  </si>
+  <si>
+    <t>C12R6</t>
+  </si>
+  <si>
+    <t>C13R6</t>
+  </si>
+  <si>
+    <t>C14R6</t>
+  </si>
+  <si>
+    <t>C15R6</t>
+  </si>
+  <si>
+    <t>C16R6</t>
+  </si>
+  <si>
+    <t>C17R6</t>
+  </si>
+  <si>
+    <t>C18R6</t>
+  </si>
+  <si>
+    <t>C19R6</t>
+  </si>
+  <si>
+    <t>C20R6</t>
+  </si>
+  <si>
+    <t>C21R6</t>
+  </si>
+  <si>
+    <t>C22R6</t>
+  </si>
+  <si>
+    <t>C23R6</t>
+  </si>
+  <si>
+    <t>C24R6</t>
+  </si>
+  <si>
+    <t>C25R6</t>
+  </si>
+  <si>
+    <t>C26R6</t>
+  </si>
+  <si>
+    <t>C27R6</t>
+  </si>
+  <si>
+    <t>C28R6</t>
+  </si>
+  <si>
+    <t>C29R6</t>
+  </si>
+  <si>
+    <t>C30R6</t>
+  </si>
+  <si>
+    <t>C31R6</t>
+  </si>
+  <si>
+    <t>C32R6</t>
+  </si>
+  <si>
+    <t>C33R6</t>
+  </si>
+  <si>
+    <t>C34R6</t>
+  </si>
+  <si>
+    <t>C35R6</t>
+  </si>
+  <si>
+    <t>C36R6</t>
+  </si>
+  <si>
+    <t>C37R6</t>
+  </si>
+  <si>
+    <t>C38R6</t>
+  </si>
+  <si>
+    <t>C39R6</t>
+  </si>
+  <si>
+    <t>C40R6</t>
+  </si>
+  <si>
+    <t>C41R6</t>
+  </si>
+  <si>
+    <t>C42R6</t>
+  </si>
+  <si>
+    <t>C43R6</t>
+  </si>
+  <si>
+    <t>C44R6</t>
+  </si>
+  <si>
+    <t>C45R6</t>
+  </si>
+  <si>
+    <t>C46R6</t>
+  </si>
+  <si>
+    <t>C47R6</t>
+  </si>
+  <si>
+    <t>C48R6</t>
+  </si>
+  <si>
+    <t>C49R6</t>
+  </si>
+  <si>
+    <t>C50R6</t>
+  </si>
+  <si>
+    <t>C51R6</t>
+  </si>
+  <si>
+    <t>C52R6</t>
+  </si>
+  <si>
+    <t>C53R6</t>
+  </si>
+  <si>
+    <t>C54R6</t>
+  </si>
+  <si>
+    <t>C02R6</t>
+  </si>
+  <si>
+    <t>C03R6</t>
+  </si>
+  <si>
+    <t>C01R6</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +2014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1702,6 +2026,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10786,8 +11111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13103,12 +13428,2250 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <f>I2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J55" si="0">I3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>89</v>
+      </c>
+      <c r="I20" s="8">
+        <v>882</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>793</v>
+      </c>
+      <c r="K20" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>88</v>
+      </c>
+      <c r="I21" s="8">
+        <v>869</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="K21" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="8">
+        <v>89</v>
+      </c>
+      <c r="I22" s="8">
+        <v>841</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="K22" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="8">
+        <v>103</v>
+      </c>
+      <c r="I23" s="8">
+        <v>852</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>749</v>
+      </c>
+      <c r="K23" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>89</v>
+      </c>
+      <c r="I24" s="8">
+        <v>890</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>801</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>88</v>
+      </c>
+      <c r="I25" s="8">
+        <v>850</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>762</v>
+      </c>
+      <c r="K25" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>87</v>
+      </c>
+      <c r="I26" s="8">
+        <v>879</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
+      <c r="K26" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="8">
+        <v>89</v>
+      </c>
+      <c r="I27" s="8">
+        <v>864</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="K27" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>88</v>
+      </c>
+      <c r="I28" s="8">
+        <v>885</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+      <c r="K28" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>89</v>
+      </c>
+      <c r="I29" s="8">
+        <v>838</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>749</v>
+      </c>
+      <c r="K29" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>89</v>
+      </c>
+      <c r="I30" s="8">
+        <v>848</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>759</v>
+      </c>
+      <c r="K30" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>88</v>
+      </c>
+      <c r="I31" s="8">
+        <v>737</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+      <c r="K31" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F32" s="2">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="8">
+        <v>89</v>
+      </c>
+      <c r="I32" s="8">
+        <v>891</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>802</v>
+      </c>
+      <c r="K32" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="8">
+        <v>89</v>
+      </c>
+      <c r="I33" s="8">
+        <v>836</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="K33" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="8">
+        <v>103</v>
+      </c>
+      <c r="I34" s="8">
+        <v>929</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>826</v>
+      </c>
+      <c r="K34" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="8">
+        <v>87</v>
+      </c>
+      <c r="I35" s="8">
+        <v>785</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>698</v>
+      </c>
+      <c r="K35" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
+      <c r="I36" s="8">
+        <v>850</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="K36" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F37" s="2">
+        <v>6</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="8">
+        <v>101</v>
+      </c>
+      <c r="I37" s="8">
+        <v>853</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="K37" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F41" s="2">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F43" s="2">
+        <v>6</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F46" s="2">
+        <v>6</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F51" s="2">
+        <v>6</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F52" s="2">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F53" s="2">
+        <v>6</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F54" s="2">
+        <v>6</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024F4DE-E3F8-3743-BEC5-E8B35DA1B3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8C159-54E1-1147-8EE9-CA239FBB82B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" activeTab="5" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="3880" yWindow="500" windowWidth="24540" windowHeight="16640" activeTab="6" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Rainfall 4" sheetId="4" r:id="rId4"/>
     <sheet name="Rainfall 5" sheetId="5" r:id="rId5"/>
     <sheet name="Rainfall 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Rainfall 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="827">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1926,6 +1927,654 @@
   </si>
   <si>
     <t>C01R6</t>
+  </si>
+  <si>
+    <t>C01R5</t>
+  </si>
+  <si>
+    <t>C02R5</t>
+  </si>
+  <si>
+    <t>C03R5</t>
+  </si>
+  <si>
+    <t>C04R5</t>
+  </si>
+  <si>
+    <t>C05R5</t>
+  </si>
+  <si>
+    <t>C06R5</t>
+  </si>
+  <si>
+    <t>C07R5</t>
+  </si>
+  <si>
+    <t>C08R5</t>
+  </si>
+  <si>
+    <t>C09R5</t>
+  </si>
+  <si>
+    <t>C10R5</t>
+  </si>
+  <si>
+    <t>C11R5</t>
+  </si>
+  <si>
+    <t>C12R5</t>
+  </si>
+  <si>
+    <t>C13R5</t>
+  </si>
+  <si>
+    <t>C14R5</t>
+  </si>
+  <si>
+    <t>C15R5</t>
+  </si>
+  <si>
+    <t>C16R5</t>
+  </si>
+  <si>
+    <t>C17R5</t>
+  </si>
+  <si>
+    <t>C18R5</t>
+  </si>
+  <si>
+    <t>C19R5</t>
+  </si>
+  <si>
+    <t>C20R5</t>
+  </si>
+  <si>
+    <t>C21R5</t>
+  </si>
+  <si>
+    <t>C22R5</t>
+  </si>
+  <si>
+    <t>C23R5</t>
+  </si>
+  <si>
+    <t>C24R5</t>
+  </si>
+  <si>
+    <t>C25R5</t>
+  </si>
+  <si>
+    <t>C26R5</t>
+  </si>
+  <si>
+    <t>C27R5</t>
+  </si>
+  <si>
+    <t>C28R5</t>
+  </si>
+  <si>
+    <t>C29R5</t>
+  </si>
+  <si>
+    <t>C30R5</t>
+  </si>
+  <si>
+    <t>C31R5</t>
+  </si>
+  <si>
+    <t>C32R5</t>
+  </si>
+  <si>
+    <t>C33R5</t>
+  </si>
+  <si>
+    <t>C34R5</t>
+  </si>
+  <si>
+    <t>C35R5</t>
+  </si>
+  <si>
+    <t>C36R5</t>
+  </si>
+  <si>
+    <t>C37R5</t>
+  </si>
+  <si>
+    <t>C38R5</t>
+  </si>
+  <si>
+    <t>C39R5</t>
+  </si>
+  <si>
+    <t>C40R5</t>
+  </si>
+  <si>
+    <t>C41R5</t>
+  </si>
+  <si>
+    <t>C42R5</t>
+  </si>
+  <si>
+    <t>C43R5</t>
+  </si>
+  <si>
+    <t>C44R5</t>
+  </si>
+  <si>
+    <t>C45R5</t>
+  </si>
+  <si>
+    <t>C46R5</t>
+  </si>
+  <si>
+    <t>C47R5</t>
+  </si>
+  <si>
+    <t>C48R5</t>
+  </si>
+  <si>
+    <t>C49R5</t>
+  </si>
+  <si>
+    <t>C50R5</t>
+  </si>
+  <si>
+    <t>C51R5</t>
+  </si>
+  <si>
+    <t>C52R5</t>
+  </si>
+  <si>
+    <t>C53R5</t>
+  </si>
+  <si>
+    <t>C54R5</t>
+  </si>
+  <si>
+    <t>C01R3</t>
+  </si>
+  <si>
+    <t>C02R3</t>
+  </si>
+  <si>
+    <t>C03R3</t>
+  </si>
+  <si>
+    <t>C04R3</t>
+  </si>
+  <si>
+    <t>C05R3</t>
+  </si>
+  <si>
+    <t>C06R3</t>
+  </si>
+  <si>
+    <t>C07R3</t>
+  </si>
+  <si>
+    <t>C08R3</t>
+  </si>
+  <si>
+    <t>C09R3</t>
+  </si>
+  <si>
+    <t>C10R3</t>
+  </si>
+  <si>
+    <t>C11R3</t>
+  </si>
+  <si>
+    <t>C12R3</t>
+  </si>
+  <si>
+    <t>C13R3</t>
+  </si>
+  <si>
+    <t>C14R3</t>
+  </si>
+  <si>
+    <t>C15R3</t>
+  </si>
+  <si>
+    <t>C16R3</t>
+  </si>
+  <si>
+    <t>C17R3</t>
+  </si>
+  <si>
+    <t>C18R3</t>
+  </si>
+  <si>
+    <t>C19R3</t>
+  </si>
+  <si>
+    <t>C20R3</t>
+  </si>
+  <si>
+    <t>C21R3</t>
+  </si>
+  <si>
+    <t>C22R3</t>
+  </si>
+  <si>
+    <t>C23R3</t>
+  </si>
+  <si>
+    <t>C24R3</t>
+  </si>
+  <si>
+    <t>C25R3</t>
+  </si>
+  <si>
+    <t>C26R3</t>
+  </si>
+  <si>
+    <t>C27R3</t>
+  </si>
+  <si>
+    <t>C28R3</t>
+  </si>
+  <si>
+    <t>C29R3</t>
+  </si>
+  <si>
+    <t>C30R3</t>
+  </si>
+  <si>
+    <t>C31R3</t>
+  </si>
+  <si>
+    <t>C32R3</t>
+  </si>
+  <si>
+    <t>C33R3</t>
+  </si>
+  <si>
+    <t>C34R3</t>
+  </si>
+  <si>
+    <t>C35R3</t>
+  </si>
+  <si>
+    <t>C36R3</t>
+  </si>
+  <si>
+    <t>C37R3</t>
+  </si>
+  <si>
+    <t>C38R3</t>
+  </si>
+  <si>
+    <t>C39R3</t>
+  </si>
+  <si>
+    <t>C40R3</t>
+  </si>
+  <si>
+    <t>C41R3</t>
+  </si>
+  <si>
+    <t>C42R3</t>
+  </si>
+  <si>
+    <t>C43R3</t>
+  </si>
+  <si>
+    <t>C44R3</t>
+  </si>
+  <si>
+    <t>C45R3</t>
+  </si>
+  <si>
+    <t>C46R3</t>
+  </si>
+  <si>
+    <t>C47R3</t>
+  </si>
+  <si>
+    <t>C48R3</t>
+  </si>
+  <si>
+    <t>C49R3</t>
+  </si>
+  <si>
+    <t>C50R3</t>
+  </si>
+  <si>
+    <t>C51R3</t>
+  </si>
+  <si>
+    <t>C52R3</t>
+  </si>
+  <si>
+    <t>C53R3</t>
+  </si>
+  <si>
+    <t>C54R3</t>
+  </si>
+  <si>
+    <t>SSCAMR00378</t>
+  </si>
+  <si>
+    <t>SSCAMR00379</t>
+  </si>
+  <si>
+    <t>SSCAMR00380</t>
+  </si>
+  <si>
+    <t>SSCAMR00381</t>
+  </si>
+  <si>
+    <t>SSCAMR00382</t>
+  </si>
+  <si>
+    <t>SSCAMR00383</t>
+  </si>
+  <si>
+    <t>SSCAMR00384</t>
+  </si>
+  <si>
+    <t>SSCAMR00385</t>
+  </si>
+  <si>
+    <t>SSCAMR00386</t>
+  </si>
+  <si>
+    <t>SSCAMR00387</t>
+  </si>
+  <si>
+    <t>SSCAMR00388</t>
+  </si>
+  <si>
+    <t>SSCAMR00389</t>
+  </si>
+  <si>
+    <t>SSCAMR00390</t>
+  </si>
+  <si>
+    <t>SSCAMR00391</t>
+  </si>
+  <si>
+    <t>SSCAMR00392</t>
+  </si>
+  <si>
+    <t>SSCAMR00393</t>
+  </si>
+  <si>
+    <t>SSCAMR00394</t>
+  </si>
+  <si>
+    <t>SSCAMR00395</t>
+  </si>
+  <si>
+    <t>SSCAMR00396</t>
+  </si>
+  <si>
+    <t>SSCAMR00397</t>
+  </si>
+  <si>
+    <t>SSCAMR00398</t>
+  </si>
+  <si>
+    <t>SSCAMR00399</t>
+  </si>
+  <si>
+    <t>SSCAMR00400</t>
+  </si>
+  <si>
+    <t>SSCAMR00401</t>
+  </si>
+  <si>
+    <t>SSCAMR00402</t>
+  </si>
+  <si>
+    <t>SSCAMR00403</t>
+  </si>
+  <si>
+    <t>SSCAMR00404</t>
+  </si>
+  <si>
+    <t>SSCAMR00405</t>
+  </si>
+  <si>
+    <t>SSCAMR00406</t>
+  </si>
+  <si>
+    <t>SSCAMR00407</t>
+  </si>
+  <si>
+    <t>SSCAMR00408</t>
+  </si>
+  <si>
+    <t>SSCAMR00409</t>
+  </si>
+  <si>
+    <t>SSCAMR00410</t>
+  </si>
+  <si>
+    <t>SSCAMR00411</t>
+  </si>
+  <si>
+    <t>SSCAMR00412</t>
+  </si>
+  <si>
+    <t>SSCAMR00413</t>
+  </si>
+  <si>
+    <t>SSCAMR00414</t>
+  </si>
+  <si>
+    <t>SSCAMR00415</t>
+  </si>
+  <si>
+    <t>SSCAMR00416</t>
+  </si>
+  <si>
+    <t>SSCAMR00417</t>
+  </si>
+  <si>
+    <t>SSCAMR00418</t>
+  </si>
+  <si>
+    <t>SSCAMR00419</t>
+  </si>
+  <si>
+    <t>SSCAMR00420</t>
+  </si>
+  <si>
+    <t>SSCAMR00421</t>
+  </si>
+  <si>
+    <t>SSCAMR00422</t>
+  </si>
+  <si>
+    <t>SSCAMR00423</t>
+  </si>
+  <si>
+    <t>SSCAMR00424</t>
+  </si>
+  <si>
+    <t>SSCAMR00425</t>
+  </si>
+  <si>
+    <t>SSCAMR00426</t>
+  </si>
+  <si>
+    <t>SSCAMR00427</t>
+  </si>
+  <si>
+    <t>SSCAMR00428</t>
+  </si>
+  <si>
+    <t>SSCAMR00429</t>
+  </si>
+  <si>
+    <t>SSCAMR00430</t>
+  </si>
+  <si>
+    <t>SSCAMR00431</t>
+  </si>
+  <si>
+    <t>C01R7</t>
+  </si>
+  <si>
+    <t>C02R7</t>
+  </si>
+  <si>
+    <t>C03R7</t>
+  </si>
+  <si>
+    <t>C04R7</t>
+  </si>
+  <si>
+    <t>C05R7</t>
+  </si>
+  <si>
+    <t>C06R7</t>
+  </si>
+  <si>
+    <t>C07R7</t>
+  </si>
+  <si>
+    <t>C08R7</t>
+  </si>
+  <si>
+    <t>C09R7</t>
+  </si>
+  <si>
+    <t>C10R7</t>
+  </si>
+  <si>
+    <t>C11R7</t>
+  </si>
+  <si>
+    <t>C12R7</t>
+  </si>
+  <si>
+    <t>C13R7</t>
+  </si>
+  <si>
+    <t>C14R7</t>
+  </si>
+  <si>
+    <t>C15R7</t>
+  </si>
+  <si>
+    <t>C16R7</t>
+  </si>
+  <si>
+    <t>C17R7</t>
+  </si>
+  <si>
+    <t>C18R7</t>
+  </si>
+  <si>
+    <t>C19R7</t>
+  </si>
+  <si>
+    <t>C20R7</t>
+  </si>
+  <si>
+    <t>C21R7</t>
+  </si>
+  <si>
+    <t>C22R7</t>
+  </si>
+  <si>
+    <t>C23R7</t>
+  </si>
+  <si>
+    <t>C24R7</t>
+  </si>
+  <si>
+    <t>C25R7</t>
+  </si>
+  <si>
+    <t>C26R7</t>
+  </si>
+  <si>
+    <t>C27R7</t>
+  </si>
+  <si>
+    <t>C28R7</t>
+  </si>
+  <si>
+    <t>C29R7</t>
+  </si>
+  <si>
+    <t>C30R7</t>
+  </si>
+  <si>
+    <t>C31R7</t>
+  </si>
+  <si>
+    <t>C32R7</t>
+  </si>
+  <si>
+    <t>C33R7</t>
+  </si>
+  <si>
+    <t>C34R7</t>
+  </si>
+  <si>
+    <t>C35R7</t>
+  </si>
+  <si>
+    <t>C36R7</t>
+  </si>
+  <si>
+    <t>C37R7</t>
+  </si>
+  <si>
+    <t>C38R7</t>
+  </si>
+  <si>
+    <t>C39R7</t>
+  </si>
+  <si>
+    <t>C40R7</t>
+  </si>
+  <si>
+    <t>C41R7</t>
+  </si>
+  <si>
+    <t>C42R7</t>
+  </si>
+  <si>
+    <t>C43R7</t>
+  </si>
+  <si>
+    <t>C44R7</t>
+  </si>
+  <si>
+    <t>C45R7</t>
+  </si>
+  <si>
+    <t>C46R7</t>
+  </si>
+  <si>
+    <t>C47R7</t>
+  </si>
+  <si>
+    <t>C48R7</t>
+  </si>
+  <si>
+    <t>C49R7</t>
+  </si>
+  <si>
+    <t>C50R7</t>
+  </si>
+  <si>
+    <t>C51R7</t>
+  </si>
+  <si>
+    <t>C52R7</t>
+  </si>
+  <si>
+    <t>C53R7</t>
+  </si>
+  <si>
+    <t>C54R7</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +2603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1971,6 +2620,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2014,7 +2669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2027,6 +2682,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6531,7 +7187,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B55" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6608,7 +7264,7 @@
         <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
         <v>286</v>
@@ -6647,7 +7303,7 @@
         <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
         <v>287</v>
@@ -6686,7 +7342,7 @@
         <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>288</v>
@@ -6725,7 +7381,7 @@
         <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
         <v>289</v>
@@ -6764,7 +7420,7 @@
         <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>669</v>
       </c>
       <c r="C6" t="s">
         <v>290</v>
@@ -6803,7 +7459,7 @@
         <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
         <v>291</v>
@@ -6842,7 +7498,7 @@
         <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>671</v>
       </c>
       <c r="C8" t="s">
         <v>292</v>
@@ -6881,7 +7537,7 @@
         <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>672</v>
       </c>
       <c r="C9" t="s">
         <v>293</v>
@@ -6920,7 +7576,7 @@
         <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>673</v>
       </c>
       <c r="C10" t="s">
         <v>294</v>
@@ -6959,7 +7615,7 @@
         <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>674</v>
       </c>
       <c r="C11" t="s">
         <v>295</v>
@@ -6998,7 +7654,7 @@
         <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>675</v>
       </c>
       <c r="C12" t="s">
         <v>296</v>
@@ -7037,7 +7693,7 @@
         <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>676</v>
       </c>
       <c r="C13" t="s">
         <v>297</v>
@@ -7076,7 +7732,7 @@
         <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>677</v>
       </c>
       <c r="C14" t="s">
         <v>298</v>
@@ -7115,7 +7771,7 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>678</v>
       </c>
       <c r="C15" t="s">
         <v>299</v>
@@ -7154,7 +7810,7 @@
         <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
         <v>300</v>
@@ -7193,7 +7849,7 @@
         <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>680</v>
       </c>
       <c r="C17" t="s">
         <v>301</v>
@@ -7232,7 +7888,7 @@
         <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>681</v>
       </c>
       <c r="C18" t="s">
         <v>302</v>
@@ -7271,7 +7927,7 @@
         <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>682</v>
       </c>
       <c r="C19" t="s">
         <v>303</v>
@@ -7310,7 +7966,7 @@
         <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>683</v>
       </c>
       <c r="C20" t="s">
         <v>304</v>
@@ -7349,7 +8005,7 @@
         <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>684</v>
       </c>
       <c r="C21" t="s">
         <v>305</v>
@@ -7388,7 +8044,7 @@
         <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>361</v>
+        <v>685</v>
       </c>
       <c r="C22" t="s">
         <v>306</v>
@@ -7427,7 +8083,7 @@
         <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>362</v>
+        <v>686</v>
       </c>
       <c r="C23" t="s">
         <v>307</v>
@@ -7466,7 +8122,7 @@
         <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>687</v>
       </c>
       <c r="C24" t="s">
         <v>308</v>
@@ -7505,7 +8161,7 @@
         <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>688</v>
       </c>
       <c r="C25" t="s">
         <v>309</v>
@@ -7544,7 +8200,7 @@
         <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>689</v>
       </c>
       <c r="C26" t="s">
         <v>310</v>
@@ -7583,7 +8239,7 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>690</v>
       </c>
       <c r="C27" t="s">
         <v>311</v>
@@ -7622,7 +8278,7 @@
         <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>691</v>
       </c>
       <c r="C28" t="s">
         <v>312</v>
@@ -7661,7 +8317,7 @@
         <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>692</v>
       </c>
       <c r="C29" t="s">
         <v>313</v>
@@ -7700,7 +8356,7 @@
         <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>693</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -7739,7 +8395,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>694</v>
       </c>
       <c r="C31" t="s">
         <v>315</v>
@@ -7778,7 +8434,7 @@
         <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>695</v>
       </c>
       <c r="C32" t="s">
         <v>316</v>
@@ -7817,7 +8473,7 @@
         <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>372</v>
+        <v>696</v>
       </c>
       <c r="C33" t="s">
         <v>317</v>
@@ -7856,7 +8512,7 @@
         <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>373</v>
+        <v>697</v>
       </c>
       <c r="C34" t="s">
         <v>318</v>
@@ -7895,7 +8551,7 @@
         <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
       <c r="C35" t="s">
         <v>319</v>
@@ -7934,7 +8590,7 @@
         <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>699</v>
       </c>
       <c r="C36" t="s">
         <v>320</v>
@@ -7973,7 +8629,7 @@
         <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="C37" t="s">
         <v>321</v>
@@ -8012,7 +8668,7 @@
         <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>701</v>
       </c>
       <c r="C38" t="s">
         <v>322</v>
@@ -8051,7 +8707,7 @@
         <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>702</v>
       </c>
       <c r="C39" t="s">
         <v>323</v>
@@ -8090,7 +8746,7 @@
         <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>703</v>
       </c>
       <c r="C40" t="s">
         <v>324</v>
@@ -8129,7 +8785,7 @@
         <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>704</v>
       </c>
       <c r="C41" t="s">
         <v>325</v>
@@ -8168,7 +8824,7 @@
         <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>381</v>
+        <v>705</v>
       </c>
       <c r="C42" t="s">
         <v>326</v>
@@ -8207,7 +8863,7 @@
         <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>706</v>
       </c>
       <c r="C43" t="s">
         <v>327</v>
@@ -8246,7 +8902,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>707</v>
       </c>
       <c r="C44" t="s">
         <v>328</v>
@@ -8285,7 +8941,7 @@
         <v>274</v>
       </c>
       <c r="B45" t="s">
-        <v>384</v>
+        <v>708</v>
       </c>
       <c r="C45" t="s">
         <v>329</v>
@@ -8324,7 +8980,7 @@
         <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>709</v>
       </c>
       <c r="C46" t="s">
         <v>330</v>
@@ -8363,7 +9019,7 @@
         <v>276</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>710</v>
       </c>
       <c r="C47" t="s">
         <v>331</v>
@@ -8402,7 +9058,7 @@
         <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>711</v>
       </c>
       <c r="C48" t="s">
         <v>332</v>
@@ -8441,7 +9097,7 @@
         <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>712</v>
       </c>
       <c r="C49" t="s">
         <v>333</v>
@@ -8480,7 +9136,7 @@
         <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>713</v>
       </c>
       <c r="C50" t="s">
         <v>334</v>
@@ -8519,7 +9175,7 @@
         <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>714</v>
       </c>
       <c r="C51" t="s">
         <v>335</v>
@@ -8558,7 +9214,7 @@
         <v>281</v>
       </c>
       <c r="B52" t="s">
-        <v>391</v>
+        <v>715</v>
       </c>
       <c r="C52" t="s">
         <v>336</v>
@@ -8597,7 +9253,7 @@
         <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>716</v>
       </c>
       <c r="C53" t="s">
         <v>337</v>
@@ -8636,7 +9292,7 @@
         <v>283</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>717</v>
       </c>
       <c r="C54" t="s">
         <v>338</v>
@@ -8675,7 +9331,7 @@
         <v>284</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>718</v>
       </c>
       <c r="C55" t="s">
         <v>339</v>
@@ -11111,8 +11767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B55" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11175,7 +11831,7 @@
         <v>448</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>611</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>286</v>
@@ -11218,7 +11874,7 @@
         <v>449</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>612</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>287</v>
@@ -11261,7 +11917,7 @@
         <v>450</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>343</v>
+        <v>613</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>288</v>
@@ -11304,7 +11960,7 @@
         <v>451</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>344</v>
+        <v>614</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>289</v>
@@ -11347,7 +12003,7 @@
         <v>452</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>290</v>
@@ -11390,7 +12046,7 @@
         <v>453</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>346</v>
+        <v>616</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>291</v>
@@ -11433,7 +12089,7 @@
         <v>454</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>347</v>
+        <v>617</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>292</v>
@@ -11476,7 +12132,7 @@
         <v>455</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>348</v>
+        <v>618</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>293</v>
@@ -11519,7 +12175,7 @@
         <v>456</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>294</v>
@@ -11562,7 +12218,7 @@
         <v>457</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>295</v>
@@ -11605,7 +12261,7 @@
         <v>458</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>351</v>
+        <v>621</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>296</v>
@@ -11648,7 +12304,7 @@
         <v>459</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>352</v>
+        <v>622</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>297</v>
@@ -11691,7 +12347,7 @@
         <v>460</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>353</v>
+        <v>623</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>298</v>
@@ -11734,7 +12390,7 @@
         <v>461</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>354</v>
+        <v>624</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>299</v>
@@ -11777,7 +12433,7 @@
         <v>462</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>355</v>
+        <v>625</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>300</v>
@@ -11820,7 +12476,7 @@
         <v>463</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>356</v>
+        <v>626</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>301</v>
@@ -11863,7 +12519,7 @@
         <v>464</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>357</v>
+        <v>627</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>302</v>
@@ -11906,7 +12562,7 @@
         <v>465</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>358</v>
+        <v>628</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>303</v>
@@ -11949,7 +12605,7 @@
         <v>466</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>359</v>
+        <v>629</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>304</v>
@@ -11992,7 +12648,7 @@
         <v>467</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>305</v>
@@ -12035,7 +12691,7 @@
         <v>468</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>361</v>
+        <v>631</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>306</v>
@@ -12078,7 +12734,7 @@
         <v>469</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>307</v>
@@ -12121,7 +12777,7 @@
         <v>470</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>363</v>
+        <v>633</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>308</v>
@@ -12164,7 +12820,7 @@
         <v>471</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>364</v>
+        <v>634</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>309</v>
@@ -12207,7 +12863,7 @@
         <v>472</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>365</v>
+        <v>635</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>310</v>
@@ -12250,7 +12906,7 @@
         <v>473</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>366</v>
+        <v>636</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>311</v>
@@ -12293,7 +12949,7 @@
         <v>474</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>367</v>
+        <v>637</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>312</v>
@@ -12336,7 +12992,7 @@
         <v>475</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>368</v>
+        <v>638</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>313</v>
@@ -12379,7 +13035,7 @@
         <v>476</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>369</v>
+        <v>639</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>314</v>
@@ -12422,7 +13078,7 @@
         <v>477</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>315</v>
@@ -12465,7 +13121,7 @@
         <v>478</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>371</v>
+        <v>641</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>316</v>
@@ -12508,7 +13164,7 @@
         <v>479</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>372</v>
+        <v>642</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>317</v>
@@ -12551,7 +13207,7 @@
         <v>480</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>373</v>
+        <v>643</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>318</v>
@@ -12594,7 +13250,7 @@
         <v>481</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>374</v>
+        <v>644</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>319</v>
@@ -12637,7 +13293,7 @@
         <v>482</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>375</v>
+        <v>645</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>320</v>
@@ -12680,7 +13336,7 @@
         <v>483</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>376</v>
+        <v>646</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -12723,7 +13379,7 @@
         <v>484</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>377</v>
+        <v>647</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>322</v>
@@ -12740,11 +13396,15 @@
       <c r="G38" s="7">
         <v>1000</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="2">
+        <v>86</v>
+      </c>
+      <c r="I38" s="2">
+        <v>767</v>
+      </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="K38" s="2">
         <v>20210702</v>
@@ -12762,7 +13422,7 @@
         <v>485</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>378</v>
+        <v>648</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>323</v>
@@ -12779,11 +13439,15 @@
       <c r="G39" s="7">
         <v>1000</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="2">
+        <v>87</v>
+      </c>
+      <c r="I39" s="2">
+        <v>849</v>
+      </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="K39" s="2">
         <v>20210702</v>
@@ -12801,7 +13465,7 @@
         <v>486</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>379</v>
+        <v>649</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>324</v>
@@ -12818,11 +13482,15 @@
       <c r="G40" s="7">
         <v>1000</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="H40" s="2">
+        <v>88</v>
+      </c>
+      <c r="I40" s="2">
+        <v>895</v>
+      </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="K40" s="2">
         <v>20210702</v>
@@ -12840,7 +13508,7 @@
         <v>487</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>325</v>
@@ -12857,11 +13525,15 @@
       <c r="G41" s="7">
         <v>1000</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="H41" s="2">
+        <v>89</v>
+      </c>
+      <c r="I41" s="2">
+        <v>821</v>
+      </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="K41" s="2">
         <v>20210702</v>
@@ -12879,7 +13551,7 @@
         <v>488</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>381</v>
+        <v>651</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>326</v>
@@ -12896,11 +13568,15 @@
       <c r="G42" s="7">
         <v>1000</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="2">
+        <v>87</v>
+      </c>
+      <c r="I42" s="2">
+        <v>799</v>
+      </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="K42" s="2">
         <v>20210702</v>
@@ -12918,7 +13594,7 @@
         <v>489</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>382</v>
+        <v>652</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>327</v>
@@ -12935,11 +13611,15 @@
       <c r="G43" s="7">
         <v>1000</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="H43" s="2">
+        <v>89</v>
+      </c>
+      <c r="I43" s="2">
+        <v>816</v>
+      </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="K43" s="2">
         <v>20210702</v>
@@ -12957,7 +13637,7 @@
         <v>490</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>383</v>
+        <v>653</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>328</v>
@@ -12974,11 +13654,15 @@
       <c r="G44" s="7">
         <v>1000</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="H44" s="2">
+        <v>89</v>
+      </c>
+      <c r="I44" s="2">
+        <v>828</v>
+      </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="K44" s="2">
         <v>20210702</v>
@@ -12996,7 +13680,7 @@
         <v>491</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>384</v>
+        <v>654</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>329</v>
@@ -13013,11 +13697,15 @@
       <c r="G45" s="7">
         <v>1000</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="2">
+        <v>101</v>
+      </c>
+      <c r="I45" s="2">
+        <v>804</v>
+      </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="K45" s="2">
         <v>20210702</v>
@@ -13035,7 +13723,7 @@
         <v>492</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>385</v>
+        <v>655</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>330</v>
@@ -13052,11 +13740,15 @@
       <c r="G46" s="7">
         <v>1000</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="H46" s="2">
+        <v>89</v>
+      </c>
+      <c r="I46" s="2">
+        <v>793</v>
+      </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="K46" s="2">
         <v>20210702</v>
@@ -13074,7 +13766,7 @@
         <v>493</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>386</v>
+        <v>656</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>331</v>
@@ -13091,11 +13783,15 @@
       <c r="G47" s="7">
         <v>1000</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="2">
+        <v>87</v>
+      </c>
+      <c r="I47" s="2">
+        <v>818</v>
+      </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="K47" s="2">
         <v>20210702</v>
@@ -13113,7 +13809,7 @@
         <v>494</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>387</v>
+        <v>657</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>332</v>
@@ -13130,11 +13826,15 @@
       <c r="G48" s="7">
         <v>1000</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="2">
+        <v>87</v>
+      </c>
+      <c r="I48" s="2">
+        <v>892</v>
+      </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="K48" s="2">
         <v>20210702</v>
@@ -13152,7 +13852,7 @@
         <v>495</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>388</v>
+        <v>658</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>333</v>
@@ -13169,11 +13869,15 @@
       <c r="G49" s="7">
         <v>1000</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="H49" s="2">
+        <v>89</v>
+      </c>
+      <c r="I49" s="2">
+        <v>864</v>
+      </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="K49" s="2">
         <v>20210702</v>
@@ -13191,7 +13895,7 @@
         <v>496</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>389</v>
+        <v>659</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>334</v>
@@ -13208,11 +13912,15 @@
       <c r="G50" s="7">
         <v>1000</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="H50" s="2">
+        <v>101</v>
+      </c>
+      <c r="I50" s="2">
+        <v>915</v>
+      </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="K50" s="2">
         <v>20210702</v>
@@ -13230,7 +13938,7 @@
         <v>497</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>335</v>
@@ -13247,11 +13955,15 @@
       <c r="G51" s="7">
         <v>1000</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="H51" s="2">
+        <v>105</v>
+      </c>
+      <c r="I51" s="2">
+        <v>842</v>
+      </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="K51" s="2">
         <v>20210702</v>
@@ -13269,7 +13981,7 @@
         <v>498</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>391</v>
+        <v>661</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>336</v>
@@ -13286,11 +13998,15 @@
       <c r="G52" s="7">
         <v>1000</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="H52" s="2">
+        <v>102</v>
+      </c>
+      <c r="I52" s="2">
+        <v>860</v>
+      </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="K52" s="2">
         <v>20210702</v>
@@ -13308,7 +14024,7 @@
         <v>499</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>392</v>
+        <v>662</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>337</v>
@@ -13325,11 +14041,15 @@
       <c r="G53" s="7">
         <v>1000</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="H53" s="2">
+        <v>88</v>
+      </c>
+      <c r="I53" s="2">
+        <v>876</v>
+      </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="K53" s="2">
         <v>20210702</v>
@@ -13347,7 +14067,7 @@
         <v>500</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>393</v>
+        <v>663</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>338</v>
@@ -13364,11 +14084,15 @@
       <c r="G54" s="7">
         <v>1000</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="2">
+        <v>88</v>
+      </c>
+      <c r="I54" s="2">
+        <v>849</v>
+      </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="K54" s="2">
         <v>20210702</v>
@@ -13386,7 +14110,7 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>394</v>
+        <v>664</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>339</v>
@@ -13403,11 +14127,15 @@
       <c r="G55" s="7">
         <v>1000</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="H55" s="2">
+        <v>102</v>
+      </c>
+      <c r="I55" s="2">
+        <v>886</v>
+      </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="K55" s="2">
         <v>20210702</v>
@@ -13430,8 +14158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13511,11 +14239,15 @@
       <c r="G2" s="7">
         <v>1000</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="2">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2">
+        <v>902</v>
+      </c>
       <c r="J2" s="2">
         <f>I2-H2</f>
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="K2" s="2">
         <v>20210705</v>
@@ -13550,11 +14282,15 @@
       <c r="G3" s="7">
         <v>1000</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2">
+        <v>840</v>
+      </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J55" si="0">I3-H3</f>
-        <v>0</v>
+        <f t="shared" ref="J3:J19" si="0">I3-H3</f>
+        <v>737</v>
       </c>
       <c r="K3" s="2">
         <v>20210705</v>
@@ -13589,11 +14325,15 @@
       <c r="G4" s="7">
         <v>1000</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2">
+        <v>858</v>
+      </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="K4" s="2">
         <v>20210705</v>
@@ -13628,11 +14368,15 @@
       <c r="G5" s="7">
         <v>1000</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2">
+        <v>844</v>
+      </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="K5" s="2">
         <v>20210705</v>
@@ -13667,11 +14411,15 @@
       <c r="G6" s="7">
         <v>1000</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2">
+        <v>873</v>
+      </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="K6" s="2">
         <v>20210705</v>
@@ -13706,11 +14454,15 @@
       <c r="G7" s="7">
         <v>1000</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2">
+        <v>777</v>
+      </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="K7" s="2">
         <v>20210705</v>
@@ -13745,11 +14497,15 @@
       <c r="G8" s="7">
         <v>1000</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2">
+        <v>877</v>
+      </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="K8" s="2">
         <v>20210705</v>
@@ -13784,11 +14540,15 @@
       <c r="G9" s="7">
         <v>1000</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2">
+        <v>852</v>
+      </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="K9" s="2">
         <v>20210705</v>
@@ -13823,11 +14583,15 @@
       <c r="G10" s="7">
         <v>1000</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2">
+        <v>735</v>
+      </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="K10" s="2">
         <v>20210705</v>
@@ -13862,11 +14626,15 @@
       <c r="G11" s="7">
         <v>1000</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="2">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2">
+        <v>792</v>
+      </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="K11" s="2">
         <v>20210705</v>
@@ -13901,11 +14669,15 @@
       <c r="G12" s="7">
         <v>1000</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2">
+        <v>921</v>
+      </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="K12" s="2">
         <v>20210705</v>
@@ -13940,11 +14712,15 @@
       <c r="G13" s="7">
         <v>1000</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2">
+        <v>848</v>
+      </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="K13" s="2">
         <v>20210705</v>
@@ -13979,11 +14755,15 @@
       <c r="G14" s="7">
         <v>1000</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2">
+        <v>920</v>
+      </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="K14" s="2">
         <v>20210705</v>
@@ -14018,11 +14798,15 @@
       <c r="G15" s="7">
         <v>1000</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2">
+        <v>881</v>
+      </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="K15" s="2">
         <v>20210705</v>
@@ -14057,11 +14841,15 @@
       <c r="G16" s="7">
         <v>1000</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="2">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2">
+        <v>910</v>
+      </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="K16" s="2">
         <v>20210705</v>
@@ -14096,11 +14884,15 @@
       <c r="G17" s="7">
         <v>1000</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2">
+        <v>90</v>
+      </c>
+      <c r="I17" s="10">
+        <v>430</v>
+      </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="K17" s="2">
         <v>20210705</v>
@@ -14135,11 +14927,15 @@
       <c r="G18" s="7">
         <v>1000</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="2">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2">
+        <v>792</v>
+      </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="K18" s="2">
         <v>20210705</v>
@@ -14174,11 +14970,15 @@
       <c r="G19" s="7">
         <v>1000</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2">
+        <v>102</v>
+      </c>
+      <c r="I19" s="2">
+        <v>870</v>
+      </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="K19" s="2">
         <v>20210705</v>
@@ -14220,7 +15020,7 @@
         <v>882</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J20:J55" si="1">I20-H20</f>
         <v>793</v>
       </c>
       <c r="K20" s="2">
@@ -14263,7 +15063,7 @@
         <v>869</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>781</v>
       </c>
       <c r="K21" s="2">
@@ -14306,7 +15106,7 @@
         <v>841</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>752</v>
       </c>
       <c r="K22" s="2">
@@ -14349,7 +15149,7 @@
         <v>852</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749</v>
       </c>
       <c r="K23" s="2">
@@ -14392,7 +15192,7 @@
         <v>890</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>801</v>
       </c>
       <c r="K24" s="2">
@@ -14435,7 +15235,7 @@
         <v>850</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>762</v>
       </c>
       <c r="K25" s="2">
@@ -14478,7 +15278,7 @@
         <v>879</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>792</v>
       </c>
       <c r="K26" s="2">
@@ -14521,7 +15321,7 @@
         <v>864</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>775</v>
       </c>
       <c r="K27" s="2">
@@ -14564,7 +15364,7 @@
         <v>885</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>797</v>
       </c>
       <c r="K28" s="2">
@@ -14607,7 +15407,7 @@
         <v>838</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749</v>
       </c>
       <c r="K29" s="2">
@@ -14650,7 +15450,7 @@
         <v>848</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>759</v>
       </c>
       <c r="K30" s="2">
@@ -14693,7 +15493,7 @@
         <v>737</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>649</v>
       </c>
       <c r="K31" s="2">
@@ -14736,7 +15536,7 @@
         <v>891</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>802</v>
       </c>
       <c r="K32" s="2">
@@ -14779,7 +15579,7 @@
         <v>836</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>747</v>
       </c>
       <c r="K33" s="2">
@@ -14822,7 +15622,7 @@
         <v>929</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>826</v>
       </c>
       <c r="K34" s="2">
@@ -14865,7 +15665,7 @@
         <v>785</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>698</v>
       </c>
       <c r="K35" s="2">
@@ -14908,7 +15708,7 @@
         <v>850</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="K36" s="2">
@@ -14951,7 +15751,7 @@
         <v>853</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>752</v>
       </c>
       <c r="K37" s="2">
@@ -14987,11 +15787,15 @@
       <c r="G38" s="7">
         <v>1000</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="8">
+        <v>105</v>
+      </c>
+      <c r="I38" s="8">
+        <v>840</v>
+      </c>
       <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>735</v>
       </c>
       <c r="K38" s="2">
         <v>20210709</v>
@@ -15026,11 +15830,15 @@
       <c r="G39" s="7">
         <v>1000</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="8">
+        <v>89</v>
+      </c>
+      <c r="I39" s="8">
+        <v>889</v>
+      </c>
       <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="K39" s="2">
         <v>20210709</v>
@@ -15065,11 +15873,15 @@
       <c r="G40" s="7">
         <v>1000</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="H40" s="8">
+        <v>88</v>
+      </c>
+      <c r="I40" s="8">
+        <v>868</v>
+      </c>
       <c r="J40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>780</v>
       </c>
       <c r="K40" s="2">
         <v>20210709</v>
@@ -15104,11 +15916,15 @@
       <c r="G41" s="7">
         <v>1000</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="H41" s="8">
+        <v>89</v>
+      </c>
+      <c r="I41" s="8">
+        <v>845</v>
+      </c>
       <c r="J41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>756</v>
       </c>
       <c r="K41" s="2">
         <v>20210709</v>
@@ -15143,11 +15959,15 @@
       <c r="G42" s="7">
         <v>1000</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="8">
+        <v>88</v>
+      </c>
+      <c r="I42" s="8">
+        <v>807</v>
+      </c>
       <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>719</v>
       </c>
       <c r="K42" s="2">
         <v>20210709</v>
@@ -15182,11 +16002,15 @@
       <c r="G43" s="7">
         <v>1000</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="H43" s="8">
+        <v>88</v>
+      </c>
+      <c r="I43" s="8">
+        <v>806</v>
+      </c>
       <c r="J43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>718</v>
       </c>
       <c r="K43" s="2">
         <v>20210709</v>
@@ -15221,11 +16045,15 @@
       <c r="G44" s="7">
         <v>1000</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="H44" s="8">
+        <v>89</v>
+      </c>
+      <c r="I44" s="8">
+        <v>766</v>
+      </c>
       <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>677</v>
       </c>
       <c r="K44" s="2">
         <v>20210709</v>
@@ -15260,11 +16088,15 @@
       <c r="G45" s="7">
         <v>1000</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="8">
+        <v>90</v>
+      </c>
+      <c r="I45" s="8">
+        <v>794</v>
+      </c>
       <c r="J45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>704</v>
       </c>
       <c r="K45" s="2">
         <v>20210709</v>
@@ -15299,11 +16131,15 @@
       <c r="G46" s="7">
         <v>1000</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="H46" s="8">
+        <v>90</v>
+      </c>
+      <c r="I46" s="8">
+        <v>776</v>
+      </c>
       <c r="J46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>686</v>
       </c>
       <c r="K46" s="2">
         <v>20210709</v>
@@ -15338,11 +16174,15 @@
       <c r="G47" s="7">
         <v>1000</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="8">
+        <v>89</v>
+      </c>
+      <c r="I47" s="8">
+        <v>747</v>
+      </c>
       <c r="J47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>658</v>
       </c>
       <c r="K47" s="2">
         <v>20210709</v>
@@ -15377,11 +16217,15 @@
       <c r="G48" s="7">
         <v>1000</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="8">
+        <v>90</v>
+      </c>
+      <c r="I48" s="8">
+        <v>840</v>
+      </c>
       <c r="J48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
       <c r="K48" s="2">
         <v>20210709</v>
@@ -15416,11 +16260,15 @@
       <c r="G49" s="7">
         <v>1000</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="H49" s="8">
+        <v>90</v>
+      </c>
+      <c r="I49" s="8">
+        <v>841</v>
+      </c>
       <c r="J49" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K49" s="2">
         <v>20210709</v>
@@ -15455,11 +16303,15 @@
       <c r="G50" s="7">
         <v>1000</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="H50" s="8">
+        <v>90</v>
+      </c>
+      <c r="I50" s="8">
+        <v>912</v>
+      </c>
       <c r="J50" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>822</v>
       </c>
       <c r="K50" s="2">
         <v>20210709</v>
@@ -15494,11 +16346,15 @@
       <c r="G51" s="7">
         <v>1000</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="H51" s="8">
+        <v>89</v>
+      </c>
+      <c r="I51" s="8">
+        <v>856</v>
+      </c>
       <c r="J51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>767</v>
       </c>
       <c r="K51" s="2">
         <v>20210709</v>
@@ -15533,11 +16389,15 @@
       <c r="G52" s="7">
         <v>1000</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="H52" s="8">
+        <v>89</v>
+      </c>
+      <c r="I52" s="8">
+        <v>840</v>
+      </c>
       <c r="J52" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K52" s="2">
         <v>20210709</v>
@@ -15572,11 +16432,15 @@
       <c r="G53" s="7">
         <v>1000</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="H53" s="8">
+        <v>90</v>
+      </c>
+      <c r="I53" s="8">
+        <v>856</v>
+      </c>
       <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>766</v>
       </c>
       <c r="K53" s="2">
         <v>20210709</v>
@@ -15611,11 +16475,15 @@
       <c r="G54" s="7">
         <v>1000</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="8">
+        <v>90</v>
+      </c>
+      <c r="I54" s="8">
+        <v>779</v>
+      </c>
       <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>689</v>
       </c>
       <c r="K54" s="2">
         <v>20210709</v>
@@ -15650,15 +16518,2089 @@
       <c r="G55" s="7">
         <v>1000</v>
       </c>
+      <c r="H55" s="8">
+        <v>89</v>
+      </c>
+      <c r="I55" s="8">
+        <v>872</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="K55" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68179993-6ED1-5244-B42A-B5CF1DC827DC}">
+  <dimension ref="A1:P56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <f>I2-H2</f>
+        <v>-89</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J55" si="0">I3-H3</f>
+        <v>-88</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="K6" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>89</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>89</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>-105</v>
+      </c>
+      <c r="K15" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>89</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="K17" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>101</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>-101</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>-87</v>
+      </c>
+      <c r="K19" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <v>7</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>7</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>7</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>7</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>7</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>7</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>7</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>7</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>7</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>7</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>7</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>7</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>7</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>7</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>7</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1000</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="2">
-        <v>20210709</v>
-      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
         <v>230</v>
       </c>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grace\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D81F04-CB85-4673-BC5E-39CB5B04B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3B0896-12AD-4731-93DB-AD7DD80D2C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-110" windowWidth="18230" windowHeight="11020" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="1080" yWindow="-110" windowWidth="18230" windowHeight="11020" activeTab="6" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Rainfall 4" sheetId="4" r:id="rId4"/>
     <sheet name="Rainfall 5" sheetId="5" r:id="rId5"/>
     <sheet name="Rainfall 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Rainfall 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="833">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -1602,6 +1603,996 @@
   </si>
   <si>
     <t>column_length</t>
+  </si>
+  <si>
+    <t>SSCAMR00324</t>
+  </si>
+  <si>
+    <t>SSCAMR00325</t>
+  </si>
+  <si>
+    <t>SSCAMR00326</t>
+  </si>
+  <si>
+    <t>SSCAMR00327</t>
+  </si>
+  <si>
+    <t>SSCAMR00328</t>
+  </si>
+  <si>
+    <t>SSCAMR00329</t>
+  </si>
+  <si>
+    <t>SSCAMR00330</t>
+  </si>
+  <si>
+    <t>SSCAMR00331</t>
+  </si>
+  <si>
+    <t>SSCAMR00332</t>
+  </si>
+  <si>
+    <t>SSCAMR00333</t>
+  </si>
+  <si>
+    <t>SSCAMR00334</t>
+  </si>
+  <si>
+    <t>SSCAMR00335</t>
+  </si>
+  <si>
+    <t>SSCAMR00336</t>
+  </si>
+  <si>
+    <t>SSCAMR00337</t>
+  </si>
+  <si>
+    <t>SSCAMR00338</t>
+  </si>
+  <si>
+    <t>SSCAMR00339</t>
+  </si>
+  <si>
+    <t>SSCAMR00340</t>
+  </si>
+  <si>
+    <t>SSCAMR00341</t>
+  </si>
+  <si>
+    <t>SSCAMR00342</t>
+  </si>
+  <si>
+    <t>SSCAMR00343</t>
+  </si>
+  <si>
+    <t>SSCAMR00344</t>
+  </si>
+  <si>
+    <t>SSCAMR00345</t>
+  </si>
+  <si>
+    <t>SSCAMR00346</t>
+  </si>
+  <si>
+    <t>SSCAMR00347</t>
+  </si>
+  <si>
+    <t>SSCAMR00348</t>
+  </si>
+  <si>
+    <t>SSCAMR00349</t>
+  </si>
+  <si>
+    <t>SSCAMR00350</t>
+  </si>
+  <si>
+    <t>SSCAMR00351</t>
+  </si>
+  <si>
+    <t>SSCAMR00352</t>
+  </si>
+  <si>
+    <t>SSCAMR00353</t>
+  </si>
+  <si>
+    <t>SSCAMR00354</t>
+  </si>
+  <si>
+    <t>SSCAMR00355</t>
+  </si>
+  <si>
+    <t>SSCAMR00356</t>
+  </si>
+  <si>
+    <t>SSCAMR00357</t>
+  </si>
+  <si>
+    <t>SSCAMR00358</t>
+  </si>
+  <si>
+    <t>SSCAMR00359</t>
+  </si>
+  <si>
+    <t>SSCAMR00360</t>
+  </si>
+  <si>
+    <t>SSCAMR00361</t>
+  </si>
+  <si>
+    <t>SSCAMR00362</t>
+  </si>
+  <si>
+    <t>SSCAMR00363</t>
+  </si>
+  <si>
+    <t>SSCAMR00364</t>
+  </si>
+  <si>
+    <t>SSCAMR00365</t>
+  </si>
+  <si>
+    <t>SSCAMR00366</t>
+  </si>
+  <si>
+    <t>SSCAMR00367</t>
+  </si>
+  <si>
+    <t>SSCAMR00368</t>
+  </si>
+  <si>
+    <t>SSCAMR00369</t>
+  </si>
+  <si>
+    <t>SSCAMR00370</t>
+  </si>
+  <si>
+    <t>SSCAMR00371</t>
+  </si>
+  <si>
+    <t>SSCAMR00372</t>
+  </si>
+  <si>
+    <t>SSCAMR00373</t>
+  </si>
+  <si>
+    <t>SSCAMR00374</t>
+  </si>
+  <si>
+    <t>SSCAMR00375</t>
+  </si>
+  <si>
+    <t>SSCAMR00376</t>
+  </si>
+  <si>
+    <t>SSCAMR00377</t>
+  </si>
+  <si>
+    <t>C04R6</t>
+  </si>
+  <si>
+    <t>C05R6</t>
+  </si>
+  <si>
+    <t>C06R6</t>
+  </si>
+  <si>
+    <t>C07R6</t>
+  </si>
+  <si>
+    <t>C08R6</t>
+  </si>
+  <si>
+    <t>C09R6</t>
+  </si>
+  <si>
+    <t>C10R6</t>
+  </si>
+  <si>
+    <t>C11R6</t>
+  </si>
+  <si>
+    <t>C12R6</t>
+  </si>
+  <si>
+    <t>C13R6</t>
+  </si>
+  <si>
+    <t>C14R6</t>
+  </si>
+  <si>
+    <t>C15R6</t>
+  </si>
+  <si>
+    <t>C16R6</t>
+  </si>
+  <si>
+    <t>C17R6</t>
+  </si>
+  <si>
+    <t>C18R6</t>
+  </si>
+  <si>
+    <t>C19R6</t>
+  </si>
+  <si>
+    <t>C20R6</t>
+  </si>
+  <si>
+    <t>C21R6</t>
+  </si>
+  <si>
+    <t>C22R6</t>
+  </si>
+  <si>
+    <t>C23R6</t>
+  </si>
+  <si>
+    <t>C24R6</t>
+  </si>
+  <si>
+    <t>C25R6</t>
+  </si>
+  <si>
+    <t>C26R6</t>
+  </si>
+  <si>
+    <t>C27R6</t>
+  </si>
+  <si>
+    <t>C28R6</t>
+  </si>
+  <si>
+    <t>C29R6</t>
+  </si>
+  <si>
+    <t>C30R6</t>
+  </si>
+  <si>
+    <t>C31R6</t>
+  </si>
+  <si>
+    <t>C32R6</t>
+  </si>
+  <si>
+    <t>C33R6</t>
+  </si>
+  <si>
+    <t>C34R6</t>
+  </si>
+  <si>
+    <t>C35R6</t>
+  </si>
+  <si>
+    <t>C36R6</t>
+  </si>
+  <si>
+    <t>C37R6</t>
+  </si>
+  <si>
+    <t>C38R6</t>
+  </si>
+  <si>
+    <t>C39R6</t>
+  </si>
+  <si>
+    <t>C40R6</t>
+  </si>
+  <si>
+    <t>C41R6</t>
+  </si>
+  <si>
+    <t>C42R6</t>
+  </si>
+  <si>
+    <t>C43R6</t>
+  </si>
+  <si>
+    <t>C44R6</t>
+  </si>
+  <si>
+    <t>C45R6</t>
+  </si>
+  <si>
+    <t>C46R6</t>
+  </si>
+  <si>
+    <t>C47R6</t>
+  </si>
+  <si>
+    <t>C48R6</t>
+  </si>
+  <si>
+    <t>C49R6</t>
+  </si>
+  <si>
+    <t>C50R6</t>
+  </si>
+  <si>
+    <t>C51R6</t>
+  </si>
+  <si>
+    <t>C52R6</t>
+  </si>
+  <si>
+    <t>C53R6</t>
+  </si>
+  <si>
+    <t>C54R6</t>
+  </si>
+  <si>
+    <t>C02R6</t>
+  </si>
+  <si>
+    <t>C03R6</t>
+  </si>
+  <si>
+    <t>C01R6</t>
+  </si>
+  <si>
+    <t>C01R5</t>
+  </si>
+  <si>
+    <t>C02R5</t>
+  </si>
+  <si>
+    <t>C03R5</t>
+  </si>
+  <si>
+    <t>C04R5</t>
+  </si>
+  <si>
+    <t>C05R5</t>
+  </si>
+  <si>
+    <t>C06R5</t>
+  </si>
+  <si>
+    <t>C07R5</t>
+  </si>
+  <si>
+    <t>C08R5</t>
+  </si>
+  <si>
+    <t>C09R5</t>
+  </si>
+  <si>
+    <t>C10R5</t>
+  </si>
+  <si>
+    <t>C11R5</t>
+  </si>
+  <si>
+    <t>C12R5</t>
+  </si>
+  <si>
+    <t>C13R5</t>
+  </si>
+  <si>
+    <t>C14R5</t>
+  </si>
+  <si>
+    <t>C15R5</t>
+  </si>
+  <si>
+    <t>C16R5</t>
+  </si>
+  <si>
+    <t>C17R5</t>
+  </si>
+  <si>
+    <t>C18R5</t>
+  </si>
+  <si>
+    <t>C19R5</t>
+  </si>
+  <si>
+    <t>C20R5</t>
+  </si>
+  <si>
+    <t>C21R5</t>
+  </si>
+  <si>
+    <t>C22R5</t>
+  </si>
+  <si>
+    <t>C23R5</t>
+  </si>
+  <si>
+    <t>C24R5</t>
+  </si>
+  <si>
+    <t>C25R5</t>
+  </si>
+  <si>
+    <t>C26R5</t>
+  </si>
+  <si>
+    <t>C27R5</t>
+  </si>
+  <si>
+    <t>C28R5</t>
+  </si>
+  <si>
+    <t>C29R5</t>
+  </si>
+  <si>
+    <t>C30R5</t>
+  </si>
+  <si>
+    <t>C31R5</t>
+  </si>
+  <si>
+    <t>C32R5</t>
+  </si>
+  <si>
+    <t>C33R5</t>
+  </si>
+  <si>
+    <t>C34R5</t>
+  </si>
+  <si>
+    <t>C35R5</t>
+  </si>
+  <si>
+    <t>C36R5</t>
+  </si>
+  <si>
+    <t>C37R5</t>
+  </si>
+  <si>
+    <t>C38R5</t>
+  </si>
+  <si>
+    <t>C39R5</t>
+  </si>
+  <si>
+    <t>C40R5</t>
+  </si>
+  <si>
+    <t>C41R5</t>
+  </si>
+  <si>
+    <t>C42R5</t>
+  </si>
+  <si>
+    <t>C43R5</t>
+  </si>
+  <si>
+    <t>C44R5</t>
+  </si>
+  <si>
+    <t>C45R5</t>
+  </si>
+  <si>
+    <t>C46R5</t>
+  </si>
+  <si>
+    <t>C47R5</t>
+  </si>
+  <si>
+    <t>C48R5</t>
+  </si>
+  <si>
+    <t>C49R5</t>
+  </si>
+  <si>
+    <t>C50R5</t>
+  </si>
+  <si>
+    <t>C51R5</t>
+  </si>
+  <si>
+    <t>C52R5</t>
+  </si>
+  <si>
+    <t>C53R5</t>
+  </si>
+  <si>
+    <t>C54R5</t>
+  </si>
+  <si>
+    <t>C01R3</t>
+  </si>
+  <si>
+    <t>C02R3</t>
+  </si>
+  <si>
+    <t>C03R3</t>
+  </si>
+  <si>
+    <t>C04R3</t>
+  </si>
+  <si>
+    <t>C05R3</t>
+  </si>
+  <si>
+    <t>C06R3</t>
+  </si>
+  <si>
+    <t>C07R3</t>
+  </si>
+  <si>
+    <t>C08R3</t>
+  </si>
+  <si>
+    <t>C09R3</t>
+  </si>
+  <si>
+    <t>C10R3</t>
+  </si>
+  <si>
+    <t>C11R3</t>
+  </si>
+  <si>
+    <t>C12R3</t>
+  </si>
+  <si>
+    <t>C13R3</t>
+  </si>
+  <si>
+    <t>C14R3</t>
+  </si>
+  <si>
+    <t>C15R3</t>
+  </si>
+  <si>
+    <t>C16R3</t>
+  </si>
+  <si>
+    <t>C17R3</t>
+  </si>
+  <si>
+    <t>C18R3</t>
+  </si>
+  <si>
+    <t>C19R3</t>
+  </si>
+  <si>
+    <t>C20R3</t>
+  </si>
+  <si>
+    <t>C21R3</t>
+  </si>
+  <si>
+    <t>C22R3</t>
+  </si>
+  <si>
+    <t>C23R3</t>
+  </si>
+  <si>
+    <t>C24R3</t>
+  </si>
+  <si>
+    <t>C25R3</t>
+  </si>
+  <si>
+    <t>C26R3</t>
+  </si>
+  <si>
+    <t>C27R3</t>
+  </si>
+  <si>
+    <t>C28R3</t>
+  </si>
+  <si>
+    <t>C29R3</t>
+  </si>
+  <si>
+    <t>C30R3</t>
+  </si>
+  <si>
+    <t>C31R3</t>
+  </si>
+  <si>
+    <t>C32R3</t>
+  </si>
+  <si>
+    <t>C33R3</t>
+  </si>
+  <si>
+    <t>C34R3</t>
+  </si>
+  <si>
+    <t>C35R3</t>
+  </si>
+  <si>
+    <t>C36R3</t>
+  </si>
+  <si>
+    <t>C37R3</t>
+  </si>
+  <si>
+    <t>C38R3</t>
+  </si>
+  <si>
+    <t>C39R3</t>
+  </si>
+  <si>
+    <t>C40R3</t>
+  </si>
+  <si>
+    <t>C41R3</t>
+  </si>
+  <si>
+    <t>C42R3</t>
+  </si>
+  <si>
+    <t>C43R3</t>
+  </si>
+  <si>
+    <t>C44R3</t>
+  </si>
+  <si>
+    <t>C45R3</t>
+  </si>
+  <si>
+    <t>C46R3</t>
+  </si>
+  <si>
+    <t>C47R3</t>
+  </si>
+  <si>
+    <t>C48R3</t>
+  </si>
+  <si>
+    <t>C49R3</t>
+  </si>
+  <si>
+    <t>C50R3</t>
+  </si>
+  <si>
+    <t>C51R3</t>
+  </si>
+  <si>
+    <t>C52R3</t>
+  </si>
+  <si>
+    <t>C53R3</t>
+  </si>
+  <si>
+    <t>C54R3</t>
+  </si>
+  <si>
+    <t>SSCAMR00378</t>
+  </si>
+  <si>
+    <t>SSCAMR00379</t>
+  </si>
+  <si>
+    <t>SSCAMR00380</t>
+  </si>
+  <si>
+    <t>SSCAMR00381</t>
+  </si>
+  <si>
+    <t>SSCAMR00382</t>
+  </si>
+  <si>
+    <t>SSCAMR00383</t>
+  </si>
+  <si>
+    <t>SSCAMR00384</t>
+  </si>
+  <si>
+    <t>SSCAMR00385</t>
+  </si>
+  <si>
+    <t>SSCAMR00386</t>
+  </si>
+  <si>
+    <t>SSCAMR00387</t>
+  </si>
+  <si>
+    <t>SSCAMR00388</t>
+  </si>
+  <si>
+    <t>SSCAMR00389</t>
+  </si>
+  <si>
+    <t>SSCAMR00390</t>
+  </si>
+  <si>
+    <t>SSCAMR00391</t>
+  </si>
+  <si>
+    <t>SSCAMR00392</t>
+  </si>
+  <si>
+    <t>SSCAMR00393</t>
+  </si>
+  <si>
+    <t>SSCAMR00394</t>
+  </si>
+  <si>
+    <t>SSCAMR00395</t>
+  </si>
+  <si>
+    <t>SSCAMR00396</t>
+  </si>
+  <si>
+    <t>SSCAMR00397</t>
+  </si>
+  <si>
+    <t>SSCAMR00398</t>
+  </si>
+  <si>
+    <t>SSCAMR00399</t>
+  </si>
+  <si>
+    <t>SSCAMR00400</t>
+  </si>
+  <si>
+    <t>SSCAMR00401</t>
+  </si>
+  <si>
+    <t>SSCAMR00402</t>
+  </si>
+  <si>
+    <t>SSCAMR00403</t>
+  </si>
+  <si>
+    <t>SSCAMR00404</t>
+  </si>
+  <si>
+    <t>SSCAMR00405</t>
+  </si>
+  <si>
+    <t>SSCAMR00406</t>
+  </si>
+  <si>
+    <t>SSCAMR00407</t>
+  </si>
+  <si>
+    <t>SSCAMR00408</t>
+  </si>
+  <si>
+    <t>SSCAMR00409</t>
+  </si>
+  <si>
+    <t>SSCAMR00410</t>
+  </si>
+  <si>
+    <t>SSCAMR00411</t>
+  </si>
+  <si>
+    <t>SSCAMR00412</t>
+  </si>
+  <si>
+    <t>SSCAMR00413</t>
+  </si>
+  <si>
+    <t>SSCAMR00414</t>
+  </si>
+  <si>
+    <t>SSCAMR00415</t>
+  </si>
+  <si>
+    <t>SSCAMR00416</t>
+  </si>
+  <si>
+    <t>SSCAMR00417</t>
+  </si>
+  <si>
+    <t>SSCAMR00418</t>
+  </si>
+  <si>
+    <t>SSCAMR00419</t>
+  </si>
+  <si>
+    <t>SSCAMR00420</t>
+  </si>
+  <si>
+    <t>SSCAMR00421</t>
+  </si>
+  <si>
+    <t>SSCAMR00422</t>
+  </si>
+  <si>
+    <t>SSCAMR00423</t>
+  </si>
+  <si>
+    <t>SSCAMR00424</t>
+  </si>
+  <si>
+    <t>SSCAMR00425</t>
+  </si>
+  <si>
+    <t>SSCAMR00426</t>
+  </si>
+  <si>
+    <t>SSCAMR00427</t>
+  </si>
+  <si>
+    <t>SSCAMR00428</t>
+  </si>
+  <si>
+    <t>SSCAMR00429</t>
+  </si>
+  <si>
+    <t>SSCAMR00430</t>
+  </si>
+  <si>
+    <t>SSCAMR00431</t>
+  </si>
+  <si>
+    <t>C01R7</t>
+  </si>
+  <si>
+    <t>C02R7</t>
+  </si>
+  <si>
+    <t>C03R7</t>
+  </si>
+  <si>
+    <t>C04R7</t>
+  </si>
+  <si>
+    <t>C05R7</t>
+  </si>
+  <si>
+    <t>C06R7</t>
+  </si>
+  <si>
+    <t>C07R7</t>
+  </si>
+  <si>
+    <t>C08R7</t>
+  </si>
+  <si>
+    <t>C09R7</t>
+  </si>
+  <si>
+    <t>C10R7</t>
+  </si>
+  <si>
+    <t>C11R7</t>
+  </si>
+  <si>
+    <t>C12R7</t>
+  </si>
+  <si>
+    <t>C13R7</t>
+  </si>
+  <si>
+    <t>C14R7</t>
+  </si>
+  <si>
+    <t>C15R7</t>
+  </si>
+  <si>
+    <t>C16R7</t>
+  </si>
+  <si>
+    <t>C17R7</t>
+  </si>
+  <si>
+    <t>C18R7</t>
+  </si>
+  <si>
+    <t>C19R7</t>
+  </si>
+  <si>
+    <t>C20R7</t>
+  </si>
+  <si>
+    <t>C21R7</t>
+  </si>
+  <si>
+    <t>C22R7</t>
+  </si>
+  <si>
+    <t>C23R7</t>
+  </si>
+  <si>
+    <t>C24R7</t>
+  </si>
+  <si>
+    <t>C25R7</t>
+  </si>
+  <si>
+    <t>C26R7</t>
+  </si>
+  <si>
+    <t>C27R7</t>
+  </si>
+  <si>
+    <t>C28R7</t>
+  </si>
+  <si>
+    <t>C29R7</t>
+  </si>
+  <si>
+    <t>C30R7</t>
+  </si>
+  <si>
+    <t>C31R7</t>
+  </si>
+  <si>
+    <t>C32R7</t>
+  </si>
+  <si>
+    <t>C33R7</t>
+  </si>
+  <si>
+    <t>C34R7</t>
+  </si>
+  <si>
+    <t>C35R7</t>
+  </si>
+  <si>
+    <t>C36R7</t>
+  </si>
+  <si>
+    <t>C37R7</t>
+  </si>
+  <si>
+    <t>C38R7</t>
+  </si>
+  <si>
+    <t>C39R7</t>
+  </si>
+  <si>
+    <t>C40R7</t>
+  </si>
+  <si>
+    <t>C41R7</t>
+  </si>
+  <si>
+    <t>C42R7</t>
+  </si>
+  <si>
+    <t>C43R7</t>
+  </si>
+  <si>
+    <t>C44R7</t>
+  </si>
+  <si>
+    <t>C45R7</t>
+  </si>
+  <si>
+    <t>C46R7</t>
+  </si>
+  <si>
+    <t>C47R7</t>
+  </si>
+  <si>
+    <t>C48R7</t>
+  </si>
+  <si>
+    <t>C49R7</t>
+  </si>
+  <si>
+    <t>C50R7</t>
+  </si>
+  <si>
+    <t>C51R7</t>
+  </si>
+  <si>
+    <t>C52R7</t>
+  </si>
+  <si>
+    <t>C53R7</t>
+  </si>
+  <si>
+    <t>C54R7</t>
+  </si>
+  <si>
+    <t>CX1R7</t>
+  </si>
+  <si>
+    <t>CX2R7</t>
+  </si>
+  <si>
+    <t>CX1</t>
+  </si>
+  <si>
+    <t>CX2</t>
+  </si>
+  <si>
+    <t>SSCAMR00432</t>
+  </si>
+  <si>
+    <t>SSCAMR00433</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +2621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,6 +2638,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1690,7 +2687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1702,6 +2699,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6206,7 +7205,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B55" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6283,7 +7282,7 @@
         <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
         <v>286</v>
@@ -6322,7 +7321,7 @@
         <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
         <v>287</v>
@@ -6361,7 +7360,7 @@
         <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>288</v>
@@ -6400,7 +7399,7 @@
         <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
         <v>289</v>
@@ -6439,7 +7438,7 @@
         <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>669</v>
       </c>
       <c r="C6" t="s">
         <v>290</v>
@@ -6478,7 +7477,7 @@
         <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
         <v>291</v>
@@ -6517,7 +7516,7 @@
         <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>671</v>
       </c>
       <c r="C8" t="s">
         <v>292</v>
@@ -6556,7 +7555,7 @@
         <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>672</v>
       </c>
       <c r="C9" t="s">
         <v>293</v>
@@ -6595,7 +7594,7 @@
         <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>673</v>
       </c>
       <c r="C10" t="s">
         <v>294</v>
@@ -6634,7 +7633,7 @@
         <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>674</v>
       </c>
       <c r="C11" t="s">
         <v>295</v>
@@ -6673,7 +7672,7 @@
         <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>675</v>
       </c>
       <c r="C12" t="s">
         <v>296</v>
@@ -6712,7 +7711,7 @@
         <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>676</v>
       </c>
       <c r="C13" t="s">
         <v>297</v>
@@ -6751,7 +7750,7 @@
         <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>677</v>
       </c>
       <c r="C14" t="s">
         <v>298</v>
@@ -6790,7 +7789,7 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>678</v>
       </c>
       <c r="C15" t="s">
         <v>299</v>
@@ -6829,7 +7828,7 @@
         <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
         <v>300</v>
@@ -6868,7 +7867,7 @@
         <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>680</v>
       </c>
       <c r="C17" t="s">
         <v>301</v>
@@ -6907,7 +7906,7 @@
         <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>681</v>
       </c>
       <c r="C18" t="s">
         <v>302</v>
@@ -6946,7 +7945,7 @@
         <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>682</v>
       </c>
       <c r="C19" t="s">
         <v>303</v>
@@ -6985,7 +7984,7 @@
         <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>683</v>
       </c>
       <c r="C20" t="s">
         <v>304</v>
@@ -7024,7 +8023,7 @@
         <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>684</v>
       </c>
       <c r="C21" t="s">
         <v>305</v>
@@ -7063,7 +8062,7 @@
         <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>361</v>
+        <v>685</v>
       </c>
       <c r="C22" t="s">
         <v>306</v>
@@ -7102,7 +8101,7 @@
         <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>362</v>
+        <v>686</v>
       </c>
       <c r="C23" t="s">
         <v>307</v>
@@ -7141,7 +8140,7 @@
         <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>687</v>
       </c>
       <c r="C24" t="s">
         <v>308</v>
@@ -7180,7 +8179,7 @@
         <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>688</v>
       </c>
       <c r="C25" t="s">
         <v>309</v>
@@ -7219,7 +8218,7 @@
         <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>689</v>
       </c>
       <c r="C26" t="s">
         <v>310</v>
@@ -7258,7 +8257,7 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>690</v>
       </c>
       <c r="C27" t="s">
         <v>311</v>
@@ -7297,7 +8296,7 @@
         <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>691</v>
       </c>
       <c r="C28" t="s">
         <v>312</v>
@@ -7336,7 +8335,7 @@
         <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>692</v>
       </c>
       <c r="C29" t="s">
         <v>313</v>
@@ -7375,7 +8374,7 @@
         <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>693</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -7414,7 +8413,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>694</v>
       </c>
       <c r="C31" t="s">
         <v>315</v>
@@ -7453,7 +8452,7 @@
         <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>695</v>
       </c>
       <c r="C32" t="s">
         <v>316</v>
@@ -7492,7 +8491,7 @@
         <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>372</v>
+        <v>696</v>
       </c>
       <c r="C33" t="s">
         <v>317</v>
@@ -7531,7 +8530,7 @@
         <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>373</v>
+        <v>697</v>
       </c>
       <c r="C34" t="s">
         <v>318</v>
@@ -7570,7 +8569,7 @@
         <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>374</v>
+        <v>698</v>
       </c>
       <c r="C35" t="s">
         <v>319</v>
@@ -7609,7 +8608,7 @@
         <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>699</v>
       </c>
       <c r="C36" t="s">
         <v>320</v>
@@ -7648,7 +8647,7 @@
         <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="C37" t="s">
         <v>321</v>
@@ -7687,7 +8686,7 @@
         <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>701</v>
       </c>
       <c r="C38" t="s">
         <v>322</v>
@@ -7726,7 +8725,7 @@
         <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>702</v>
       </c>
       <c r="C39" t="s">
         <v>323</v>
@@ -7765,7 +8764,7 @@
         <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>703</v>
       </c>
       <c r="C40" t="s">
         <v>324</v>
@@ -7804,7 +8803,7 @@
         <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>704</v>
       </c>
       <c r="C41" t="s">
         <v>325</v>
@@ -7843,7 +8842,7 @@
         <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>381</v>
+        <v>705</v>
       </c>
       <c r="C42" t="s">
         <v>326</v>
@@ -7882,7 +8881,7 @@
         <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>706</v>
       </c>
       <c r="C43" t="s">
         <v>327</v>
@@ -7921,7 +8920,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>707</v>
       </c>
       <c r="C44" t="s">
         <v>328</v>
@@ -7960,7 +8959,7 @@
         <v>274</v>
       </c>
       <c r="B45" t="s">
-        <v>384</v>
+        <v>708</v>
       </c>
       <c r="C45" t="s">
         <v>329</v>
@@ -7999,7 +8998,7 @@
         <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>709</v>
       </c>
       <c r="C46" t="s">
         <v>330</v>
@@ -8038,7 +9037,7 @@
         <v>276</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>710</v>
       </c>
       <c r="C47" t="s">
         <v>331</v>
@@ -8077,7 +9076,7 @@
         <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>711</v>
       </c>
       <c r="C48" t="s">
         <v>332</v>
@@ -8116,7 +9115,7 @@
         <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>712</v>
       </c>
       <c r="C49" t="s">
         <v>333</v>
@@ -8155,7 +9154,7 @@
         <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>713</v>
       </c>
       <c r="C50" t="s">
         <v>334</v>
@@ -8194,7 +9193,7 @@
         <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>714</v>
       </c>
       <c r="C51" t="s">
         <v>335</v>
@@ -8233,7 +9232,7 @@
         <v>281</v>
       </c>
       <c r="B52" t="s">
-        <v>391</v>
+        <v>715</v>
       </c>
       <c r="C52" t="s">
         <v>336</v>
@@ -8272,7 +9271,7 @@
         <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>716</v>
       </c>
       <c r="C53" t="s">
         <v>337</v>
@@ -8311,7 +9310,7 @@
         <v>283</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>717</v>
       </c>
       <c r="C54" t="s">
         <v>338</v>
@@ -8350,7 +9349,7 @@
         <v>284</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>718</v>
       </c>
       <c r="C55" t="s">
         <v>339</v>
@@ -10786,8 +11785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B55" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10850,7 +11849,7 @@
         <v>448</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>611</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>286</v>
@@ -10893,7 +11892,7 @@
         <v>449</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>612</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>287</v>
@@ -10936,7 +11935,7 @@
         <v>450</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>343</v>
+        <v>613</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>288</v>
@@ -10979,7 +11978,7 @@
         <v>451</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>344</v>
+        <v>614</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>289</v>
@@ -11022,7 +12021,7 @@
         <v>452</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>290</v>
@@ -11065,7 +12064,7 @@
         <v>453</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>346</v>
+        <v>616</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>291</v>
@@ -11108,7 +12107,7 @@
         <v>454</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>347</v>
+        <v>617</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>292</v>
@@ -11151,7 +12150,7 @@
         <v>455</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>348</v>
+        <v>618</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>293</v>
@@ -11194,7 +12193,7 @@
         <v>456</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>294</v>
@@ -11237,7 +12236,7 @@
         <v>457</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>295</v>
@@ -11280,7 +12279,7 @@
         <v>458</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>351</v>
+        <v>621</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>296</v>
@@ -11323,7 +12322,7 @@
         <v>459</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>352</v>
+        <v>622</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>297</v>
@@ -11366,7 +12365,7 @@
         <v>460</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>353</v>
+        <v>623</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>298</v>
@@ -11409,7 +12408,7 @@
         <v>461</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>354</v>
+        <v>624</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>299</v>
@@ -11452,7 +12451,7 @@
         <v>462</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>355</v>
+        <v>625</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>300</v>
@@ -11495,7 +12494,7 @@
         <v>463</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>356</v>
+        <v>626</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>301</v>
@@ -11538,7 +12537,7 @@
         <v>464</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>357</v>
+        <v>627</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>302</v>
@@ -11581,7 +12580,7 @@
         <v>465</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>358</v>
+        <v>628</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>303</v>
@@ -11624,7 +12623,7 @@
         <v>466</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>359</v>
+        <v>629</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>304</v>
@@ -11667,7 +12666,7 @@
         <v>467</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>305</v>
@@ -11710,7 +12709,7 @@
         <v>468</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>361</v>
+        <v>631</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>306</v>
@@ -11753,7 +12752,7 @@
         <v>469</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>307</v>
@@ -11796,7 +12795,7 @@
         <v>470</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>363</v>
+        <v>633</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>308</v>
@@ -11839,7 +12838,7 @@
         <v>471</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>364</v>
+        <v>634</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>309</v>
@@ -11882,7 +12881,7 @@
         <v>472</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>365</v>
+        <v>635</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>310</v>
@@ -11925,7 +12924,7 @@
         <v>473</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>366</v>
+        <v>636</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>311</v>
@@ -11968,7 +12967,7 @@
         <v>474</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>367</v>
+        <v>637</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>312</v>
@@ -12011,7 +13010,7 @@
         <v>475</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>368</v>
+        <v>638</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>313</v>
@@ -12054,7 +13053,7 @@
         <v>476</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>369</v>
+        <v>639</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>314</v>
@@ -12097,7 +13096,7 @@
         <v>477</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>315</v>
@@ -12140,7 +13139,7 @@
         <v>478</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>371</v>
+        <v>641</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>316</v>
@@ -12183,7 +13182,7 @@
         <v>479</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>372</v>
+        <v>642</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>317</v>
@@ -12226,7 +13225,7 @@
         <v>480</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>373</v>
+        <v>643</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>318</v>
@@ -12269,7 +13268,7 @@
         <v>481</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>374</v>
+        <v>644</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>319</v>
@@ -12312,7 +13311,7 @@
         <v>482</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>375</v>
+        <v>645</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>320</v>
@@ -12355,7 +13354,7 @@
         <v>483</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>376</v>
+        <v>646</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>321</v>
@@ -12398,7 +13397,7 @@
         <v>484</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>377</v>
+        <v>647</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>322</v>
@@ -12415,13 +13414,15 @@
       <c r="G38" s="7">
         <v>1000</v>
       </c>
-      <c r="H38" s="8">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8"/>
+      <c r="H38" s="2">
+        <v>86</v>
+      </c>
+      <c r="I38" s="2">
+        <v>767</v>
+      </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>681</v>
       </c>
       <c r="K38" s="2">
         <v>20210702</v>
@@ -12439,7 +13440,7 @@
         <v>485</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>378</v>
+        <v>648</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>323</v>
@@ -12456,13 +13457,15 @@
       <c r="G39" s="7">
         <v>1000</v>
       </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8"/>
+      <c r="H39" s="2">
+        <v>87</v>
+      </c>
+      <c r="I39" s="2">
+        <v>849</v>
+      </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>762</v>
       </c>
       <c r="K39" s="2">
         <v>20210702</v>
@@ -12480,7 +13483,7 @@
         <v>486</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>379</v>
+        <v>649</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>324</v>
@@ -12497,13 +13500,15 @@
       <c r="G40" s="7">
         <v>1000</v>
       </c>
-      <c r="H40" s="8">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8"/>
+      <c r="H40" s="2">
+        <v>88</v>
+      </c>
+      <c r="I40" s="2">
+        <v>895</v>
+      </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>807</v>
       </c>
       <c r="K40" s="2">
         <v>20210702</v>
@@ -12521,7 +13526,7 @@
         <v>487</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>325</v>
@@ -12538,13 +13543,15 @@
       <c r="G41" s="7">
         <v>1000</v>
       </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8"/>
+      <c r="H41" s="2">
+        <v>89</v>
+      </c>
+      <c r="I41" s="2">
+        <v>821</v>
+      </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>732</v>
       </c>
       <c r="K41" s="2">
         <v>20210702</v>
@@ -12562,7 +13569,7 @@
         <v>488</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>381</v>
+        <v>651</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>326</v>
@@ -12579,13 +13586,15 @@
       <c r="G42" s="7">
         <v>1000</v>
       </c>
-      <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="8"/>
+      <c r="H42" s="2">
+        <v>87</v>
+      </c>
+      <c r="I42" s="2">
+        <v>799</v>
+      </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>712</v>
       </c>
       <c r="K42" s="2">
         <v>20210702</v>
@@ -12603,7 +13612,7 @@
         <v>489</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>382</v>
+        <v>652</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>327</v>
@@ -12620,13 +13629,15 @@
       <c r="G43" s="7">
         <v>1000</v>
       </c>
-      <c r="H43" s="8">
-        <v>1</v>
-      </c>
-      <c r="I43" s="8"/>
+      <c r="H43" s="2">
+        <v>89</v>
+      </c>
+      <c r="I43" s="2">
+        <v>816</v>
+      </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>727</v>
       </c>
       <c r="K43" s="2">
         <v>20210702</v>
@@ -12644,7 +13655,7 @@
         <v>490</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>383</v>
+        <v>653</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>328</v>
@@ -12661,13 +13672,15 @@
       <c r="G44" s="7">
         <v>1000</v>
       </c>
-      <c r="H44" s="8">
-        <v>1</v>
-      </c>
-      <c r="I44" s="8"/>
+      <c r="H44" s="2">
+        <v>89</v>
+      </c>
+      <c r="I44" s="2">
+        <v>828</v>
+      </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>739</v>
       </c>
       <c r="K44" s="2">
         <v>20210702</v>
@@ -12685,7 +13698,7 @@
         <v>491</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>384</v>
+        <v>654</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>329</v>
@@ -12702,13 +13715,15 @@
       <c r="G45" s="7">
         <v>1000</v>
       </c>
-      <c r="H45" s="8">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8"/>
+      <c r="H45" s="2">
+        <v>101</v>
+      </c>
+      <c r="I45" s="2">
+        <v>804</v>
+      </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>703</v>
       </c>
       <c r="K45" s="2">
         <v>20210702</v>
@@ -12726,7 +13741,7 @@
         <v>492</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>385</v>
+        <v>655</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>330</v>
@@ -12743,13 +13758,15 @@
       <c r="G46" s="7">
         <v>1000</v>
       </c>
-      <c r="H46" s="8">
-        <v>1</v>
-      </c>
-      <c r="I46" s="8"/>
+      <c r="H46" s="2">
+        <v>89</v>
+      </c>
+      <c r="I46" s="2">
+        <v>793</v>
+      </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>704</v>
       </c>
       <c r="K46" s="2">
         <v>20210702</v>
@@ -12767,7 +13784,7 @@
         <v>493</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>386</v>
+        <v>656</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>331</v>
@@ -12784,13 +13801,15 @@
       <c r="G47" s="7">
         <v>1000</v>
       </c>
-      <c r="H47" s="8">
-        <v>1</v>
-      </c>
-      <c r="I47" s="8"/>
+      <c r="H47" s="2">
+        <v>87</v>
+      </c>
+      <c r="I47" s="2">
+        <v>818</v>
+      </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>731</v>
       </c>
       <c r="K47" s="2">
         <v>20210702</v>
@@ -12808,7 +13827,7 @@
         <v>494</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>387</v>
+        <v>657</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>332</v>
@@ -12825,13 +13844,15 @@
       <c r="G48" s="7">
         <v>1000</v>
       </c>
-      <c r="H48" s="8">
-        <v>1</v>
-      </c>
-      <c r="I48" s="8"/>
+      <c r="H48" s="2">
+        <v>87</v>
+      </c>
+      <c r="I48" s="2">
+        <v>892</v>
+      </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>805</v>
       </c>
       <c r="K48" s="2">
         <v>20210702</v>
@@ -12849,7 +13870,7 @@
         <v>495</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>388</v>
+        <v>658</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>333</v>
@@ -12866,11 +13887,15 @@
       <c r="G49" s="7">
         <v>1000</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="H49" s="2">
+        <v>89</v>
+      </c>
+      <c r="I49" s="2">
+        <v>864</v>
+      </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="K49" s="2">
         <v>20210702</v>
@@ -12888,7 +13913,7 @@
         <v>496</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>389</v>
+        <v>659</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>334</v>
@@ -12905,13 +13930,15 @@
       <c r="G50" s="7">
         <v>1000</v>
       </c>
-      <c r="H50" s="8">
-        <v>1</v>
-      </c>
-      <c r="I50" s="8"/>
+      <c r="H50" s="2">
+        <v>101</v>
+      </c>
+      <c r="I50" s="2">
+        <v>915</v>
+      </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>814</v>
       </c>
       <c r="K50" s="2">
         <v>20210702</v>
@@ -12929,7 +13956,7 @@
         <v>497</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>335</v>
@@ -12946,11 +13973,15 @@
       <c r="G51" s="7">
         <v>1000</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="H51" s="2">
+        <v>105</v>
+      </c>
+      <c r="I51" s="2">
+        <v>842</v>
+      </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="K51" s="2">
         <v>20210702</v>
@@ -12968,7 +13999,7 @@
         <v>498</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>391</v>
+        <v>661</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>336</v>
@@ -12985,11 +14016,15 @@
       <c r="G52" s="7">
         <v>1000</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="H52" s="2">
+        <v>102</v>
+      </c>
+      <c r="I52" s="2">
+        <v>860</v>
+      </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="K52" s="2">
         <v>20210702</v>
@@ -13007,7 +14042,7 @@
         <v>499</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>392</v>
+        <v>662</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>337</v>
@@ -13024,11 +14059,15 @@
       <c r="G53" s="7">
         <v>1000</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="H53" s="2">
+        <v>88</v>
+      </c>
+      <c r="I53" s="2">
+        <v>876</v>
+      </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="K53" s="2">
         <v>20210702</v>
@@ -13046,7 +14085,7 @@
         <v>500</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>393</v>
+        <v>663</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>338</v>
@@ -13063,11 +14102,15 @@
       <c r="G54" s="7">
         <v>1000</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="2">
+        <v>88</v>
+      </c>
+      <c r="I54" s="2">
+        <v>849</v>
+      </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="K54" s="2">
         <v>20210702</v>
@@ -13085,7 +14128,7 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>394</v>
+        <v>664</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>339</v>
@@ -13102,11 +14145,15 @@
       <c r="G55" s="7">
         <v>1000</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="H55" s="2">
+        <v>102</v>
+      </c>
+      <c r="I55" s="2">
+        <v>886</v>
+      </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="K55" s="2">
         <v>20210702</v>
@@ -13127,12 +14174,4569 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2">
+        <v>902</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2-H2</f>
+        <v>813</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2">
+        <v>840</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J19" si="0">I3-H3</f>
+        <v>737</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2">
+        <v>858</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>769</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2">
+        <v>844</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2">
+        <v>873</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>785</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2">
+        <v>777</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+      <c r="K7" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2">
+        <v>877</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+      <c r="K8" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2">
+        <v>852</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>749</v>
+      </c>
+      <c r="K9" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2">
+        <v>735</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>647</v>
+      </c>
+      <c r="K10" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2">
+        <v>792</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>703</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2">
+        <v>921</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>834</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2">
+        <v>848</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="K13" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2">
+        <v>920</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>818</v>
+      </c>
+      <c r="K14" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2">
+        <v>881</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>793</v>
+      </c>
+      <c r="K15" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2">
+        <v>910</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="K16" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>90</v>
+      </c>
+      <c r="I17" s="10">
+        <v>430</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="K17" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2">
+        <v>792</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>704</v>
+      </c>
+      <c r="K18" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>102</v>
+      </c>
+      <c r="I19" s="2">
+        <v>870</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="K19" s="2">
+        <v>20210705</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>89</v>
+      </c>
+      <c r="I20" s="8">
+        <v>882</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ref="J20:J55" si="1">I20-H20</f>
+        <v>793</v>
+      </c>
+      <c r="K20" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>88</v>
+      </c>
+      <c r="I21" s="8">
+        <v>869</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="K21" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="8">
+        <v>89</v>
+      </c>
+      <c r="I22" s="8">
+        <v>841</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="K22" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="8">
+        <v>103</v>
+      </c>
+      <c r="I23" s="8">
+        <v>852</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="K23" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>89</v>
+      </c>
+      <c r="I24" s="8">
+        <v>890</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>801</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>88</v>
+      </c>
+      <c r="I25" s="8">
+        <v>850</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="K25" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>87</v>
+      </c>
+      <c r="I26" s="8">
+        <v>879</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>792</v>
+      </c>
+      <c r="K26" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="8">
+        <v>89</v>
+      </c>
+      <c r="I27" s="8">
+        <v>864</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>775</v>
+      </c>
+      <c r="K27" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>88</v>
+      </c>
+      <c r="I28" s="8">
+        <v>885</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>797</v>
+      </c>
+      <c r="K28" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>89</v>
+      </c>
+      <c r="I29" s="8">
+        <v>838</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="K29" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>89</v>
+      </c>
+      <c r="I30" s="8">
+        <v>848</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>759</v>
+      </c>
+      <c r="K30" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>88</v>
+      </c>
+      <c r="I31" s="8">
+        <v>737</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>649</v>
+      </c>
+      <c r="K31" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F32" s="2">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="8">
+        <v>89</v>
+      </c>
+      <c r="I32" s="8">
+        <v>891</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>802</v>
+      </c>
+      <c r="K32" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="8">
+        <v>89</v>
+      </c>
+      <c r="I33" s="8">
+        <v>836</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>747</v>
+      </c>
+      <c r="K33" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="8">
+        <v>103</v>
+      </c>
+      <c r="I34" s="8">
+        <v>929</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>826</v>
+      </c>
+      <c r="K34" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="8">
+        <v>87</v>
+      </c>
+      <c r="I35" s="8">
+        <v>785</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>698</v>
+      </c>
+      <c r="K35" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
+      <c r="I36" s="8">
+        <v>850</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="K36" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="F37" s="2">
+        <v>6</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="8">
+        <v>101</v>
+      </c>
+      <c r="I37" s="8">
+        <v>853</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="K37" s="2">
+        <v>20210707</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="8">
+        <v>105</v>
+      </c>
+      <c r="I38" s="8">
+        <v>840</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="K38" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="8">
+        <v>89</v>
+      </c>
+      <c r="I39" s="8">
+        <v>889</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="K39" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="8">
+        <v>88</v>
+      </c>
+      <c r="I40" s="8">
+        <v>868</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="K40" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F41" s="2">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="8">
+        <v>89</v>
+      </c>
+      <c r="I41" s="8">
+        <v>845</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="K41" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="8">
+        <v>88</v>
+      </c>
+      <c r="I42" s="8">
+        <v>807</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>719</v>
+      </c>
+      <c r="K42" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F43" s="2">
+        <v>6</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="8">
+        <v>88</v>
+      </c>
+      <c r="I43" s="8">
+        <v>806</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>718</v>
+      </c>
+      <c r="K43" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="8">
+        <v>89</v>
+      </c>
+      <c r="I44" s="8">
+        <v>766</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>677</v>
+      </c>
+      <c r="K44" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="8">
+        <v>90</v>
+      </c>
+      <c r="I45" s="8">
+        <v>794</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="K45" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F46" s="2">
+        <v>6</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="8">
+        <v>90</v>
+      </c>
+      <c r="I46" s="8">
+        <v>776</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>686</v>
+      </c>
+      <c r="K46" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="8">
+        <v>89</v>
+      </c>
+      <c r="I47" s="8">
+        <v>747</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>658</v>
+      </c>
+      <c r="K47" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="8">
+        <v>90</v>
+      </c>
+      <c r="I48" s="8">
+        <v>840</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="K48" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="8">
+        <v>90</v>
+      </c>
+      <c r="I49" s="8">
+        <v>841</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="K49" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="8">
+        <v>90</v>
+      </c>
+      <c r="I50" s="8">
+        <v>912</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>822</v>
+      </c>
+      <c r="K50" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F51" s="2">
+        <v>6</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="8">
+        <v>89</v>
+      </c>
+      <c r="I51" s="8">
+        <v>856</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>767</v>
+      </c>
+      <c r="K51" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F52" s="2">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="8">
+        <v>89</v>
+      </c>
+      <c r="I52" s="8">
+        <v>840</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="K52" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F53" s="2">
+        <v>6</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="8">
+        <v>90</v>
+      </c>
+      <c r="I53" s="8">
+        <v>856</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>766</v>
+      </c>
+      <c r="K53" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F54" s="2">
+        <v>6</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="8">
+        <v>90</v>
+      </c>
+      <c r="I54" s="8">
+        <v>779</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>689</v>
+      </c>
+      <c r="K54" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="8">
+        <v>89</v>
+      </c>
+      <c r="I55" s="8">
+        <v>872</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="K55" s="2">
+        <v>20210709</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68179993-6ED1-5244-B42A-B5CF1DC827DC}">
+  <dimension ref="A1:P57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2">
+        <v>899</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2-H2</f>
+        <v>810</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2">
+        <v>857</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J57" si="0">I3-H3</f>
+        <v>769</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2">
+        <v>911</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2">
+        <v>854</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2">
+        <v>898</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="K6" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2">
+        <v>815</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>727</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2">
+        <v>859</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>769</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>89</v>
+      </c>
+      <c r="I9" s="2">
+        <v>848</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>759</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>89</v>
+      </c>
+      <c r="I10" s="2">
+        <v>933</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>844</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2">
+        <v>820</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2">
+        <v>900</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>811</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2">
+        <v>861</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2">
+        <v>897</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2">
+        <v>893</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>788</v>
+      </c>
+      <c r="K15" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>89</v>
+      </c>
+      <c r="I16" s="2">
+        <v>922</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>833</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8">
+        <v>854</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>766</v>
+      </c>
+      <c r="K17" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>101</v>
+      </c>
+      <c r="I18" s="2">
+        <v>918</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2">
+        <v>908</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>821</v>
+      </c>
+      <c r="K19" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <v>7</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>7</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>7</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>7</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>7</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>7</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>7</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>7</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>7</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>7</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>7</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>7</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>7</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>7</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>7</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D56">
+        <v>65</v>
+      </c>
+      <c r="E56" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F56" s="2">
+        <v>7</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>89</v>
+      </c>
+      <c r="I56">
+        <v>788</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57" s="2">
+        <v>7122021</v>
+      </c>
+      <c r="F57" s="2">
+        <v>7</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>90</v>
+      </c>
+      <c r="I57">
+        <v>938</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>848</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grace\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracecarey/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3B0896-12AD-4731-93DB-AD7DD80D2C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F9575-5AE5-4C45-84B6-A5ADCB894262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-110" windowWidth="18230" windowHeight="11020" activeTab="6" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="18240" windowHeight="11020" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -47,10 +38,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{98B61FB3-52CC-9F41-BC50-21752F5C5A25}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -65,10 +65,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6AB049BB-9B62-234E-B092-DC3406986DB0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -83,10 +92,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{944BE181-8429-0C41-98F4-DAD1FFAEEFEF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -94,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="827">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -2575,24 +2593,6 @@
   </si>
   <si>
     <t>C54R7</t>
-  </si>
-  <si>
-    <t>CX1R7</t>
-  </si>
-  <si>
-    <t>CX2R7</t>
-  </si>
-  <si>
-    <t>CX1</t>
-  </si>
-  <si>
-    <t>CX2</t>
-  </si>
-  <si>
-    <t>SSCAMR00432</t>
-  </si>
-  <si>
-    <t>SSCAMR00433</t>
   </si>
 </sst>
 </file>
@@ -3051,7 +3051,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -3066,7 +3066,7 @@
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>142</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>144</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>168</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
@@ -5018,7 +5018,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -5037,7 +5037,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -7208,7 +7208,7 @@
       <selection activeCell="B55" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -7227,7 +7227,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>231</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>233</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>234</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>236</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>237</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>238</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>241</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>243</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>244</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>245</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>246</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>247</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>248</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>250</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>251</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>252</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>253</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>254</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>255</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>261</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>262</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>264</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>266</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>267</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>268</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>269</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>270</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>271</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>272</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>273</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>274</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>275</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>277</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>278</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>279</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>280</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>281</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>282</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>283</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>284</v>
       </c>
@@ -9398,12 +9398,12 @@
       <selection activeCell="D27" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>395</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>396</v>
       </c>
@@ -9539,7 +9539,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>397</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>398</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>399</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>400</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>401</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>402</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>403</v>
       </c>
@@ -9840,7 +9840,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>404</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>405</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>406</v>
       </c>
@@ -9969,7 +9969,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>407</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>408</v>
       </c>
@@ -10055,7 +10055,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>409</v>
       </c>
@@ -10098,7 +10098,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>410</v>
       </c>
@@ -10141,7 +10141,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>411</v>
       </c>
@@ -10184,7 +10184,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>412</v>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>413</v>
       </c>
@@ -10270,7 +10270,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>414</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>415</v>
       </c>
@@ -10356,7 +10356,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>416</v>
       </c>
@@ -10399,7 +10399,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>417</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>418</v>
       </c>
@@ -10485,7 +10485,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>419</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>420</v>
       </c>
@@ -10571,7 +10571,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>421</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>422</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>423</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>424</v>
       </c>
@@ -10743,7 +10743,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>425</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>426</v>
       </c>
@@ -10829,7 +10829,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>427</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>428</v>
       </c>
@@ -10915,7 +10915,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>429</v>
       </c>
@@ -10958,7 +10958,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>430</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>431</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>432</v>
       </c>
@@ -11087,7 +11087,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>433</v>
       </c>
@@ -11130,7 +11130,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>434</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>435</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>436</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>437</v>
       </c>
@@ -11302,7 +11302,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>438</v>
       </c>
@@ -11345,7 +11345,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>439</v>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>440</v>
       </c>
@@ -11431,7 +11431,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>441</v>
       </c>
@@ -11474,7 +11474,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>442</v>
       </c>
@@ -11517,7 +11517,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>443</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>444</v>
       </c>
@@ -11603,7 +11603,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>445</v>
       </c>
@@ -11646,7 +11646,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>446</v>
       </c>
@@ -11689,7 +11689,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>447</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>448</v>
       </c>
@@ -11785,16 +11785,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B55" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>448</v>
       </c>
@@ -11887,7 +11887,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>449</v>
       </c>
@@ -11930,7 +11930,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>450</v>
       </c>
@@ -11973,7 +11973,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>451</v>
       </c>
@@ -12016,7 +12016,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>452</v>
       </c>
@@ -12059,7 +12059,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>453</v>
       </c>
@@ -12102,7 +12102,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>454</v>
       </c>
@@ -12145,7 +12145,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>455</v>
       </c>
@@ -12188,7 +12188,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>456</v>
       </c>
@@ -12231,7 +12231,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>457</v>
       </c>
@@ -12274,7 +12274,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>458</v>
       </c>
@@ -12317,7 +12317,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>459</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>460</v>
       </c>
@@ -12403,7 +12403,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>461</v>
       </c>
@@ -12446,7 +12446,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>462</v>
       </c>
@@ -12489,7 +12489,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>463</v>
       </c>
@@ -12532,7 +12532,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>464</v>
       </c>
@@ -12575,7 +12575,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>465</v>
       </c>
@@ -12618,7 +12618,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>466</v>
       </c>
@@ -12661,7 +12661,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>467</v>
       </c>
@@ -12704,7 +12704,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>468</v>
       </c>
@@ -12747,7 +12747,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>469</v>
       </c>
@@ -12790,7 +12790,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>470</v>
       </c>
@@ -12833,7 +12833,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>471</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>472</v>
       </c>
@@ -12919,7 +12919,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>473</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>474</v>
       </c>
@@ -13005,7 +13005,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>475</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>476</v>
       </c>
@@ -13091,7 +13091,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>477</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>478</v>
       </c>
@@ -13177,7 +13177,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>479</v>
       </c>
@@ -13220,7 +13220,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>480</v>
       </c>
@@ -13263,7 +13263,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>481</v>
       </c>
@@ -13306,7 +13306,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>482</v>
       </c>
@@ -13349,7 +13349,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>483</v>
       </c>
@@ -13392,7 +13392,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>484</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>485</v>
       </c>
@@ -13478,7 +13478,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>486</v>
       </c>
@@ -13521,7 +13521,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>487</v>
       </c>
@@ -13564,7 +13564,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>488</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>489</v>
       </c>
@@ -13650,7 +13650,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>490</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>491</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>492</v>
       </c>
@@ -13779,7 +13779,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>493</v>
       </c>
@@ -13822,7 +13822,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>494</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>495</v>
       </c>
@@ -13908,7 +13908,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>496</v>
       </c>
@@ -13951,7 +13951,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>497</v>
       </c>
@@ -13994,7 +13994,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>498</v>
       </c>
@@ -14037,7 +14037,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>499</v>
       </c>
@@ -14080,7 +14080,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>500</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>501</v>
       </c>
@@ -14176,16 +14176,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>503</v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>504</v>
       </c>
@@ -14321,7 +14321,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>505</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>506</v>
       </c>
@@ -14407,7 +14407,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>507</v>
       </c>
@@ -14450,7 +14450,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>508</v>
       </c>
@@ -14493,7 +14493,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>509</v>
       </c>
@@ -14536,7 +14536,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>510</v>
       </c>
@@ -14579,7 +14579,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>511</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>512</v>
       </c>
@@ -14665,7 +14665,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>513</v>
       </c>
@@ -14708,7 +14708,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>514</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>515</v>
       </c>
@@ -14794,7 +14794,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>516</v>
       </c>
@@ -14837,7 +14837,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>517</v>
       </c>
@@ -14880,7 +14880,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>518</v>
       </c>
@@ -14923,7 +14923,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>519</v>
       </c>
@@ -14966,7 +14966,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>520</v>
       </c>
@@ -15009,7 +15009,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>521</v>
       </c>
@@ -15052,7 +15052,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>522</v>
       </c>
@@ -15095,7 +15095,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>523</v>
       </c>
@@ -15138,7 +15138,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>524</v>
       </c>
@@ -15181,7 +15181,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>525</v>
       </c>
@@ -15224,7 +15224,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>526</v>
       </c>
@@ -15267,7 +15267,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>527</v>
       </c>
@@ -15310,7 +15310,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>528</v>
       </c>
@@ -15353,7 +15353,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>529</v>
       </c>
@@ -15396,7 +15396,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>530</v>
       </c>
@@ -15439,7 +15439,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>531</v>
       </c>
@@ -15482,7 +15482,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>532</v>
       </c>
@@ -15525,7 +15525,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>533</v>
       </c>
@@ -15568,7 +15568,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>534</v>
       </c>
@@ -15611,7 +15611,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>535</v>
       </c>
@@ -15654,7 +15654,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>536</v>
       </c>
@@ -15697,7 +15697,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>537</v>
       </c>
@@ -15740,7 +15740,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>538</v>
       </c>
@@ -15783,7 +15783,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>539</v>
       </c>
@@ -15826,7 +15826,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>540</v>
       </c>
@@ -15869,7 +15869,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>541</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>542</v>
       </c>
@@ -15955,7 +15955,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>543</v>
       </c>
@@ -15998,7 +15998,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>544</v>
       </c>
@@ -16041,7 +16041,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>545</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>546</v>
       </c>
@@ -16127,7 +16127,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>547</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>548</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>549</v>
       </c>
@@ -16256,7 +16256,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>550</v>
       </c>
@@ -16299,7 +16299,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>551</v>
       </c>
@@ -16342,7 +16342,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>552</v>
       </c>
@@ -16385,7 +16385,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>553</v>
       </c>
@@ -16428,7 +16428,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>554</v>
       </c>
@@ -16471,7 +16471,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>555</v>
       </c>
@@ -16514,7 +16514,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>556</v>
       </c>
@@ -16557,7 +16557,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
     </row>
   </sheetData>
@@ -16568,18 +16568,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68179993-6ED1-5244-B42A-B5CF1DC827DC}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>719</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>720</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>857</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J57" si="0">I3-H3</f>
+        <f t="shared" ref="J3:J55" si="0">I3-H3</f>
         <v>769</v>
       </c>
       <c r="K3" s="2">
@@ -16715,7 +16715,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>721</v>
       </c>
@@ -16758,7 +16758,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>722</v>
       </c>
@@ -16801,7 +16801,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>723</v>
       </c>
@@ -16844,7 +16844,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>724</v>
       </c>
@@ -16887,7 +16887,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>725</v>
       </c>
@@ -16930,7 +16930,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>726</v>
       </c>
@@ -16973,7 +16973,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>727</v>
       </c>
@@ -17016,7 +17016,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>728</v>
       </c>
@@ -17059,7 +17059,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>729</v>
       </c>
@@ -17102,7 +17102,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>730</v>
       </c>
@@ -17145,7 +17145,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>731</v>
       </c>
@@ -17188,7 +17188,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>732</v>
       </c>
@@ -17231,7 +17231,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>733</v>
       </c>
@@ -17274,7 +17274,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>734</v>
       </c>
@@ -17317,7 +17317,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>735</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>736</v>
       </c>
@@ -17403,7 +17403,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>737</v>
       </c>
@@ -17438,7 +17438,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>738</v>
       </c>
@@ -17473,7 +17473,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>739</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>740</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>741</v>
       </c>
@@ -17578,7 +17578,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>742</v>
       </c>
@@ -17613,7 +17613,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>743</v>
       </c>
@@ -17648,7 +17648,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>744</v>
       </c>
@@ -17683,7 +17683,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>745</v>
       </c>
@@ -17718,7 +17718,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>746</v>
       </c>
@@ -17753,7 +17753,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>747</v>
       </c>
@@ -17788,7 +17788,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>748</v>
       </c>
@@ -17823,7 +17823,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>749</v>
       </c>
@@ -17858,7 +17858,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>750</v>
       </c>
@@ -17893,7 +17893,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>751</v>
       </c>
@@ -17928,7 +17928,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>752</v>
       </c>
@@ -17963,7 +17963,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>753</v>
       </c>
@@ -17998,7 +17998,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>754</v>
       </c>
@@ -18033,7 +18033,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>755</v>
       </c>
@@ -18068,7 +18068,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>756</v>
       </c>
@@ -18103,7 +18103,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>757</v>
       </c>
@@ -18138,7 +18138,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>758</v>
       </c>
@@ -18173,7 +18173,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>759</v>
       </c>
@@ -18208,7 +18208,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>760</v>
       </c>
@@ -18243,7 +18243,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>761</v>
       </c>
@@ -18278,7 +18278,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>762</v>
       </c>
@@ -18313,7 +18313,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>763</v>
       </c>
@@ -18348,7 +18348,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>764</v>
       </c>
@@ -18383,7 +18383,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>765</v>
       </c>
@@ -18418,7 +18418,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>766</v>
       </c>
@@ -18453,7 +18453,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>767</v>
       </c>
@@ -18488,7 +18488,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>768</v>
       </c>
@@ -18523,7 +18523,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>769</v>
       </c>
@@ -18558,7 +18558,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>770</v>
       </c>
@@ -18593,7 +18593,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>771</v>
       </c>
@@ -18628,7 +18628,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>772</v>
       </c>
@@ -18662,78 +18662,6 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D56">
-        <v>65</v>
-      </c>
-      <c r="E56" s="2">
-        <v>7122021</v>
-      </c>
-      <c r="F56" s="2">
-        <v>7</v>
-      </c>
-      <c r="G56" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H56">
-        <v>89</v>
-      </c>
-      <c r="I56">
-        <v>788</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>699</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D57">
-        <v>35</v>
-      </c>
-      <c r="E57" s="2">
-        <v>7122021</v>
-      </c>
-      <c r="F57" s="2">
-        <v>7</v>
-      </c>
-      <c r="G57" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H57">
-        <v>90</v>
-      </c>
-      <c r="I57">
-        <v>938</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>848</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>230</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/LeachateData.xlsx
+++ b/Data/LeachateData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/2021_strips_soil_column/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracecarey/Documents/2021_strips_soil_column/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8C159-54E1-1147-8EE9-CA239FBB82B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F9575-5AE5-4C45-84B6-A5ADCB894262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="500" windowWidth="24540" windowHeight="16640" activeTab="6" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="18240" windowHeight="11020" activeTab="4" xr2:uid="{BB50EEFD-D6E6-1446-BF52-B136C76F6CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rainfall 1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -47,10 +38,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{98B61FB3-52CC-9F41-BC50-21752F5C5A25}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -65,10 +65,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6AB049BB-9B62-234E-B092-DC3406986DB0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -83,10 +92,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{944BE181-8429-0C41-98F4-DAD1FFAEEFEF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Please make unique name, not start with number, add project name</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -3033,7 +3051,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -5000,7 +5018,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -7190,7 +7208,7 @@
       <selection activeCell="B55" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -9380,7 +9398,7 @@
       <selection activeCell="D27" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -11767,11 +11785,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5F78B-ED0A-A94A-92EC-0E12CA5D830D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B55" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14158,11 +14176,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A820-FA44-D343-8D24-028C09F8EE09}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -16550,13 +16568,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68179993-6ED1-5244-B42A-B5CF1DC827DC}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -16636,10 +16654,12 @@
       <c r="H2" s="2">
         <v>89</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>899</v>
+      </c>
       <c r="J2" s="2">
         <f>I2-H2</f>
-        <v>-89</v>
+        <v>810</v>
       </c>
       <c r="K2" s="2">
         <v>7122021</v>
@@ -16677,10 +16697,12 @@
       <c r="H3" s="2">
         <v>88</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>857</v>
+      </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J55" si="0">I3-H3</f>
-        <v>-88</v>
+        <v>769</v>
       </c>
       <c r="K3" s="2">
         <v>7122021</v>
@@ -16718,10 +16740,12 @@
       <c r="H4" s="2">
         <v>89</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>911</v>
+      </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>822</v>
       </c>
       <c r="K4" s="2">
         <v>7122021</v>
@@ -16759,10 +16783,12 @@
       <c r="H5" s="2">
         <v>89</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>854</v>
+      </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>765</v>
       </c>
       <c r="K5" s="2">
         <v>7122021</v>
@@ -16800,10 +16826,12 @@
       <c r="H6" s="2">
         <v>88</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>898</v>
+      </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>810</v>
       </c>
       <c r="K6" s="2">
         <v>7122021</v>
@@ -16841,10 +16869,12 @@
       <c r="H7" s="2">
         <v>88</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>815</v>
+      </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>727</v>
       </c>
       <c r="K7" s="2">
         <v>7122021</v>
@@ -16882,10 +16912,12 @@
       <c r="H8" s="2">
         <v>90</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>859</v>
+      </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>769</v>
       </c>
       <c r="K8" s="2">
         <v>7122021</v>
@@ -16923,10 +16955,12 @@
       <c r="H9" s="2">
         <v>89</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>848</v>
+      </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>759</v>
       </c>
       <c r="K9" s="2">
         <v>7122021</v>
@@ -16964,10 +16998,12 @@
       <c r="H10" s="2">
         <v>89</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>933</v>
+      </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>844</v>
       </c>
       <c r="K10" s="2">
         <v>7122021</v>
@@ -17005,10 +17041,12 @@
       <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>820</v>
+      </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>730</v>
       </c>
       <c r="K11" s="2">
         <v>7122021</v>
@@ -17046,10 +17084,12 @@
       <c r="H12" s="2">
         <v>89</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>900</v>
+      </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>811</v>
       </c>
       <c r="K12" s="2">
         <v>7122021</v>
@@ -17087,10 +17127,12 @@
       <c r="H13" s="2">
         <v>89</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>861</v>
+      </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>772</v>
       </c>
       <c r="K13" s="2">
         <v>7122021</v>
@@ -17128,10 +17170,12 @@
       <c r="H14" s="2">
         <v>90</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>897</v>
+      </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>807</v>
       </c>
       <c r="K14" s="2">
         <v>7122021</v>
@@ -17169,10 +17213,12 @@
       <c r="H15" s="2">
         <v>105</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>893</v>
+      </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-105</v>
+        <v>788</v>
       </c>
       <c r="K15" s="2">
         <v>7122021</v>
@@ -17210,10 +17256,12 @@
       <c r="H16" s="2">
         <v>89</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>922</v>
+      </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-89</v>
+        <v>833</v>
       </c>
       <c r="K16" s="2">
         <v>7122021</v>
@@ -17251,10 +17299,12 @@
       <c r="H17" s="2">
         <v>88</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8">
+        <v>854</v>
+      </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-88</v>
+        <v>766</v>
       </c>
       <c r="K17" s="2">
         <v>7122021</v>
@@ -17292,10 +17342,12 @@
       <c r="H18" s="2">
         <v>101</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>918</v>
+      </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-101</v>
+        <v>817</v>
       </c>
       <c r="K18" s="2">
         <v>7122021</v>
@@ -17333,10 +17385,12 @@
       <c r="H19" s="2">
         <v>87</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>908</v>
+      </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-87</v>
+        <v>821</v>
       </c>
       <c r="K19" s="2">
         <v>7122021</v>
@@ -18608,9 +18662,6 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
